--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34586ECC-07D1-4401-81F1-E8F25F996BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20424B5-429D-4F7D-BB53-1057BEB78B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">書籍情報管理システム!$H$74:$I$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">書籍情報管理システム!$H$76:$I$88</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">書籍情報管理システム!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">書籍情報管理システム!$1:$2</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="138">
   <si>
     <t>予定</t>
   </si>
@@ -1116,6 +1116,40 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上司レビューの前に全員でレビューする</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム内レビュー</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者ログアウト</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1223,7 +1257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1477,29 +1511,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1568,6 +1584,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,15 +1604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1701,6 +1714,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,39 +1731,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4729,6 +4718,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4826,15 +4819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:colOff>89646</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186765</xdr:colOff>
+      <xdr:colOff>224118</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>141941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4849,7 +4842,403 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11392647" y="9099177"/>
+          <a:off x="11392646" y="9099176"/>
+          <a:ext cx="134472" cy="82177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFAC5A6-3068-45C0-B24D-73138A77F3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11407589" y="10518589"/>
+          <a:ext cx="131482" cy="82176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97118</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3908</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3731097-8062-4253-A12A-F163B3FB22E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11400118" y="10690412"/>
+          <a:ext cx="131482" cy="82176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6908E22E-5674-4459-9B40-11F45D4AD817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11407589" y="10869706"/>
+          <a:ext cx="131482" cy="82176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FCA159-6D03-40AE-AAF0-EC4EE26F84E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11415059" y="9263530"/>
+          <a:ext cx="112059" cy="97117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C62188C-3D49-42DC-BAD6-B3CC6A9B2774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11482294" y="9450294"/>
+          <a:ext cx="112059" cy="97117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53190</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD458AFD-3A41-4083-AD1B-B9FEEC025986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11542059" y="12333941"/>
+          <a:ext cx="45719" cy="67235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52295</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149413</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4538249-9194-4DF5-A673-9F957CF75CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11586883" y="11250706"/>
           <a:ext cx="97118" cy="67236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4882,6 +5271,907 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76BBC5F-D2F3-4A21-A0E7-7F3FA5EC2F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11594353" y="11422529"/>
+          <a:ext cx="97118" cy="67236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C985C17-0078-41A1-A0A5-9B877241C188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601823" y="11624235"/>
+          <a:ext cx="97118" cy="67236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216645</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141940</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D8DE6F-7DAE-4278-B47F-DE2EC3E64972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519645" y="11788589"/>
+          <a:ext cx="156883" cy="67235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216645</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141940</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EA11C6-C1CF-4142-8277-902FA2E17D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519645" y="11967883"/>
+          <a:ext cx="156883" cy="82176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216646</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E03998-EAE9-4DA7-86E1-804F0E8D1C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519646" y="12147176"/>
+          <a:ext cx="141942" cy="74706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14940</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D03058-B67E-4D01-B7DE-F53594A75FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11549528" y="12685058"/>
+          <a:ext cx="433295" cy="67236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136768</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A80F431-AD37-44A5-B79A-884443CF7D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11850076" y="12817229"/>
+          <a:ext cx="517769" cy="78155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B227A00E-6B01-4B41-B9CE-50F8EBA3749F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11938001" y="13549922"/>
+          <a:ext cx="205153" cy="48847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9D83A5-CE22-4448-A0D3-A7283FCAA47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11947770" y="13735538"/>
+          <a:ext cx="205153" cy="48847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B769C6-ABB1-4BA8-8343-B44ED47DC226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11947769" y="13891846"/>
+          <a:ext cx="429846" cy="68385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8E1A01-3C15-48AD-AECC-2563DC6ECE12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11938000" y="14184923"/>
+          <a:ext cx="429846" cy="68385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606DF270-5F25-4507-8FAF-C69AC5709117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12162692" y="14604999"/>
+          <a:ext cx="244231" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>84796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82CBEA5-2E58-41C0-8A83-8FF33CB9C02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12152923" y="14048154"/>
+          <a:ext cx="244231" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5188,11 +6478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME147"/>
+  <dimension ref="A1:AME152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5208,74 +6498,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="81" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="84"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -5291,187 +6581,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="44">
+      <c r="H2" s="67"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="48">
         <v>22</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44">
+      <c r="K2" s="50"/>
+      <c r="L2" s="48">
         <v>23</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="44">
+      <c r="M2" s="49"/>
+      <c r="N2" s="48">
         <v>24</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44">
+      <c r="O2" s="49"/>
+      <c r="P2" s="48">
         <v>25</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="44">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="48">
         <v>26</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="42">
+      <c r="S2" s="49"/>
+      <c r="T2" s="46">
         <v>27</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="42">
+      <c r="U2" s="47"/>
+      <c r="V2" s="46">
         <v>28</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44">
+      <c r="W2" s="47"/>
+      <c r="X2" s="48">
         <v>29</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="44">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="48">
         <v>30</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="44">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="48">
         <v>31</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="75">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="76">
         <v>1</v>
       </c>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="75">
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="76">
         <v>2</v>
       </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="77">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="78">
         <v>3</v>
       </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="77">
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="78">
         <v>4</v>
       </c>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="75">
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="76">
         <v>5</v>
       </c>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="75">
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="76">
         <v>6</v>
       </c>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="75">
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="76">
         <v>7</v>
       </c>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="75">
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="76">
         <v>8</v>
       </c>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="75">
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="76">
         <v>9</v>
       </c>
-      <c r="AU2" s="76"/>
+      <c r="AU2" s="77"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="44" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="44" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="42" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="42" t="s">
+      <c r="U3" s="47"/>
+      <c r="V3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="44" t="s">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="44" t="s">
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="74" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="74" t="s">
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="79" t="s">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="79" t="s">
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="74" t="s">
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="74" t="s">
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="74" t="s">
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="74" t="s">
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="74" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="46"/>
+      <c r="AU3" s="50"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -5577,17 +6867,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -6339,17 +7629,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="84"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -6845,17 +8135,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="84"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -7012,17 +8302,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -7380,17 +8670,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -7821,17 +9111,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -8132,17 +9422,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -8278,7 +9568,7 @@
       <c r="L49" s="16"/>
       <c r="M49" s="20"/>
       <c r="N49" s="16"/>
-      <c r="O49" s="89"/>
+      <c r="O49" s="42"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="16"/>
@@ -8336,14 +9626,14 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="20"/>
       <c r="N50" s="16"/>
-      <c r="O50" s="89"/>
+      <c r="O50" s="42"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="16"/>
@@ -8394,20 +9684,21 @@
       <c r="F51" s="34">
         <v>45496.652777777781</v>
       </c>
-      <c r="G51" s="34"/>
+      <c r="G51" s="34">
+        <v>45496.694444444445</v>
+      </c>
       <c r="H51" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="15"/>
       <c r="L51" s="16"/>
       <c r="M51" s="20"/>
       <c r="N51" s="16"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="16"/>
+      <c r="O51" s="16"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
       <c r="S51" s="15"/>
@@ -8454,16 +9745,24 @@
       <c r="E52" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="4"/>
+      <c r="F52" s="34">
+        <v>45496.652777777781</v>
+      </c>
+      <c r="G52" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J52" s="16"/>
       <c r="K52" s="15"/>
       <c r="L52" s="16"/>
       <c r="M52" s="20"/>
       <c r="N52" s="16"/>
-      <c r="O52" s="89"/>
+      <c r="O52" s="42"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="16"/>
@@ -8511,16 +9810,24 @@
       <c r="E53" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="4"/>
+      <c r="F53" s="34">
+        <v>45496.645833333336</v>
+      </c>
+      <c r="G53" s="34">
+        <v>45497.385416666664</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J53" s="16"/>
       <c r="K53" s="15"/>
       <c r="L53" s="16"/>
       <c r="M53" s="20"/>
       <c r="N53" s="16"/>
-      <c r="O53" s="89"/>
+      <c r="O53" s="42"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -8585,7 +9892,7 @@
       <c r="L54" s="16"/>
       <c r="M54" s="20"/>
       <c r="N54" s="16"/>
-      <c r="O54" s="89"/>
+      <c r="O54" s="42"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="16"/>
@@ -8636,19 +9943,21 @@
       <c r="F55" s="34">
         <v>45496.520833333336</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="34">
+        <v>45496.645833333336</v>
+      </c>
       <c r="H55" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="15"/>
       <c r="L55" s="16"/>
       <c r="M55" s="20"/>
       <c r="N55" s="16"/>
-      <c r="O55" s="89"/>
+      <c r="O55" s="42"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -8713,7 +10022,7 @@
       <c r="L56" s="16"/>
       <c r="M56" s="20"/>
       <c r="N56" s="16"/>
-      <c r="O56" s="89"/>
+      <c r="O56" s="42"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="16"/>
@@ -8778,7 +10087,7 @@
       <c r="L57" s="16"/>
       <c r="M57" s="20"/>
       <c r="N57" s="16"/>
-      <c r="O57" s="89"/>
+      <c r="O57" s="42"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="16"/>
@@ -8843,7 +10152,7 @@
       <c r="L58" s="16"/>
       <c r="M58" s="20"/>
       <c r="N58" s="16"/>
-      <c r="O58" s="89"/>
+      <c r="O58" s="42"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="16"/>
@@ -8894,19 +10203,21 @@
       <c r="F59" s="34">
         <v>45496.652777777781</v>
       </c>
-      <c r="G59" s="34"/>
+      <c r="G59" s="34">
+        <v>45496.694444444445</v>
+      </c>
       <c r="H59" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="15"/>
       <c r="L59" s="16"/>
       <c r="M59" s="20"/>
       <c r="N59" s="16"/>
-      <c r="O59" s="89"/>
+      <c r="O59" s="42"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="16"/>
@@ -8954,16 +10265,24 @@
       <c r="E60" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="4"/>
+      <c r="F60" s="34">
+        <v>45496.652777777781</v>
+      </c>
+      <c r="G60" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J60" s="16"/>
       <c r="K60" s="15"/>
       <c r="L60" s="16"/>
       <c r="M60" s="20"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="89"/>
+      <c r="O60" s="42"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="15"/>
       <c r="R60" s="16"/>
@@ -9011,16 +10330,24 @@
       <c r="E61" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="4"/>
+      <c r="F61" s="34">
+        <v>45496.652777777781</v>
+      </c>
+      <c r="G61" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J61" s="16"/>
       <c r="K61" s="15"/>
       <c r="L61" s="16"/>
       <c r="M61" s="20"/>
       <c r="N61" s="16"/>
-      <c r="O61" s="89"/>
+      <c r="O61" s="42"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="16"/>
@@ -9085,7 +10412,7 @@
       <c r="L62" s="16"/>
       <c r="M62" s="20"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="89"/>
+      <c r="O62" s="42"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="16"/>
@@ -9133,18 +10460,24 @@
       <c r="E63" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F63" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="93"/>
+      <c r="F63" s="34">
+        <v>45497.392361111109</v>
+      </c>
+      <c r="G63" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J63" s="16"/>
       <c r="K63" s="15"/>
       <c r="L63" s="16"/>
       <c r="M63" s="20"/>
       <c r="N63" s="16"/>
-      <c r="O63" s="89"/>
+      <c r="O63" s="42"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="16"/>
@@ -9192,16 +10525,24 @@
       <c r="E64" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F64" s="94"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="96"/>
+      <c r="F64" s="34">
+        <v>45497.392361111109</v>
+      </c>
+      <c r="G64" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J64" s="16"/>
       <c r="K64" s="15"/>
       <c r="L64" s="16"/>
       <c r="M64" s="20"/>
       <c r="N64" s="16"/>
-      <c r="O64" s="89"/>
+      <c r="O64" s="42"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="16"/>
@@ -9249,16 +10590,24 @@
       <c r="E65" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F65" s="97"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="99"/>
+      <c r="F65" s="34">
+        <v>45497.392361111109</v>
+      </c>
+      <c r="G65" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J65" s="16"/>
       <c r="K65" s="15"/>
       <c r="L65" s="16"/>
       <c r="M65" s="20"/>
       <c r="N65" s="16"/>
-      <c r="O65" s="89"/>
+      <c r="O65" s="42"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="16"/>
@@ -9306,16 +10655,24 @@
       <c r="E66" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="4"/>
+      <c r="F66" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="G66" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J66" s="16"/>
       <c r="K66" s="15"/>
       <c r="L66" s="16"/>
       <c r="M66" s="20"/>
       <c r="N66" s="16"/>
-      <c r="O66" s="89"/>
+      <c r="O66" s="42"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="16"/>
@@ -9363,16 +10720,24 @@
       <c r="E67" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="4"/>
+      <c r="F67" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="G67" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J67" s="16"/>
       <c r="K67" s="15"/>
       <c r="L67" s="16"/>
       <c r="M67" s="20"/>
       <c r="N67" s="16"/>
-      <c r="O67" s="89"/>
+      <c r="O67" s="42"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -9420,16 +10785,24 @@
       <c r="E68" s="34">
         <v>45496.666666666664</v>
       </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="4"/>
+      <c r="F68" s="34">
+        <v>45496.694444444445</v>
+      </c>
+      <c r="G68" s="34">
+        <v>45497.416666666664</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J68" s="16"/>
       <c r="K68" s="15"/>
       <c r="L68" s="16"/>
       <c r="M68" s="20"/>
       <c r="N68" s="16"/>
-      <c r="O68" s="89"/>
+      <c r="O68" s="42"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="16"/>
@@ -9477,16 +10850,24 @@
       <c r="E69" s="33">
         <v>45496.666666666664</v>
       </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="12"/>
+      <c r="F69" s="34">
+        <v>45497.385416666664</v>
+      </c>
+      <c r="G69" s="34">
+        <v>45497.392361111109</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="J69" s="16"/>
       <c r="K69" s="15"/>
       <c r="L69" s="16"/>
       <c r="M69" s="20"/>
       <c r="N69" s="16"/>
-      <c r="O69" s="89"/>
+      <c r="O69" s="42"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="16"/>
@@ -9521,21 +10902,22 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
+      <c r="A70" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="53"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="15"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="16"/>
       <c r="O70" s="15"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="15"/>
@@ -9570,27 +10952,37 @@
       <c r="AT70" s="16"/>
       <c r="AU70" s="15"/>
     </row>
-    <row r="71" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="D71" s="39">
         <v>45497.361111111109</v>
       </c>
       <c r="E71" s="39">
         <v>45497.520833333336</v>
       </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="12"/>
+      <c r="F71" s="39">
+        <v>45497.361111111109</v>
+      </c>
+      <c r="G71" s="33">
+        <v>45497.666666666664</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="J71" s="16"/>
       <c r="K71" s="15"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="20"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="19"/>
       <c r="O71" s="15"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="15"/>
@@ -9626,22 +11018,22 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="84"/>
+      <c r="A72" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
       <c r="M72" s="15"/>
-      <c r="N72" s="24"/>
+      <c r="N72" s="16"/>
       <c r="O72" s="15"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="15"/>
@@ -9678,25 +11070,35 @@
     </row>
     <row r="73" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="33">
+      <c r="C73" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="39">
         <v>45497.361111111109</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="39">
         <v>45497.520833333336</v>
       </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="12"/>
+      <c r="F73" s="33">
+        <v>45497.666666666664</v>
+      </c>
+      <c r="G73" s="33">
+        <v>45497.6875</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="J73" s="16"/>
       <c r="K73" s="15"/>
       <c r="L73" s="16"/>
       <c r="M73" s="15"/>
-      <c r="N73" s="20"/>
+      <c r="N73" s="19"/>
       <c r="O73" s="15"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="15"/>
@@ -9732,17 +11134,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="85"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -9782,32 +11184,32 @@
       <c r="AT74" s="16"/>
       <c r="AU74" s="15"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="90"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="34">
+    <row r="75" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="33">
         <v>45497.361111111109</v>
       </c>
-      <c r="E75" s="34">
-        <v>45499.6875</v>
-      </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="4"/>
+      <c r="E75" s="33">
+        <v>45497.520833333336</v>
+      </c>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="12"/>
       <c r="J75" s="16"/>
       <c r="K75" s="15"/>
       <c r="L75" s="16"/>
       <c r="M75" s="15"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="15"/>
       <c r="T75" s="17"/>
       <c r="U75" s="18"/>
       <c r="V75" s="17"/>
@@ -9837,32 +11239,28 @@
       <c r="AT75" s="16"/>
       <c r="AU75" s="15"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="90"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="34">
-        <v>45497.361111111109</v>
-      </c>
-      <c r="E76" s="34">
-        <v>45499.6875</v>
-      </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="4"/>
+    <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
       <c r="M76" s="15"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="15"/>
       <c r="T76" s="17"/>
       <c r="U76" s="18"/>
       <c r="V76" s="17"/>
@@ -9894,29 +11292,39 @@
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="90"/>
-      <c r="C77" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D77" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E77" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="4"/>
+      <c r="F77" s="34">
+        <v>45498.361111111109</v>
+      </c>
+      <c r="G77" s="34">
+        <v>45498.479166666664</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J77" s="16"/>
       <c r="K77" s="15"/>
       <c r="L77" s="16"/>
       <c r="M77" s="15"/>
-      <c r="N77" s="20"/>
+      <c r="N77" s="19"/>
       <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
+      <c r="P77" s="19"/>
       <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
+      <c r="R77" s="19"/>
       <c r="S77" s="20"/>
       <c r="T77" s="17"/>
       <c r="U77" s="18"/>
@@ -9949,29 +11357,39 @@
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D78" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E78" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="4"/>
+      <c r="F78" s="34">
+        <v>45498.361111111109</v>
+      </c>
+      <c r="G78" s="34">
+        <v>45498.479166666664</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J78" s="16"/>
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="20"/>
+      <c r="N78" s="19"/>
       <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
+      <c r="P78" s="19"/>
       <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="20"/>
       <c r="T78" s="17"/>
       <c r="U78" s="18"/>
@@ -10004,29 +11422,37 @@
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="90"/>
-      <c r="C79" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D79" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E79" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F79" s="34"/>
+      <c r="F79" s="34">
+        <v>45498.361111111109</v>
+      </c>
       <c r="G79" s="34"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="4"/>
+      <c r="H79" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J79" s="16"/>
       <c r="K79" s="15"/>
       <c r="L79" s="16"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="20"/>
+      <c r="N79" s="19"/>
       <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
+      <c r="P79" s="19"/>
       <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="20"/>
       <c r="T79" s="17"/>
       <c r="U79" s="18"/>
@@ -10059,29 +11485,37 @@
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D80" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E80" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F80" s="34"/>
+      <c r="F80" s="34">
+        <v>45498.583333333336</v>
+      </c>
       <c r="G80" s="34"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="4"/>
+      <c r="H80" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J80" s="16"/>
       <c r="K80" s="15"/>
       <c r="L80" s="16"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="20"/>
+      <c r="N80" s="19"/>
       <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
+      <c r="P80" s="19"/>
       <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
+      <c r="R80" s="19"/>
       <c r="S80" s="20"/>
       <c r="T80" s="17"/>
       <c r="U80" s="18"/>
@@ -10114,29 +11548,37 @@
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="90"/>
-      <c r="C81" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D81" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E81" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F81" s="34"/>
+      <c r="F81" s="34">
+        <v>45498.361111111109</v>
+      </c>
       <c r="G81" s="34"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="4"/>
+      <c r="H81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J81" s="16"/>
       <c r="K81" s="15"/>
       <c r="L81" s="16"/>
       <c r="M81" s="15"/>
-      <c r="N81" s="20"/>
+      <c r="N81" s="19"/>
       <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
+      <c r="P81" s="19"/>
       <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="20"/>
       <c r="T81" s="17"/>
       <c r="U81" s="18"/>
@@ -10169,10 +11611,12 @@
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D82" s="34">
         <v>45497.361111111109</v>
       </c>
@@ -10187,11 +11631,11 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="20"/>
+      <c r="N82" s="19"/>
       <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
+      <c r="P82" s="19"/>
       <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="20"/>
       <c r="T82" s="17"/>
       <c r="U82" s="18"/>
@@ -10224,29 +11668,37 @@
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D83" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E83" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F83" s="34"/>
+      <c r="F83" s="34">
+        <v>45498.583333333336</v>
+      </c>
       <c r="G83" s="34"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="4"/>
+      <c r="H83" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J83" s="16"/>
       <c r="K83" s="15"/>
       <c r="L83" s="16"/>
       <c r="M83" s="15"/>
-      <c r="N83" s="20"/>
+      <c r="N83" s="19"/>
       <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
+      <c r="P83" s="19"/>
       <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="20"/>
       <c r="T83" s="17"/>
       <c r="U83" s="18"/>
@@ -10279,10 +11731,12 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="34">
         <v>45497.361111111109</v>
       </c>
@@ -10297,11 +11751,11 @@
       <c r="K84" s="15"/>
       <c r="L84" s="16"/>
       <c r="M84" s="15"/>
-      <c r="N84" s="20"/>
+      <c r="N84" s="19"/>
       <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
+      <c r="P84" s="19"/>
       <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
+      <c r="R84" s="19"/>
       <c r="S84" s="20"/>
       <c r="T84" s="17"/>
       <c r="U84" s="18"/>
@@ -10332,31 +11786,31 @@
       <c r="AT84" s="16"/>
       <c r="AU84" s="15"/>
     </row>
-    <row r="85" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>132</v>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="39">
+      <c r="C85" s="4"/>
+      <c r="D85" s="34">
         <v>45497.361111111109</v>
       </c>
       <c r="E85" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="101"/>
-      <c r="I85" s="100"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="16"/>
       <c r="K85" s="15"/>
       <c r="L85" s="16"/>
       <c r="M85" s="15"/>
-      <c r="N85" s="20"/>
+      <c r="N85" s="19"/>
       <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
+      <c r="P85" s="19"/>
       <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="20"/>
       <c r="T85" s="17"/>
       <c r="U85" s="18"/>
@@ -10387,28 +11841,32 @@
       <c r="AT85" s="16"/>
       <c r="AU85" s="15"/>
     </row>
-    <row r="86" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="63"/>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="34">
+        <v>45497.361111111109</v>
+      </c>
+      <c r="E86" s="34">
+        <v>45499.6875</v>
+      </c>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="16"/>
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="15"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="15"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="20"/>
       <c r="T86" s="17"/>
       <c r="U86" s="18"/>
       <c r="V86" s="17"/>
@@ -10439,27 +11897,33 @@
       <c r="AU86" s="15"/>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="49"/>
+      <c r="A87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="34">
+        <v>45497.361111111109</v>
+      </c>
+      <c r="E87" s="34">
+        <v>45499.6875</v>
+      </c>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
       <c r="L87" s="16"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="15"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="20"/>
       <c r="T87" s="17"/>
       <c r="U87" s="18"/>
       <c r="V87" s="17"/>
@@ -10489,39 +11953,39 @@
       <c r="AT87" s="16"/>
       <c r="AU87" s="15"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>111</v>
+    <row r="88" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="34">
-        <v>45502.361111111109</v>
+      <c r="C88" s="44"/>
+      <c r="D88" s="39">
+        <v>45497.361111111109</v>
       </c>
       <c r="E88" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="4"/>
+        <v>45499.6875</v>
+      </c>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="44"/>
       <c r="J88" s="16"/>
       <c r="K88" s="15"/>
       <c r="L88" s="16"/>
       <c r="M88" s="15"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="15"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="20"/>
       <c r="T88" s="17"/>
       <c r="U88" s="18"/>
       <c r="V88" s="17"/>
       <c r="W88" s="18"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="19"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="16"/>
       <c r="AA88" s="15"/>
       <c r="AB88" s="16"/>
       <c r="AC88" s="15"/>
@@ -10544,22 +12008,18 @@
       <c r="AT88" s="16"/>
       <c r="AU88" s="15"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="34">
-        <v>45502.361111111109</v>
-      </c>
-      <c r="E89" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="4"/>
+    <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="64"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -10574,9 +12034,9 @@
       <c r="U89" s="18"/>
       <c r="V89" s="17"/>
       <c r="W89" s="18"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="20"/>
-      <c r="Z89" s="19"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="16"/>
       <c r="AA89" s="15"/>
       <c r="AB89" s="16"/>
       <c r="AC89" s="15"/>
@@ -10600,21 +12060,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E90" s="34">
-        <v>45503.479166608799</v>
-      </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="4"/>
+      <c r="A90" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="88"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="89"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -10629,9 +12085,9 @@
       <c r="U90" s="18"/>
       <c r="V90" s="17"/>
       <c r="W90" s="18"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="20"/>
-      <c r="Z90" s="19"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="16"/>
       <c r="AA90" s="15"/>
       <c r="AB90" s="16"/>
       <c r="AC90" s="15"/>
@@ -10656,15 +12112,15 @@
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="34">
-        <v>45502.361111053244</v>
+        <v>45502.361111111109</v>
       </c>
       <c r="E91" s="34">
-        <v>45503.479166608799</v>
+        <v>45503.479166666664</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -10709,17 +12165,17 @@
       <c r="AT91" s="16"/>
       <c r="AU91" s="15"/>
     </row>
-    <row r="92" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>115</v>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="34">
-        <v>45502.361111053244</v>
+        <v>45502.361111111109</v>
       </c>
       <c r="E92" s="34">
-        <v>45503.479166608799</v>
+        <v>45503.479166666664</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -10764,18 +12220,22 @@
       <c r="AT92" s="16"/>
       <c r="AU92" s="15"/>
     </row>
-    <row r="93" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="49"/>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E93" s="34">
+        <v>45503.479166608799</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="16"/>
       <c r="K93" s="15"/>
       <c r="L93" s="16"/>
@@ -10817,15 +12277,15 @@
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="34">
-        <v>45502.361111111109</v>
+        <v>45502.361111053244</v>
       </c>
       <c r="E94" s="34">
-        <v>45503.479166666664</v>
+        <v>45503.479166608799</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -10870,17 +12330,17 @@
       <c r="AT94" s="16"/>
       <c r="AU94" s="15"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>106</v>
+    <row r="95" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="34">
-        <v>45502.361111111109</v>
+        <v>45502.361111053244</v>
       </c>
       <c r="E95" s="34">
-        <v>45503.479166666664</v>
+        <v>45503.479166608799</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -10925,22 +12385,18 @@
       <c r="AT95" s="16"/>
       <c r="AU95" s="15"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E96" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="4"/>
+    <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="88"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="89"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -10982,12 +12438,12 @@
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="34">
-        <v>45502.361111053244</v>
+        <v>45502.361111111109</v>
       </c>
       <c r="E97" s="34">
         <v>45503.479166666664</v>
@@ -11037,12 +12493,12 @@
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="34">
-        <v>45502.361111053244</v>
+        <v>45502.361111111109</v>
       </c>
       <c r="E98" s="34">
         <v>45503.479166666664</v>
@@ -11092,7 +12548,7 @@
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -11146,17 +12602,21 @@
       <c r="AU99" s="15"/>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A100" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="49"/>
+      <c r="A100" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E100" s="34">
+        <v>45503.479166666664</v>
+      </c>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="16"/>
       <c r="K100" s="15"/>
       <c r="L100" s="16"/>
@@ -11198,7 +12658,7 @@
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -11252,8 +12712,8 @@
       <c r="AU101" s="15"/>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A102" s="31" t="s">
-        <v>102</v>
+      <c r="A102" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -11307,21 +12767,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E103" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="4"/>
+      <c r="A103" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="88"/>
+      <c r="C103" s="88"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="88"/>
+      <c r="I103" s="89"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -11361,9 +12817,9 @@
       <c r="AT103" s="16"/>
       <c r="AU103" s="15"/>
     </row>
-    <row r="104" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>104</v>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -11416,18 +12872,22 @@
       <c r="AT104" s="16"/>
       <c r="AU104" s="15"/>
     </row>
-    <row r="105" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" s="62"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="63"/>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A105" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E105" s="34">
+        <v>45503.479166666664</v>
+      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="16"/>
       <c r="K105" s="15"/>
       <c r="L105" s="16"/>
@@ -11442,9 +12902,9 @@
       <c r="U105" s="18"/>
       <c r="V105" s="17"/>
       <c r="W105" s="18"/>
-      <c r="X105" s="16"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="16"/>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="19"/>
       <c r="AA105" s="15"/>
       <c r="AB105" s="16"/>
       <c r="AC105" s="15"/>
@@ -11468,17 +12928,21 @@
       <c r="AU105" s="15"/>
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A106" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="22"/>
+      <c r="A106" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E106" s="34">
+        <v>45503.479166666664</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
       <c r="L106" s="16"/>
@@ -11493,9 +12957,9 @@
       <c r="U106" s="18"/>
       <c r="V106" s="17"/>
       <c r="W106" s="18"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="16"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="19"/>
       <c r="AA106" s="15"/>
       <c r="AB106" s="16"/>
       <c r="AC106" s="15"/>
@@ -11518,14 +12982,18 @@
       <c r="AT106" s="16"/>
       <c r="AU106" s="15"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>40</v>
+    <row r="107" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+      <c r="D107" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E107" s="34">
+        <v>45503.479166666664</v>
+      </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
       <c r="H107" s="7"/>
@@ -11544,9 +13012,9 @@
       <c r="U107" s="18"/>
       <c r="V107" s="17"/>
       <c r="W107" s="18"/>
-      <c r="X107" s="16"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="16"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="19"/>
       <c r="AA107" s="15"/>
       <c r="AB107" s="16"/>
       <c r="AC107" s="15"/>
@@ -11569,18 +13037,18 @@
       <c r="AT107" s="16"/>
       <c r="AU107" s="15"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="4"/>
+    <row r="108" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="64"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -11621,17 +13089,17 @@
       <c r="AU108" s="15"/>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="4"/>
+      <c r="A109" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="22"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -11673,7 +13141,7 @@
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -11724,7 +13192,7 @@
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -11775,7 +13243,7 @@
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -11826,7 +13294,7 @@
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -11877,7 +13345,7 @@
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -11928,7 +13396,7 @@
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -11979,7 +13447,7 @@
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -12030,7 +13498,7 @@
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -12081,7 +13549,7 @@
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -12132,7 +13600,7 @@
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -12183,7 +13651,7 @@
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -12234,7 +13702,7 @@
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -12285,7 +13753,7 @@
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -12336,7 +13804,7 @@
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -12387,7 +13855,7 @@
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -12438,7 +13906,7 @@
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -12489,7 +13957,7 @@
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -12540,7 +14008,7 @@
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -12589,18 +14057,18 @@
       <c r="AT127" s="16"/>
       <c r="AU127" s="15"/>
     </row>
-    <row r="128" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="12"/>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="16"/>
       <c r="K128" s="15"/>
       <c r="L128" s="16"/>
@@ -12640,18 +14108,18 @@
       <c r="AT128" s="16"/>
       <c r="AU128" s="15"/>
     </row>
-    <row r="129" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="52"/>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="16"/>
       <c r="K129" s="15"/>
       <c r="L129" s="16"/>
@@ -12693,7 +14161,7 @@
     </row>
     <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -12742,18 +14210,18 @@
       <c r="AT130" s="16"/>
       <c r="AU130" s="15"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="4"/>
+    <row r="131" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="12"/>
       <c r="J131" s="16"/>
       <c r="K131" s="15"/>
       <c r="L131" s="16"/>
@@ -12793,18 +14261,18 @@
       <c r="AT131" s="16"/>
       <c r="AU131" s="15"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="4"/>
+    <row r="132" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="53"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -12846,7 +14314,7 @@
     </row>
     <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -12897,7 +14365,7 @@
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -12948,7 +14416,7 @@
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -12999,7 +14467,7 @@
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -13050,7 +14518,7 @@
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -13101,7 +14569,7 @@
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -13152,7 +14620,7 @@
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -13203,7 +14671,7 @@
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -13254,7 +14722,7 @@
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -13305,7 +14773,7 @@
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -13355,17 +14823,17 @@
       <c r="AU142" s="15"/>
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A143" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="62"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="63"/>
+      <c r="A143" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="16"/>
       <c r="K143" s="15"/>
       <c r="L143" s="16"/>
@@ -13406,7 +14874,9 @@
       <c r="AU143" s="15"/>
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
+      <c r="A144" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="34"/>
@@ -13454,28 +14924,178 @@
       <c r="AT144" s="16"/>
       <c r="AU144" s="15"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="16"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="18"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="18"/>
+      <c r="X145" s="16"/>
+      <c r="Y145" s="15"/>
+      <c r="Z145" s="16"/>
+      <c r="AA145" s="15"/>
+      <c r="AB145" s="16"/>
+      <c r="AC145" s="15"/>
+      <c r="AD145" s="16"/>
+      <c r="AE145" s="15"/>
+      <c r="AF145" s="16"/>
+      <c r="AG145" s="15"/>
+      <c r="AH145" s="17"/>
+      <c r="AI145" s="18"/>
+      <c r="AJ145" s="17"/>
+      <c r="AK145" s="18"/>
+      <c r="AL145" s="16"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="16"/>
+      <c r="AO145" s="15"/>
+      <c r="AP145" s="16"/>
+      <c r="AQ145" s="15"/>
+      <c r="AR145" s="16"/>
+      <c r="AS145" s="15"/>
+      <c r="AT145" s="16"/>
+      <c r="AU145" s="15"/>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A146" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="63"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="18"/>
+      <c r="V146" s="17"/>
+      <c r="W146" s="18"/>
+      <c r="X146" s="16"/>
+      <c r="Y146" s="15"/>
+      <c r="Z146" s="16"/>
+      <c r="AA146" s="15"/>
+      <c r="AB146" s="16"/>
+      <c r="AC146" s="15"/>
+      <c r="AD146" s="16"/>
+      <c r="AE146" s="15"/>
+      <c r="AF146" s="16"/>
+      <c r="AG146" s="15"/>
+      <c r="AH146" s="17"/>
+      <c r="AI146" s="18"/>
+      <c r="AJ146" s="17"/>
+      <c r="AK146" s="18"/>
+      <c r="AL146" s="16"/>
+      <c r="AM146" s="15"/>
+      <c r="AN146" s="16"/>
+      <c r="AO146" s="15"/>
+      <c r="AP146" s="16"/>
+      <c r="AQ146" s="15"/>
+      <c r="AR146" s="16"/>
+      <c r="AS146" s="15"/>
+      <c r="AT146" s="16"/>
+      <c r="AU146" s="15"/>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="16"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="16"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="17"/>
+      <c r="U147" s="18"/>
+      <c r="V147" s="17"/>
+      <c r="W147" s="18"/>
+      <c r="X147" s="16"/>
+      <c r="Y147" s="15"/>
+      <c r="Z147" s="16"/>
+      <c r="AA147" s="15"/>
+      <c r="AB147" s="16"/>
+      <c r="AC147" s="15"/>
+      <c r="AD147" s="16"/>
+      <c r="AE147" s="15"/>
+      <c r="AF147" s="16"/>
+      <c r="AG147" s="15"/>
+      <c r="AH147" s="17"/>
+      <c r="AI147" s="18"/>
+      <c r="AJ147" s="17"/>
+      <c r="AK147" s="18"/>
+      <c r="AL147" s="16"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="16"/>
+      <c r="AO147" s="15"/>
+      <c r="AP147" s="16"/>
+      <c r="AQ147" s="15"/>
+      <c r="AR147" s="16"/>
+      <c r="AS147" s="15"/>
+      <c r="AT147" s="16"/>
+      <c r="AU147" s="15"/>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="F63:I65"/>
+    <mergeCell ref="A96:I96"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
     <mergeCell ref="A6:I6"/>
@@ -13499,17 +15119,22 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A143:I143"/>
+    <mergeCell ref="A146:I146"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A76:I76"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A108:I108"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -13521,11 +15146,12 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A72:I72"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
@@ -13550,13 +15176,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H3 H7:H17 H19:H25 H88:H92 H94:H99 H101:H105 H107:H128 H5 H71 H27:H28 H30:H34 H36:H41 H43:H46 H48:H62 H66:H69 H73:H86 H130:H1048576</xm:sqref>
+          <xm:sqref>H1:H3 H7:H17 H19:H25 H91:H95 H97:H102 H104:H108 H110:H131 H5 H73 H27:H28 H30:H34 H36:H41 H43:H46 H133:H1048576 H71 H48:H69 H75:H89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{163969F2-48C2-4094-805E-6C3CCEB35885}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I3 I7:I17 I19:I25 I88:I92 I94:I99 I101:I105 I107:I128 I5 I71 I27:I28 I30:I34 I43:I46 I36:I41 I48:I62 I66:I69 I73:I86 I130:I1048576</xm:sqref>
+          <xm:sqref>I1:I3 I7:I17 I19:I25 I91:I95 I97:I102 I104:I108 I110:I131 I5 I73 I27:I28 I30:I34 I43:I46 I36:I41 I133:I1048576 I71 I48:I69 I75:I89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20424B5-429D-4F7D-BB53-1057BEB78B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EF17B-FA7C-4AE5-8453-7CBACC87D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,20 +1590,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1620,23 +1623,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1677,51 +1692,6 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1730,6 +1700,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6481,8 +6481,8 @@
   <dimension ref="A1:AME152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6498,74 +6498,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="82" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="84"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="51"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -6581,187 +6581,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="48">
+      <c r="H2" s="72"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="85">
         <v>22</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48">
+      <c r="K2" s="60"/>
+      <c r="L2" s="85">
         <v>23</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="48">
+      <c r="M2" s="86"/>
+      <c r="N2" s="85">
         <v>24</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="48">
+      <c r="O2" s="86"/>
+      <c r="P2" s="85">
         <v>25</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="48">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="85">
         <v>26</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="46">
+      <c r="S2" s="86"/>
+      <c r="T2" s="83">
         <v>27</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="46">
+      <c r="U2" s="84"/>
+      <c r="V2" s="83">
         <v>28</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48">
+      <c r="W2" s="84"/>
+      <c r="X2" s="85">
         <v>29</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="48">
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="85">
         <v>30</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="48">
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="85">
         <v>31</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="76">
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="61">
         <v>1</v>
       </c>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="76">
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="61">
         <v>2</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="78">
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="63">
         <v>3</v>
       </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="78">
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="63">
         <v>4</v>
       </c>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="76">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="61">
         <v>5</v>
       </c>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="76">
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="61">
         <v>6</v>
       </c>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="76">
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="61">
         <v>7</v>
       </c>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="76">
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="61">
         <v>8</v>
       </c>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="76">
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="61">
         <v>9</v>
       </c>
-      <c r="AU2" s="77"/>
+      <c r="AU2" s="62"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="48" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="48" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="48" t="s">
+      <c r="O3" s="86"/>
+      <c r="P3" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="46" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="46" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="48" t="s">
+      <c r="W3" s="84"/>
+      <c r="X3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="48" t="s">
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="48" t="s">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="75" t="s">
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="75" t="s">
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="80" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="80" t="s">
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="75" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="75" t="s">
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="75" t="s">
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="75" t="s">
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="50"/>
+      <c r="AU3" s="60"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -6867,17 +6867,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -7629,17 +7629,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="85"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -8135,17 +8135,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="85"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -8302,17 +8302,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -8670,17 +8670,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -9111,17 +9111,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="92"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -9422,17 +9422,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -10902,17 +10902,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -11018,17 +11018,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -11134,17 +11134,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="85"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -11240,17 +11240,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="75"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -11745,7 +11745,9 @@
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7">
+        <v>0.7</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="16"/>
       <c r="K84" s="15"/>
@@ -12009,17 +12011,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="64"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="69"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -12060,17 +12062,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="88"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="89"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="48"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -12386,17 +12388,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="87" t="s">
+      <c r="A96" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="89"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="48"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -12767,17 +12769,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="88"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="88"/>
-      <c r="I103" s="89"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="48"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -13038,17 +13040,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="69"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -14262,17 +14264,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="54"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -14976,17 +14978,17 @@
       <c r="AU145" s="15"/>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A146" s="62" t="s">
+      <c r="A146" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="64"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="68"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="69"/>
       <c r="J146" s="16"/>
       <c r="K146" s="15"/>
       <c r="L146" s="16"/>
@@ -15095,6 +15097,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A96:I96"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
@@ -15111,56 +15163,6 @@
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EF17B-FA7C-4AE5-8453-7CBACC87D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE20DBE-18F2-4FFD-A960-43BD8FECCFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
   <si>
     <t>予定</t>
   </si>
@@ -1590,23 +1590,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1623,35 +1620,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1693,6 +1678,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,35 +1695,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6481,8 +6481,8 @@
   <dimension ref="A1:AME152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6498,74 +6498,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="72" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="49" t="s">
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="51"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="91"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -6581,187 +6581,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="85">
+      <c r="H2" s="67"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="48">
         <v>22</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="85">
+      <c r="K2" s="50"/>
+      <c r="L2" s="48">
         <v>23</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85">
+      <c r="M2" s="49"/>
+      <c r="N2" s="48">
         <v>24</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="85">
+      <c r="O2" s="49"/>
+      <c r="P2" s="48">
         <v>25</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="85">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="48">
         <v>26</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="83">
+      <c r="S2" s="49"/>
+      <c r="T2" s="46">
         <v>27</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="83">
+      <c r="U2" s="47"/>
+      <c r="V2" s="46">
         <v>28</v>
       </c>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85">
+      <c r="W2" s="47"/>
+      <c r="X2" s="48">
         <v>29</v>
       </c>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="85">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="48">
         <v>30</v>
       </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="85">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="48">
         <v>31</v>
       </c>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="61">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="82">
         <v>1</v>
       </c>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="61">
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="82">
         <v>2</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63">
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="85">
         <v>3</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="63">
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="85">
         <v>4</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="61">
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="82">
         <v>5</v>
       </c>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="61">
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="82">
         <v>6</v>
       </c>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="61">
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="82">
         <v>7</v>
       </c>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="61">
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="82">
         <v>8</v>
       </c>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="61">
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="82">
         <v>9</v>
       </c>
-      <c r="AU2" s="62"/>
+      <c r="AU2" s="83"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="85" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="85" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="85" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="83" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="83" t="s">
+      <c r="U3" s="47"/>
+      <c r="V3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="85" t="s">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="85" t="s">
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="59" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="65" t="s">
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="59" t="s">
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="59" t="s">
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="59" t="s">
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="59" t="s">
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="59" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="60"/>
+      <c r="AU3" s="50"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -6867,17 +6867,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -7629,17 +7629,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -8135,17 +8135,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -8302,17 +8302,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -8670,17 +8670,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -9111,17 +9111,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="92"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -9422,17 +9422,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -10902,17 +10902,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="53"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -11018,17 +11018,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -11089,7 +11089,7 @@
         <v>45497.6875</v>
       </c>
       <c r="H73" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>90</v>
@@ -11134,17 +11134,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="57"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="81"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -11196,10 +11196,16 @@
       <c r="E75" s="33">
         <v>45497.520833333336</v>
       </c>
-      <c r="F75" s="33"/>
+      <c r="F75" s="33">
+        <v>45499.541666666664</v>
+      </c>
       <c r="G75" s="33"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="12"/>
+      <c r="H75" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="J75" s="16"/>
       <c r="K75" s="15"/>
       <c r="L75" s="16"/>
@@ -11240,17 +11246,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="75"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -11502,7 +11508,7 @@
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="7">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>90</v>
@@ -11565,7 +11571,7 @@
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>90</v>
@@ -11626,7 +11632,9 @@
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J82" s="16"/>
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
@@ -11685,7 +11693,7 @@
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>90</v>
@@ -11746,9 +11754,11 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I84" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J84" s="16"/>
       <c r="K84" s="15"/>
       <c r="L84" s="16"/>
@@ -11803,7 +11813,9 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J85" s="16"/>
       <c r="K85" s="15"/>
       <c r="L85" s="16"/>
@@ -11858,7 +11870,9 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J86" s="16"/>
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
@@ -11898,7 +11912,7 @@
       <c r="AT86" s="16"/>
       <c r="AU86" s="15"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>131</v>
       </c>
@@ -11912,10 +11926,12 @@
       <c r="E87" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F87" s="34"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="34"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
       <c r="L87" s="16"/>
@@ -11955,7 +11971,7 @@
       <c r="AT87" s="16"/>
       <c r="AU87" s="15"/>
     </row>
-    <row r="88" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>132</v>
       </c>
@@ -11967,10 +11983,11 @@
       <c r="E88" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="45"/>
-      <c r="I88" s="44"/>
+      <c r="I88" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J88" s="16"/>
       <c r="K88" s="15"/>
       <c r="L88" s="16"/>
@@ -12011,17 +12028,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="67" t="s">
+      <c r="A89" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="69"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="64"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -12062,17 +12079,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="48"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="77"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -12388,17 +12405,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="48"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="77"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -12769,17 +12786,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="48"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="77"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -13040,17 +13057,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="67" t="s">
+      <c r="A108" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="69"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="64"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -14264,17 +14281,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="54"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="53"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -14978,17 +14995,17 @@
       <c r="AU145" s="15"/>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A146" s="67" t="s">
+      <c r="A146" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="68"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="68"/>
-      <c r="I146" s="69"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="64"/>
       <c r="J146" s="16"/>
       <c r="K146" s="15"/>
       <c r="L146" s="16"/>
@@ -15097,32 +15114,30 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="AD1:AU1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A146:I146"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -15139,30 +15154,32 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="A90:I90"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="J1:AC1"/>
-    <mergeCell ref="AD1:AU1"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE20DBE-18F2-4FFD-A960-43BD8FECCFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCED920-0063-47AD-9D9D-42663D113F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="138">
   <si>
     <t>予定</t>
   </si>
@@ -1257,7 +1257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1511,11 +1511,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1590,6 +1603,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,6 +1745,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5700,13 +5717,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>136768</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>58614</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>205153</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>136769</xdr:rowOff>
+      <xdr:rowOff>107463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5721,8 +5738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11850076" y="12817229"/>
-          <a:ext cx="517769" cy="78155"/>
+          <a:off x="11850076" y="12817230"/>
+          <a:ext cx="908539" cy="48848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5905,15 +5922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9769</xdr:colOff>
+      <xdr:colOff>9768</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185614</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5928,8 +5945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11947769" y="13891846"/>
-          <a:ext cx="429846" cy="68385"/>
+          <a:off x="11947768" y="13891846"/>
+          <a:ext cx="849923" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5973,16 +5990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224691</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>68385</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5997,8 +6014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11938000" y="14184923"/>
-          <a:ext cx="429846" cy="68385"/>
+          <a:off x="11937999" y="14243538"/>
+          <a:ext cx="928077" cy="68385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,10 +6065,10 @@
       <xdr:rowOff>68384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19538</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>114103</xdr:rowOff>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6067,7 +6084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12162692" y="14604999"/>
-          <a:ext cx="244231" cy="45719"/>
+          <a:ext cx="683846" cy="48847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6117,8 +6134,8 @@
       <xdr:rowOff>39077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9769</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>84796</xdr:rowOff>
     </xdr:to>
@@ -6136,7 +6153,904 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12152923" y="14048154"/>
-          <a:ext cx="244231" cy="45719"/>
+          <a:ext cx="703385" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107461</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5D0A62-D903-45AD-A9DF-0B779F941FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12387385" y="14761308"/>
+          <a:ext cx="332153" cy="68384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF8E58-A9A6-4FE4-A19F-991F800E3140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12612077" y="13178692"/>
+          <a:ext cx="205153" cy="87923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91139903-A356-454A-BA8D-865CD9F1C6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13755077" y="14419385"/>
+          <a:ext cx="439615" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>136771</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205155</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54244A55-94A3-466A-BF38-AAB61F463ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12748848" y="15298616"/>
+          <a:ext cx="68384" cy="58615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595B52BE-E3D8-4DDB-9E7B-0A67C202A00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13755077" y="15308384"/>
+          <a:ext cx="361461" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9768</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB38528-611B-4909-8E33-4782CF8C4846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106769" y="14038384"/>
+          <a:ext cx="107461" cy="58615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F1DEDD-CBC2-4F7B-BD3F-638198D66E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13755077" y="14605000"/>
+          <a:ext cx="439615" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>185617</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F84B7E-5BDB-4522-B30F-B0D57B6A9857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13999308" y="17447846"/>
+          <a:ext cx="166078" cy="58616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>78153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33060B5B-D63C-4565-AB38-0A37D99129A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13813693" y="17643230"/>
+          <a:ext cx="361461" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301B830D-25DB-410B-9FFE-5F72A9D56B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13813692" y="17799538"/>
+          <a:ext cx="361461" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>166078</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B6B34A-DC34-46AC-AEF0-1EF32479B2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13979769" y="18678770"/>
+          <a:ext cx="166078" cy="58616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214924</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7393E2CF-527D-40F1-A435-B9E1BD432D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028615" y="16373230"/>
+          <a:ext cx="166078" cy="58616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48847</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214925</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5451F4C-A664-47D8-AAE8-9D334B3019B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028616" y="16549077"/>
+          <a:ext cx="166078" cy="58616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6481,8 +7395,8 @@
   <dimension ref="A1:AME152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG94" sqref="AG94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6498,74 +7412,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="89" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="92"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -6581,187 +7495,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="48">
+      <c r="H2" s="68"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="49">
         <v>22</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48">
+      <c r="K2" s="51"/>
+      <c r="L2" s="49">
         <v>23</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="48">
+      <c r="M2" s="50"/>
+      <c r="N2" s="49">
         <v>24</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="48">
+      <c r="O2" s="50"/>
+      <c r="P2" s="49">
         <v>25</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="48">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="49">
         <v>26</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="46">
+      <c r="S2" s="50"/>
+      <c r="T2" s="47">
         <v>27</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="46">
+      <c r="U2" s="48"/>
+      <c r="V2" s="47">
         <v>28</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48">
+      <c r="W2" s="48"/>
+      <c r="X2" s="49">
         <v>29</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="48">
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="49">
         <v>30</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="48">
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="49">
         <v>31</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="82">
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="83">
         <v>1</v>
       </c>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="82">
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="83">
         <v>2</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="85">
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="86">
         <v>3</v>
       </c>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="85">
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="86">
         <v>4</v>
       </c>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="82">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="83">
         <v>5</v>
       </c>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="82">
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="83">
         <v>6</v>
       </c>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="82">
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="83">
         <v>7</v>
       </c>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="82">
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="83">
         <v>8</v>
       </c>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="82">
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="83">
         <v>9</v>
       </c>
-      <c r="AU2" s="83"/>
+      <c r="AU2" s="84"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="48" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="48" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="48" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="46" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="46" t="s">
+      <c r="U3" s="48"/>
+      <c r="V3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="48" t="s">
+      <c r="W3" s="48"/>
+      <c r="X3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="48" t="s">
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="48" t="s">
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="84" t="s">
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="84" t="s">
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="87" t="s">
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="87" t="s">
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="84" t="s">
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="84" t="s">
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="84" t="s">
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="84" t="s">
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="84" t="s">
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="50"/>
+      <c r="AU3" s="51"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -6867,17 +7781,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -7629,17 +8543,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="81"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="82"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -8135,17 +9049,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="81"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -8302,17 +9216,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -8670,17 +9584,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -9111,17 +10025,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -9422,17 +10336,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -10902,17 +11816,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -10973,10 +11887,10 @@
         <v>45497.666666666664</v>
       </c>
       <c r="H71" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="15"/>
@@ -11018,17 +11932,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -11089,10 +12003,10 @@
         <v>45497.6875</v>
       </c>
       <c r="H73" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="15"/>
@@ -11134,17 +12048,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="81"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="82"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -11189,7 +12103,9 @@
         <v>94</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D75" s="33">
         <v>45497.361111111109</v>
       </c>
@@ -11246,17 +12162,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="71"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -11443,12 +12359,14 @@
       <c r="F79" s="34">
         <v>45498.361111111109</v>
       </c>
-      <c r="G79" s="34"/>
+      <c r="G79" s="34">
+        <v>45499.645833333336</v>
+      </c>
       <c r="H79" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="15"/>
@@ -11506,9 +12424,11 @@
       <c r="F80" s="34">
         <v>45498.583333333336</v>
       </c>
-      <c r="G80" s="34"/>
+      <c r="G80" s="34">
+        <v>45502.583333333336</v>
+      </c>
       <c r="H80" s="7">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>90</v>
@@ -11569,12 +12489,14 @@
       <c r="F81" s="34">
         <v>45498.361111111109</v>
       </c>
-      <c r="G81" s="34"/>
+      <c r="G81" s="34">
+        <v>45502.375</v>
+      </c>
       <c r="H81" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="15"/>
@@ -11629,11 +12551,17 @@
       <c r="E82" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="7"/>
+      <c r="F82" s="34">
+        <v>45502.375</v>
+      </c>
+      <c r="G82" s="34">
+        <v>45502.583333333336</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
       <c r="I82" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="15"/>
@@ -11691,12 +12619,14 @@
       <c r="F83" s="34">
         <v>45498.583333333336</v>
       </c>
-      <c r="G83" s="34"/>
+      <c r="G83" s="34">
+        <v>45502.645833333336</v>
+      </c>
       <c r="H83" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="15"/>
@@ -11751,13 +12681,17 @@
       <c r="E84" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
+      <c r="F84" s="34">
+        <v>45499.361111111109</v>
+      </c>
+      <c r="G84" s="34">
+        <v>45499.645833333336</v>
+      </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="15"/>
@@ -11810,9 +12744,9 @@
       <c r="E85" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="7"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="95"/>
       <c r="I85" s="4" t="s">
         <v>89</v>
       </c>
@@ -11867,9 +12801,9 @@
       <c r="E86" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="7"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="95"/>
       <c r="I86" s="4" t="s">
         <v>89</v>
       </c>
@@ -11912,7 +12846,7 @@
       <c r="AT86" s="16"/>
       <c r="AU86" s="15"/>
     </row>
-    <row r="87" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>131</v>
       </c>
@@ -11926,11 +12860,15 @@
       <c r="E87" s="34">
         <v>45499.6875</v>
       </c>
-      <c r="F87" s="39"/>
+      <c r="F87" s="34">
+        <v>45499.645833333336</v>
+      </c>
       <c r="G87" s="34"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I87" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
@@ -11971,7 +12909,7 @@
       <c r="AT87" s="16"/>
       <c r="AU87" s="15"/>
     </row>
-    <row r="88" spans="1:47" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>132</v>
       </c>
@@ -11980,12 +12918,13 @@
       <c r="D88" s="39">
         <v>45497.361111111109</v>
       </c>
-      <c r="E88" s="34">
+      <c r="E88" s="33">
         <v>45499.6875</v>
       </c>
+      <c r="F88" s="46"/>
       <c r="G88" s="39"/>
       <c r="H88" s="45"/>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="12" t="s">
         <v>89</v>
       </c>
       <c r="J88" s="16"/>
@@ -12028,17 +12967,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="74"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -12079,17 +13018,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="77"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -12134,7 +13073,9 @@
         <v>111</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D91" s="34">
         <v>45502.361111111109</v>
       </c>
@@ -12189,17 +13130,19 @@
         <v>112</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D92" s="34">
         <v>45502.361111111109</v>
       </c>
       <c r="E92" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="4"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="95"/>
+      <c r="I92" s="96"/>
       <c r="J92" s="16"/>
       <c r="K92" s="15"/>
       <c r="L92" s="16"/>
@@ -12244,17 +13187,27 @@
         <v>113</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D93" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E93" s="34">
         <v>45503.479166608799</v>
       </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="4"/>
+      <c r="F93" s="34">
+        <v>45502.645833333336</v>
+      </c>
+      <c r="G93" s="34">
+        <v>45502.6875</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J93" s="16"/>
       <c r="K93" s="15"/>
       <c r="L93" s="16"/>
@@ -12299,17 +13252,27 @@
         <v>114</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D94" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E94" s="34">
         <v>45503.479166608799</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="4"/>
+      <c r="F94" s="34">
+        <v>45502.645833333336</v>
+      </c>
+      <c r="G94" s="34">
+        <v>45502.6875</v>
+      </c>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J94" s="16"/>
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
@@ -12354,7 +13317,9 @@
         <v>115</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D95" s="34">
         <v>45502.361111053244</v>
       </c>
@@ -12405,17 +13370,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="77"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="78"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -12460,17 +13425,16 @@
         <v>105</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
       <c r="D97" s="34">
         <v>45502.361111111109</v>
       </c>
       <c r="E97" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="4"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="94"/>
+      <c r="H97" s="95"/>
+      <c r="I97" s="96"/>
       <c r="J97" s="16"/>
       <c r="K97" s="15"/>
       <c r="L97" s="16"/>
@@ -12522,10 +13486,10 @@
       <c r="E98" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="4"/>
+      <c r="F98" s="94"/>
+      <c r="G98" s="94"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="96"/>
       <c r="J98" s="16"/>
       <c r="K98" s="15"/>
       <c r="L98" s="16"/>
@@ -12570,17 +13534,27 @@
         <v>107</v>
       </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D99" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E99" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="4"/>
+      <c r="F99" s="34">
+        <v>45502.5625</v>
+      </c>
+      <c r="G99" s="34">
+        <v>45502.604166666664</v>
+      </c>
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J99" s="16"/>
       <c r="K99" s="15"/>
       <c r="L99" s="16"/>
@@ -12625,17 +13599,27 @@
         <v>108</v>
       </c>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D100" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E100" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="4"/>
+      <c r="F100" s="34">
+        <v>45502.4375</v>
+      </c>
+      <c r="G100" s="34">
+        <v>45502.666666666664</v>
+      </c>
+      <c r="H100" s="7">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J100" s="16"/>
       <c r="K100" s="15"/>
       <c r="L100" s="16"/>
@@ -12680,17 +13664,27 @@
         <v>109</v>
       </c>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D101" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E101" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="4"/>
+      <c r="F101" s="34">
+        <v>45502.5625</v>
+      </c>
+      <c r="G101" s="34">
+        <v>45502.666666666664</v>
+      </c>
+      <c r="H101" s="7">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J101" s="16"/>
       <c r="K101" s="15"/>
       <c r="L101" s="16"/>
@@ -12742,10 +13736,10 @@
       <c r="E102" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="4"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96"/>
       <c r="J102" s="16"/>
       <c r="K102" s="15"/>
       <c r="L102" s="16"/>
@@ -12786,17 +13780,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="75" t="s">
+      <c r="A103" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="77"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="78"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -12848,10 +13842,10 @@
       <c r="E104" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="4"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="95"/>
+      <c r="I104" s="96"/>
       <c r="J104" s="16"/>
       <c r="K104" s="15"/>
       <c r="L104" s="16"/>
@@ -12903,10 +13897,10 @@
       <c r="E105" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="4"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="95"/>
+      <c r="I105" s="96"/>
       <c r="J105" s="16"/>
       <c r="K105" s="15"/>
       <c r="L105" s="16"/>
@@ -12951,14 +13945,18 @@
         <v>103</v>
       </c>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D106" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E106" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F106" s="34"/>
+      <c r="F106" s="34">
+        <v>45502.5625</v>
+      </c>
       <c r="G106" s="34"/>
       <c r="H106" s="7"/>
       <c r="I106" s="4"/>
@@ -13006,15 +14004,21 @@
         <v>104</v>
       </c>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D107" s="34">
         <v>45502.361111053244</v>
       </c>
       <c r="E107" s="34">
         <v>45503.479166666664</v>
       </c>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
+      <c r="F107" s="34">
+        <v>45502.666666666664</v>
+      </c>
+      <c r="G107" s="34">
+        <v>45502.6875</v>
+      </c>
       <c r="H107" s="7"/>
       <c r="I107" s="4"/>
       <c r="J107" s="16"/>
@@ -13057,17 +14061,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="65"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -14281,17 +15285,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="54"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -14995,17 +15999,17 @@
       <c r="AU145" s="15"/>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A146" s="62" t="s">
+      <c r="A146" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="64"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="65"/>
       <c r="J146" s="16"/>
       <c r="K146" s="15"/>
       <c r="L146" s="16"/>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCED920-0063-47AD-9D9D-42663D113F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C3DFDE-5940-4342-AECA-F073C316709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="140">
   <si>
     <t>予定</t>
   </si>
@@ -1150,6 +1150,20 @@
     <t>担当者ログアウト</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ImageuploadHelper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1528,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1604,20 +1618,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1634,23 +1654,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1692,15 +1724,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,45 +1732,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6545,13 +6563,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>9768</xdr:colOff>
+      <xdr:colOff>117230</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>87922</xdr:rowOff>
+      <xdr:rowOff>107462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6566,8 +6584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14106769" y="14038384"/>
-          <a:ext cx="107461" cy="58615"/>
+          <a:off x="14106769" y="14067692"/>
+          <a:ext cx="214923" cy="48847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6887,16 +6905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>224691</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>166078</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68383</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>117232</xdr:rowOff>
+      <xdr:rowOff>104335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6911,8 +6929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13979769" y="18678770"/>
-          <a:ext cx="166078" cy="58616"/>
+          <a:off x="13979768" y="18678770"/>
+          <a:ext cx="293077" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6956,16 +6974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:rowOff>68384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>214924</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:rowOff>114103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6980,8 +6998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14028615" y="16373230"/>
-          <a:ext cx="166078" cy="58616"/>
+          <a:off x="14204462" y="16382999"/>
+          <a:ext cx="117230" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7051,6 +7069,696 @@
         <a:xfrm>
           <a:off x="14028616" y="16549077"/>
           <a:ext cx="166078" cy="58616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BC8740-5997-46AC-9D97-74487A32F7A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106769" y="19050000"/>
+          <a:ext cx="87923" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214924</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FFBBC0-2DC9-4AEB-85B9-822D9A12DD7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028615" y="16724923"/>
+          <a:ext cx="166078" cy="58616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>94565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6937B2EB-84FC-4870-906A-6DDC19DCD97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14546385" y="18844846"/>
+          <a:ext cx="87923" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34521323-FE88-4607-B178-AF0652325E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14438923" y="19577539"/>
+          <a:ext cx="205154" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C5EC24-0AA6-4387-9360-4E150DFD2CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14438924" y="19753384"/>
+          <a:ext cx="195384" cy="48847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214924</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>123873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D3E4B5-D65F-4838-8218-1F00CA56E0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14438924" y="20300462"/>
+          <a:ext cx="205154" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>107461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95DA03B-A3F9-4DF8-9863-EB9DC9498545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14448692" y="22733000"/>
+          <a:ext cx="214923" cy="58615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3B0FC1-7F77-4F6A-9D99-97012EC323F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14429154" y="22928385"/>
+          <a:ext cx="214923" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>104334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6EF5EF-F7E3-4C82-9609-1F4CCC0D27E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14429154" y="23094461"/>
+          <a:ext cx="244231" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>156308</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>136770</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FD4836-B723-4F42-A15C-563EFFAEE2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14585462" y="21531385"/>
+          <a:ext cx="205154" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7392,11 +8100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME152"/>
+  <dimension ref="A1:AME153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG94" sqref="AG94"/>
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC118" sqref="AC118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7412,74 +8120,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="90" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="92"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="55"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -7495,187 +8203,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="49">
+      <c r="H2" s="76"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="89">
         <v>22</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49">
+      <c r="K2" s="64"/>
+      <c r="L2" s="89">
         <v>23</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="49">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89">
         <v>24</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="49">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89">
         <v>25</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="49">
+      <c r="Q2" s="90"/>
+      <c r="R2" s="89">
         <v>26</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="47">
+      <c r="S2" s="90"/>
+      <c r="T2" s="87">
         <v>27</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="47">
+      <c r="U2" s="88"/>
+      <c r="V2" s="87">
         <v>28</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49">
+      <c r="W2" s="88"/>
+      <c r="X2" s="89">
         <v>29</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="49">
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="89">
         <v>30</v>
       </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="49">
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="89">
         <v>31</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="83">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="65">
         <v>1</v>
       </c>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="83">
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="65">
         <v>2</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="86">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>3</v>
       </c>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="86">
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="67">
         <v>4</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="83">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="65">
         <v>5</v>
       </c>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="83">
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="65">
         <v>6</v>
       </c>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="83">
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="65">
         <v>7</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="83">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="65">
         <v>8</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="83">
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="65">
         <v>9</v>
       </c>
-      <c r="AU2" s="84"/>
+      <c r="AU2" s="66"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="49" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="49" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="49" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" s="90"/>
+      <c r="R3" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="88"/>
+      <c r="V3" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49" t="s">
+      <c r="W3" s="88"/>
+      <c r="X3" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="49" t="s">
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="49" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="85" t="s">
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="85" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="88" t="s">
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="88" t="s">
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="85" t="s">
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="85" t="s">
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="85" t="s">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="85" t="s">
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="85" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="51"/>
+      <c r="AU3" s="64"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -7781,17 +8489,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -8543,17 +9251,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="82"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -9049,17 +9757,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="82"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -9216,17 +9924,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -9584,17 +10292,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="96"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -10025,17 +10733,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -10336,17 +11044,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -11816,17 +12524,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="58"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -11932,17 +12640,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="58"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -12048,17 +12756,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="82"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="61"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -12162,17 +12870,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="71"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="79"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -12428,10 +13136,10 @@
         <v>45502.583333333336</v>
       </c>
       <c r="H80" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J80" s="16"/>
       <c r="K80" s="15"/>
@@ -12737,19 +13445,13 @@
         <v>133</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="34">
-        <v>45497.361111111109</v>
-      </c>
-      <c r="E85" s="34">
-        <v>45499.6875</v>
-      </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="C85" s="49"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="49"/>
       <c r="J85" s="16"/>
       <c r="K85" s="15"/>
       <c r="L85" s="16"/>
@@ -12794,19 +13496,13 @@
         <v>130</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="34">
-        <v>45497.361111111109</v>
-      </c>
-      <c r="E86" s="34">
-        <v>45499.6875</v>
-      </c>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="49"/>
       <c r="J86" s="16"/>
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
@@ -12863,12 +13559,14 @@
       <c r="F87" s="34">
         <v>45499.645833333336</v>
       </c>
-      <c r="G87" s="34"/>
+      <c r="G87" s="34">
+        <v>45502.6875</v>
+      </c>
       <c r="H87" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
@@ -12967,17 +13665,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="63" t="s">
+      <c r="A89" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="74"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="82"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -13018,17 +13716,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="78"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="52"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -13073,19 +13771,13 @@
         <v>111</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="34">
-        <v>45502.361111111109</v>
-      </c>
-      <c r="E91" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="4"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="49"/>
       <c r="J91" s="16"/>
       <c r="K91" s="15"/>
       <c r="L91" s="16"/>
@@ -13130,19 +13822,13 @@
         <v>112</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="34">
-        <v>45502.361111111109</v>
-      </c>
-      <c r="E92" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="95"/>
-      <c r="I92" s="96"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="49"/>
       <c r="J92" s="16"/>
       <c r="K92" s="15"/>
       <c r="L92" s="16"/>
@@ -13194,13 +13880,13 @@
         <v>45502.361111053244</v>
       </c>
       <c r="E93" s="34">
-        <v>45503.479166608799</v>
+        <v>45503.479166666664</v>
       </c>
       <c r="F93" s="34">
-        <v>45502.645833333336</v>
+        <v>45503.375</v>
       </c>
       <c r="G93" s="34">
-        <v>45502.6875</v>
+        <v>45503.416666666664</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -13326,10 +14012,18 @@
       <c r="E95" s="34">
         <v>45503.479166608799</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="4"/>
+      <c r="F95" s="34">
+        <v>45502.645833333336</v>
+      </c>
+      <c r="G95" s="34">
+        <v>45502.6875</v>
+      </c>
+      <c r="H95" s="7">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J95" s="16"/>
       <c r="K95" s="15"/>
       <c r="L95" s="16"/>
@@ -13370,17 +14064,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="78"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="52"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -13425,16 +14119,13 @@
         <v>105</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="D97" s="34">
-        <v>45502.361111111109</v>
-      </c>
-      <c r="E97" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94"/>
-      <c r="H97" s="95"/>
-      <c r="I97" s="96"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="49"/>
       <c r="J97" s="16"/>
       <c r="K97" s="15"/>
       <c r="L97" s="16"/>
@@ -13479,17 +14170,13 @@
         <v>106</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="34">
-        <v>45502.361111111109</v>
-      </c>
-      <c r="E98" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="95"/>
-      <c r="I98" s="96"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="49"/>
       <c r="J98" s="16"/>
       <c r="K98" s="15"/>
       <c r="L98" s="16"/>
@@ -13729,17 +14416,13 @@
         <v>110</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E102" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="95"/>
-      <c r="I102" s="96"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="49"/>
       <c r="J102" s="16"/>
       <c r="K102" s="15"/>
       <c r="L102" s="16"/>
@@ -13780,17 +14463,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="76" t="s">
+      <c r="A103" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="78"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="52"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -13835,17 +14518,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E104" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F104" s="94"/>
-      <c r="G104" s="94"/>
-      <c r="H104" s="95"/>
-      <c r="I104" s="96"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="49"/>
       <c r="J104" s="16"/>
       <c r="K104" s="15"/>
       <c r="L104" s="16"/>
@@ -13890,17 +14569,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="34">
-        <v>45502.361111053244</v>
-      </c>
-      <c r="E105" s="34">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="F105" s="94"/>
-      <c r="G105" s="94"/>
-      <c r="H105" s="95"/>
-      <c r="I105" s="96"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="49"/>
       <c r="J105" s="16"/>
       <c r="K105" s="15"/>
       <c r="L105" s="16"/>
@@ -13957,9 +14632,15 @@
       <c r="F106" s="34">
         <v>45502.5625</v>
       </c>
-      <c r="G106" s="34"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="4"/>
+      <c r="G106" s="34">
+        <v>45503.375</v>
+      </c>
+      <c r="H106" s="7">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
       <c r="L106" s="16"/>
@@ -13999,9 +14680,9 @@
       <c r="AT106" s="16"/>
       <c r="AU106" s="15"/>
     </row>
-    <row r="107" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>104</v>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
@@ -14014,13 +14695,17 @@
         <v>45503.479166666664</v>
       </c>
       <c r="F107" s="34">
-        <v>45502.666666666664</v>
+        <v>45503.625</v>
       </c>
       <c r="G107" s="34">
-        <v>45502.6875</v>
-      </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="4"/>
+        <v>45502.645833333336</v>
+      </c>
+      <c r="H107" s="7">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J107" s="16"/>
       <c r="K107" s="15"/>
       <c r="L107" s="16"/>
@@ -14060,18 +14745,32 @@
       <c r="AT107" s="16"/>
       <c r="AU107" s="15"/>
     </row>
-    <row r="108" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="65"/>
+    <row r="108" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="34">
+        <v>45502.361111053244</v>
+      </c>
+      <c r="E108" s="34">
+        <v>45503.479166666664</v>
+      </c>
+      <c r="F108" s="34">
+        <v>45502.666666666664</v>
+      </c>
+      <c r="G108" s="34">
+        <v>45502.6875</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -14086,9 +14785,9 @@
       <c r="U108" s="18"/>
       <c r="V108" s="17"/>
       <c r="W108" s="18"/>
-      <c r="X108" s="16"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="16"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="19"/>
       <c r="AA108" s="15"/>
       <c r="AB108" s="16"/>
       <c r="AC108" s="15"/>
@@ -14111,18 +14810,18 @@
       <c r="AT108" s="16"/>
       <c r="AU108" s="15"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A109" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="22"/>
+    <row r="109" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="72"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="73"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -14163,17 +14862,17 @@
       <c r="AU109" s="15"/>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="4"/>
+      <c r="A110" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="22"/>
       <c r="J110" s="16"/>
       <c r="K110" s="15"/>
       <c r="L110" s="16"/>
@@ -14215,16 +14914,28 @@
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
+      <c r="C111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E111" s="34">
+        <v>45503.666666666664</v>
+      </c>
+      <c r="F111" s="34">
+        <v>45503.520833333336</v>
+      </c>
       <c r="G111" s="34"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="4"/>
+      <c r="H111" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J111" s="16"/>
       <c r="K111" s="15"/>
       <c r="L111" s="16"/>
@@ -14242,7 +14953,7 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="15"/>
       <c r="Z111" s="16"/>
-      <c r="AA111" s="15"/>
+      <c r="AA111" s="20"/>
       <c r="AB111" s="16"/>
       <c r="AC111" s="15"/>
       <c r="AD111" s="16"/>
@@ -14266,16 +14977,28 @@
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
+      <c r="C112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E112" s="34">
+        <v>45503.666666666664</v>
+      </c>
+      <c r="F112" s="34">
+        <v>45503.520833333336</v>
+      </c>
       <c r="G112" s="34"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="4"/>
+      <c r="H112" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J112" s="16"/>
       <c r="K112" s="15"/>
       <c r="L112" s="16"/>
@@ -14293,7 +15016,7 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="15"/>
       <c r="Z112" s="16"/>
-      <c r="AA112" s="15"/>
+      <c r="AA112" s="20"/>
       <c r="AB112" s="16"/>
       <c r="AC112" s="15"/>
       <c r="AD112" s="16"/>
@@ -14317,12 +15040,18 @@
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
+      <c r="C113" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E113" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
       <c r="H113" s="7"/>
@@ -14344,7 +15073,7 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="15"/>
       <c r="Z113" s="16"/>
-      <c r="AA113" s="15"/>
+      <c r="AA113" s="20"/>
       <c r="AB113" s="16"/>
       <c r="AC113" s="15"/>
       <c r="AD113" s="16"/>
@@ -14368,12 +15097,18 @@
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="C114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E114" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
       <c r="H114" s="7"/>
@@ -14395,7 +15130,7 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="15"/>
       <c r="Z114" s="16"/>
-      <c r="AA114" s="15"/>
+      <c r="AA114" s="20"/>
       <c r="AB114" s="16"/>
       <c r="AC114" s="15"/>
       <c r="AD114" s="16"/>
@@ -14419,12 +15154,18 @@
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="C115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E115" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="7"/>
@@ -14446,7 +15187,7 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="15"/>
       <c r="Z115" s="16"/>
-      <c r="AA115" s="15"/>
+      <c r="AA115" s="20"/>
       <c r="AB115" s="16"/>
       <c r="AC115" s="15"/>
       <c r="AD115" s="16"/>
@@ -14470,16 +15211,28 @@
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
+      <c r="C116" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E116" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F116" s="34">
+        <v>45503.520833333336</v>
+      </c>
       <c r="G116" s="34"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="4"/>
+      <c r="H116" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J116" s="16"/>
       <c r="K116" s="15"/>
       <c r="L116" s="16"/>
@@ -14497,7 +15250,7 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="15"/>
       <c r="Z116" s="16"/>
-      <c r="AA116" s="15"/>
+      <c r="AA116" s="20"/>
       <c r="AB116" s="16"/>
       <c r="AC116" s="15"/>
       <c r="AD116" s="16"/>
@@ -14521,12 +15274,18 @@
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
+      <c r="C117" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E117" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
       <c r="H117" s="7"/>
@@ -14548,7 +15307,7 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="15"/>
       <c r="Z117" s="16"/>
-      <c r="AA117" s="15"/>
+      <c r="AA117" s="20"/>
       <c r="AB117" s="16"/>
       <c r="AC117" s="15"/>
       <c r="AD117" s="16"/>
@@ -14572,12 +15331,18 @@
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
+      <c r="C118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E118" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
       <c r="H118" s="7"/>
@@ -14599,7 +15364,7 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="15"/>
       <c r="Z118" s="16"/>
-      <c r="AA118" s="15"/>
+      <c r="AA118" s="20"/>
       <c r="AB118" s="16"/>
       <c r="AC118" s="15"/>
       <c r="AD118" s="16"/>
@@ -14623,12 +15388,18 @@
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
+      <c r="C119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E119" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
       <c r="H119" s="7"/>
@@ -14650,7 +15421,7 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="15"/>
       <c r="Z119" s="16"/>
-      <c r="AA119" s="15"/>
+      <c r="AA119" s="20"/>
       <c r="AB119" s="16"/>
       <c r="AC119" s="15"/>
       <c r="AD119" s="16"/>
@@ -14674,12 +15445,18 @@
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
+      <c r="C120" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E120" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="7"/>
@@ -14701,7 +15478,7 @@
       <c r="X120" s="16"/>
       <c r="Y120" s="15"/>
       <c r="Z120" s="16"/>
-      <c r="AA120" s="15"/>
+      <c r="AA120" s="20"/>
       <c r="AB120" s="16"/>
       <c r="AC120" s="15"/>
       <c r="AD120" s="16"/>
@@ -14725,12 +15502,18 @@
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="C121" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E121" s="34">
+        <v>45503.666666608799</v>
+      </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
       <c r="H121" s="7"/>
@@ -14752,7 +15535,7 @@
       <c r="X121" s="16"/>
       <c r="Y121" s="15"/>
       <c r="Z121" s="16"/>
-      <c r="AA121" s="15"/>
+      <c r="AA121" s="20"/>
       <c r="AB121" s="16"/>
       <c r="AC121" s="15"/>
       <c r="AD121" s="16"/>
@@ -14776,16 +15559,28 @@
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
+      <c r="C122" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E122" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F122" s="34">
+        <v>45503.652777777781</v>
+      </c>
       <c r="G122" s="34"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="4"/>
+      <c r="H122" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J122" s="16"/>
       <c r="K122" s="15"/>
       <c r="L122" s="16"/>
@@ -14803,7 +15598,7 @@
       <c r="X122" s="16"/>
       <c r="Y122" s="15"/>
       <c r="Z122" s="16"/>
-      <c r="AA122" s="15"/>
+      <c r="AA122" s="20"/>
       <c r="AB122" s="16"/>
       <c r="AC122" s="15"/>
       <c r="AD122" s="16"/>
@@ -14827,16 +15622,26 @@
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
+      <c r="C123" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D123" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E123" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F123" s="34">
+        <v>45503.652777777781</v>
+      </c>
       <c r="G123" s="34"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="4"/>
+      <c r="I123" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J123" s="16"/>
       <c r="K123" s="15"/>
       <c r="L123" s="16"/>
@@ -14854,7 +15659,7 @@
       <c r="X123" s="16"/>
       <c r="Y123" s="15"/>
       <c r="Z123" s="16"/>
-      <c r="AA123" s="15"/>
+      <c r="AA123" s="20"/>
       <c r="AB123" s="16"/>
       <c r="AC123" s="15"/>
       <c r="AD123" s="16"/>
@@ -14878,16 +15683,26 @@
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
+      <c r="C124" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E124" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F124" s="34">
+        <v>45503.652777777781</v>
+      </c>
       <c r="G124" s="34"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="4"/>
+      <c r="I124" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J124" s="16"/>
       <c r="K124" s="15"/>
       <c r="L124" s="16"/>
@@ -14905,7 +15720,7 @@
       <c r="X124" s="16"/>
       <c r="Y124" s="15"/>
       <c r="Z124" s="16"/>
-      <c r="AA124" s="15"/>
+      <c r="AA124" s="20"/>
       <c r="AB124" s="16"/>
       <c r="AC124" s="15"/>
       <c r="AD124" s="16"/>
@@ -14928,17 +15743,17 @@
       <c r="AU124" s="15"/>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="4"/>
+      <c r="A125" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="49"/>
       <c r="J125" s="16"/>
       <c r="K125" s="15"/>
       <c r="L125" s="16"/>
@@ -14956,7 +15771,7 @@
       <c r="X125" s="16"/>
       <c r="Y125" s="15"/>
       <c r="Z125" s="16"/>
-      <c r="AA125" s="15"/>
+      <c r="AA125" s="20"/>
       <c r="AB125" s="16"/>
       <c r="AC125" s="15"/>
       <c r="AD125" s="16"/>
@@ -14979,17 +15794,17 @@
       <c r="AU125" s="15"/>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="4"/>
+      <c r="A126" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="49"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="49"/>
       <c r="J126" s="16"/>
       <c r="K126" s="15"/>
       <c r="L126" s="16"/>
@@ -15007,7 +15822,7 @@
       <c r="X126" s="16"/>
       <c r="Y126" s="15"/>
       <c r="Z126" s="16"/>
-      <c r="AA126" s="15"/>
+      <c r="AA126" s="20"/>
       <c r="AB126" s="16"/>
       <c r="AC126" s="15"/>
       <c r="AD126" s="16"/>
@@ -15030,17 +15845,17 @@
       <c r="AU126" s="15"/>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="4"/>
+      <c r="A127" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" s="49"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="49"/>
       <c r="J127" s="16"/>
       <c r="K127" s="15"/>
       <c r="L127" s="16"/>
@@ -15058,7 +15873,7 @@
       <c r="X127" s="16"/>
       <c r="Y127" s="15"/>
       <c r="Z127" s="16"/>
-      <c r="AA127" s="15"/>
+      <c r="AA127" s="20"/>
       <c r="AB127" s="16"/>
       <c r="AC127" s="15"/>
       <c r="AD127" s="16"/>
@@ -15081,17 +15896,17 @@
       <c r="AU127" s="15"/>
     </row>
     <row r="128" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="4"/>
+      <c r="A128" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="49"/>
       <c r="J128" s="16"/>
       <c r="K128" s="15"/>
       <c r="L128" s="16"/>
@@ -15109,7 +15924,7 @@
       <c r="X128" s="16"/>
       <c r="Y128" s="15"/>
       <c r="Z128" s="16"/>
-      <c r="AA128" s="15"/>
+      <c r="AA128" s="20"/>
       <c r="AB128" s="16"/>
       <c r="AC128" s="15"/>
       <c r="AD128" s="16"/>
@@ -15133,16 +15948,28 @@
     </row>
     <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
+      <c r="C129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E129" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F129" s="34">
+        <v>45503.520833333336</v>
+      </c>
       <c r="G129" s="34"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="4"/>
+      <c r="H129" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J129" s="16"/>
       <c r="K129" s="15"/>
       <c r="L129" s="16"/>
@@ -15160,7 +15987,7 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="15"/>
       <c r="Z129" s="16"/>
-      <c r="AA129" s="15"/>
+      <c r="AA129" s="20"/>
       <c r="AB129" s="16"/>
       <c r="AC129" s="15"/>
       <c r="AD129" s="16"/>
@@ -15184,16 +16011,28 @@
     </row>
     <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
+      <c r="C130" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E130" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F130" s="34">
+        <v>45503.520833333336</v>
+      </c>
       <c r="G130" s="34"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="4"/>
+      <c r="H130" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J130" s="16"/>
       <c r="K130" s="15"/>
       <c r="L130" s="16"/>
@@ -15211,7 +16050,7 @@
       <c r="X130" s="16"/>
       <c r="Y130" s="15"/>
       <c r="Z130" s="16"/>
-      <c r="AA130" s="15"/>
+      <c r="AA130" s="20"/>
       <c r="AB130" s="16"/>
       <c r="AC130" s="15"/>
       <c r="AD130" s="16"/>
@@ -15233,18 +16072,30 @@
       <c r="AT130" s="16"/>
       <c r="AU130" s="15"/>
     </row>
-    <row r="131" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="12"/>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E131" s="34">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F131" s="34">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="G131" s="34"/>
+      <c r="H131" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J131" s="16"/>
       <c r="K131" s="15"/>
       <c r="L131" s="16"/>
@@ -15262,7 +16113,7 @@
       <c r="X131" s="16"/>
       <c r="Y131" s="15"/>
       <c r="Z131" s="16"/>
-      <c r="AA131" s="15"/>
+      <c r="AA131" s="20"/>
       <c r="AB131" s="16"/>
       <c r="AC131" s="15"/>
       <c r="AD131" s="16"/>
@@ -15284,18 +16135,24 @@
       <c r="AT131" s="16"/>
       <c r="AU131" s="15"/>
     </row>
-    <row r="132" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="54"/>
+    <row r="132" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="33">
+        <v>45503.520833333336</v>
+      </c>
+      <c r="E132" s="33">
+        <v>45503.666666608799</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="12"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -15313,7 +16170,7 @@
       <c r="X132" s="16"/>
       <c r="Y132" s="15"/>
       <c r="Z132" s="16"/>
-      <c r="AA132" s="15"/>
+      <c r="AA132" s="20"/>
       <c r="AB132" s="16"/>
       <c r="AC132" s="15"/>
       <c r="AD132" s="16"/>
@@ -15335,18 +16192,18 @@
       <c r="AT132" s="16"/>
       <c r="AU132" s="15"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="4"/>
+    <row r="133" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="58"/>
       <c r="J133" s="16"/>
       <c r="K133" s="15"/>
       <c r="L133" s="16"/>
@@ -15388,7 +16245,7 @@
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -15439,7 +16296,7 @@
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -15490,7 +16347,7 @@
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -15541,7 +16398,7 @@
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -15592,7 +16449,7 @@
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -15643,7 +16500,7 @@
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -15694,7 +16551,7 @@
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -15745,7 +16602,7 @@
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -15796,7 +16653,7 @@
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -15847,7 +16704,7 @@
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -15898,7 +16755,7 @@
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -15949,7 +16806,7 @@
     </row>
     <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -15999,17 +16856,17 @@
       <c r="AU145" s="15"/>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A146" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="65"/>
+      <c r="A146" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="4"/>
       <c r="J146" s="16"/>
       <c r="K146" s="15"/>
       <c r="L146" s="16"/>
@@ -16050,15 +16907,17 @@
       <c r="AU146" s="15"/>
     </row>
     <row r="147" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="4"/>
+      <c r="A147" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="72"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="73"/>
       <c r="J147" s="16"/>
       <c r="K147" s="15"/>
       <c r="L147" s="16"/>
@@ -16099,25 +16958,124 @@
       <c r="AU147" s="15"/>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="16"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="16"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="17"/>
+      <c r="U148" s="18"/>
+      <c r="V148" s="17"/>
+      <c r="W148" s="18"/>
+      <c r="X148" s="16"/>
+      <c r="Y148" s="15"/>
+      <c r="Z148" s="16"/>
+      <c r="AA148" s="15"/>
+      <c r="AB148" s="16"/>
+      <c r="AC148" s="15"/>
+      <c r="AD148" s="16"/>
+      <c r="AE148" s="15"/>
+      <c r="AF148" s="16"/>
+      <c r="AG148" s="15"/>
+      <c r="AH148" s="17"/>
+      <c r="AI148" s="18"/>
+      <c r="AJ148" s="17"/>
+      <c r="AK148" s="18"/>
+      <c r="AL148" s="16"/>
+      <c r="AM148" s="15"/>
+      <c r="AN148" s="16"/>
+      <c r="AO148" s="15"/>
+      <c r="AP148" s="16"/>
+      <c r="AQ148" s="15"/>
+      <c r="AR148" s="16"/>
+      <c r="AS148" s="15"/>
+      <c r="AT148" s="16"/>
+      <c r="AU148" s="15"/>
     </row>
     <row r="149" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>98</v>
-      </c>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A96:I96"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
@@ -16134,56 +17092,6 @@
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16199,13 +17107,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H3 H7:H17 H19:H25 H91:H95 H97:H102 H104:H108 H110:H131 H5 H73 H27:H28 H30:H34 H36:H41 H43:H46 H133:H1048576 H71 H48:H69 H75:H89</xm:sqref>
+          <xm:sqref>H1:H3 H7:H17 H19:H25 H97:H102 H91:H95 H104:H109 H5 H73 H27:H28 H30:H34 H36:H41 H43:H46 H134:H1048576 H71 H48:H69 H75:H89 H111:H132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{163969F2-48C2-4094-805E-6C3CCEB35885}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I3 I7:I17 I19:I25 I91:I95 I97:I102 I104:I108 I110:I131 I5 I73 I27:I28 I30:I34 I43:I46 I36:I41 I133:I1048576 I71 I48:I69 I75:I89</xm:sqref>
+          <xm:sqref>I1:I3 I7:I17 I19:I25 I91:I95 I97:I102 I75:I89 I104:I109 I5 I73 I27:I28 I30:I34 I43:I46 I36:I41 I134:I1048576 I71 I48:I69 I111:I132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDDA571-8483-4ED1-8173-2C7CE8AB0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BF8F3-7AB0-4796-8ED7-F89691C15019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="書籍情報管理システム" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="バックエンド" sheetId="1" r:id="rId1"/>
+    <sheet name="フロントエンド" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">書籍情報管理システム!$H$76:$I$88</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">書籍情報管理システム!$A$1:$I$12</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">書籍情報管理システム!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">バックエンド!$H$76:$I$88</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">バックエンド!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">バックエンド!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="139">
   <si>
     <t>予定</t>
   </si>
@@ -736,10 +736,6 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フロントエンド</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1633,20 +1629,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1663,23 +1671,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1721,15 +1741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,48 +1749,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1793,8 +1791,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7349,13 +7345,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9769</xdr:colOff>
+      <xdr:colOff>9768</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>58614</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>104335</xdr:rowOff>
     </xdr:to>
@@ -7372,8 +7368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14438923" y="19577539"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14438922" y="19577539"/>
+          <a:ext cx="722923" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7418,15 +7414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9770</xdr:colOff>
+      <xdr:colOff>9769</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>107462</xdr:rowOff>
+      <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7441,8 +7437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14438924" y="19753384"/>
-          <a:ext cx="195384" cy="48847"/>
+          <a:off x="14438923" y="19753384"/>
+          <a:ext cx="918308" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7489,13 +7485,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>9770</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>78154</xdr:rowOff>
+      <xdr:rowOff>78155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214924</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>136769</xdr:rowOff>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7510,8 +7506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14438924" y="20476308"/>
-          <a:ext cx="654538" cy="58615"/>
+          <a:off x="14438924" y="20476309"/>
+          <a:ext cx="752230" cy="48846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7763,13 +7759,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>156308</xdr:colOff>
+      <xdr:colOff>156307</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>78154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>136770</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78153</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>123873</xdr:rowOff>
     </xdr:to>
@@ -7786,8 +7782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585462" y="21531385"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14585461" y="21531385"/>
+          <a:ext cx="595923" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7832,13 +7828,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
+      <xdr:colOff>146538</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>68385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>29306</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>114104</xdr:rowOff>
     </xdr:to>
@@ -7855,8 +7851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14575693" y="21697462"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14575692" y="21697462"/>
+          <a:ext cx="556845" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7906,8 +7902,8 @@
       <xdr:rowOff>68384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>114103</xdr:rowOff>
     </xdr:to>
@@ -7925,7 +7921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14575692" y="21873307"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:ext cx="556846" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8039,13 +8035,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>9770</xdr:colOff>
+      <xdr:colOff>9769</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>214924</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>48845</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
@@ -8062,8 +8058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14663616" y="20984307"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14663615" y="20984307"/>
+          <a:ext cx="488461" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8113,8 +8109,8 @@
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>68384</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
@@ -8132,7 +8128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14663615" y="21160153"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:ext cx="508000" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8176,14 +8172,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>224691</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78153</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
@@ -8200,8 +8196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14653846" y="21336000"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14653845" y="21336000"/>
+          <a:ext cx="527539" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8315,13 +8311,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
+      <xdr:colOff>117230</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>97693</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>107460</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>104334</xdr:rowOff>
     </xdr:to>
@@ -8338,8 +8334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14771077" y="20808461"/>
-          <a:ext cx="205154" cy="45719"/>
+          <a:off x="14771076" y="20808461"/>
+          <a:ext cx="439615" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8389,10 +8385,10 @@
       <xdr:rowOff>48847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214924</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>97693</xdr:rowOff>
+      <xdr:rowOff>94566</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8408,7 +8404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14771078" y="20095309"/>
-          <a:ext cx="322384" cy="48846"/>
+          <a:ext cx="361460" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8453,15 +8449,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>156308</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214924</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>107461</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>107462</xdr:rowOff>
+      <xdr:rowOff>104335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8476,8 +8472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14780846" y="20280924"/>
-          <a:ext cx="312616" cy="48846"/>
+          <a:off x="14810154" y="20280924"/>
+          <a:ext cx="400538" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8513,6 +8509,140 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>C</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68385</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>29310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>136770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32330DA-FE4E-4572-AB4A-2AA561E366B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14497539" y="24471925"/>
+          <a:ext cx="107461" cy="107460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>39078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A5B0AA-D3A7-9259-EDC3-4361F76437F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15445153" y="23426616"/>
+          <a:ext cx="97693" cy="107461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8819,11 +8949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME157"/>
+  <dimension ref="A1:AME138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN114" sqref="AN114"/>
+      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH135" sqref="AH135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8840,74 +8970,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="97"/>
+      <c r="J1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -8923,187 +9053,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="54">
+      <c r="H2" s="85"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="98">
         <v>22</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54">
+      <c r="K2" s="73"/>
+      <c r="L2" s="98">
         <v>23</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="54">
+      <c r="M2" s="99"/>
+      <c r="N2" s="98">
         <v>24</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="54">
+      <c r="O2" s="99"/>
+      <c r="P2" s="98">
         <v>25</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="54">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98">
         <v>26</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="52">
+      <c r="S2" s="99"/>
+      <c r="T2" s="96">
         <v>27</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="52">
+      <c r="U2" s="97"/>
+      <c r="V2" s="96">
         <v>28</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54">
+      <c r="W2" s="97"/>
+      <c r="X2" s="98">
         <v>29</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="54">
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98">
         <v>30</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="54">
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="98">
         <v>31</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="88">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="74">
         <v>1</v>
       </c>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="88">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="74">
         <v>2</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="91">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76">
         <v>3</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="91">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="76">
         <v>4</v>
       </c>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="88">
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="74">
         <v>5</v>
       </c>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="88">
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="74">
         <v>6</v>
       </c>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="88">
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="74">
         <v>7</v>
       </c>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="88">
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="74">
         <v>8</v>
       </c>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="88">
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="74">
         <v>9</v>
       </c>
-      <c r="AU2" s="89"/>
+      <c r="AU2" s="75"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="54" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="99"/>
+      <c r="L3" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="54" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="54" t="s">
+      <c r="O3" s="99"/>
+      <c r="P3" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="Q3" s="99"/>
+      <c r="R3" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="54" t="s">
+      <c r="S3" s="99"/>
+      <c r="T3" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="52" t="s">
+      <c r="U3" s="97"/>
+      <c r="V3" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="54" t="s">
+      <c r="W3" s="97"/>
+      <c r="X3" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="54" t="s">
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="90" t="s">
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU3" s="56"/>
+      <c r="AU3" s="73"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="A4" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -9145,7 +9275,7 @@
     </row>
     <row r="5" spans="1:1019" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -9167,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="20"/>
@@ -9209,17 +9339,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -9283,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
@@ -9348,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
@@ -9413,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
@@ -9478,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
@@ -9543,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
@@ -9608,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
@@ -9673,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
@@ -9738,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
@@ -9803,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
@@ -9868,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
@@ -9924,12 +10054,12 @@
         <v>45495.479166608799</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="13"/>
       <c r="I17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
@@ -9971,17 +10101,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="87"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -10027,7 +10157,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="34">
         <v>45495.361111111109</v>
@@ -10045,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
@@ -10110,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
@@ -10157,7 +10287,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="34">
         <v>45495.361111053244</v>
@@ -10175,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
@@ -10240,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
@@ -10305,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
@@ -10370,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
@@ -10435,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="15"/>
@@ -10477,17 +10607,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -10533,7 +10663,7 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="33">
         <v>45496.520833333336</v>
@@ -10551,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
@@ -10594,7 +10724,7 @@
     </row>
     <row r="28" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -10644,17 +10774,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -10696,11 +10826,11 @@
     </row>
     <row r="30" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="34">
         <v>45496.520833333336</v>
@@ -10709,12 +10839,12 @@
         <v>45496.666666666664</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="7"/>
       <c r="I30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="15"/>
@@ -10757,11 +10887,11 @@
     </row>
     <row r="31" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="34">
         <v>45496.520833333336</v>
@@ -10770,12 +10900,12 @@
         <v>45496.666666666664</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="7"/>
       <c r="I31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="15"/>
@@ -10818,11 +10948,11 @@
     </row>
     <row r="32" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="34">
         <v>45496.520833333336</v>
@@ -10840,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="15"/>
@@ -10883,11 +11013,11 @@
     </row>
     <row r="33" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="34">
         <v>45496.520833333336</v>
@@ -10905,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="15"/>
@@ -10948,11 +11078,11 @@
     </row>
     <row r="34" spans="1:47" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="33">
         <v>45496.520833333336</v>
@@ -10970,7 +11100,7 @@
         <v>0.6</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="15"/>
@@ -11012,17 +11142,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -11064,11 +11194,11 @@
     </row>
     <row r="36" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="34">
         <v>45496.520833333336</v>
@@ -11086,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="15"/>
@@ -11129,11 +11259,11 @@
     </row>
     <row r="37" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="34">
         <v>45496.520833333336</v>
@@ -11151,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="15"/>
@@ -11194,11 +11324,11 @@
     </row>
     <row r="38" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="34">
         <v>45496.520833333336</v>
@@ -11216,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="15"/>
@@ -11259,11 +11389,11 @@
     </row>
     <row r="39" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="34">
         <v>45496.520833333336</v>
@@ -11281,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="15"/>
@@ -11324,11 +11454,11 @@
     </row>
     <row r="40" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="34">
         <v>45496.520833333336</v>
@@ -11346,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="15"/>
@@ -11389,11 +11519,11 @@
     </row>
     <row r="41" spans="1:47" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="33">
         <v>45496.520833333336</v>
@@ -11411,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="15"/>
@@ -11453,17 +11583,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -11505,7 +11635,7 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -11527,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="15"/>
@@ -11570,7 +11700,7 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -11592,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="15"/>
@@ -11635,7 +11765,7 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
@@ -11657,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="15"/>
@@ -11700,7 +11830,7 @@
     </row>
     <row r="46" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="4" t="s">
@@ -11722,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="15"/>
@@ -11764,17 +11894,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
+      <c r="A47" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -11838,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="15"/>
@@ -11903,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="15"/>
@@ -11950,7 +12080,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="34">
         <v>45496.520833333336</v>
@@ -11968,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="15"/>
@@ -12015,7 +12145,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="34">
         <v>45496.520833333336</v>
@@ -12033,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="15"/>
@@ -12079,7 +12209,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D52" s="34">
         <v>45496.520833333336</v>
@@ -12097,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="15"/>
@@ -12144,7 +12274,7 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53" s="34">
         <v>45496.520833333336</v>
@@ -12162,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" s="16"/>
       <c r="K53" s="15"/>
@@ -12209,7 +12339,7 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="34">
         <v>45496.520833333336</v>
@@ -12227,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="15"/>
@@ -12274,7 +12404,7 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="34">
         <v>45496.520833333336</v>
@@ -12292,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="15"/>
@@ -12339,7 +12469,7 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="34">
         <v>45496.520833333336</v>
@@ -12357,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="15"/>
@@ -12404,7 +12534,7 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="34">
         <v>45496.520833333336</v>
@@ -12422,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="15"/>
@@ -12469,7 +12599,7 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="34">
         <v>45496.520833333336</v>
@@ -12487,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="15"/>
@@ -12534,7 +12664,7 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="34">
         <v>45496.520833333336</v>
@@ -12552,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="15"/>
@@ -12599,7 +12729,7 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="34">
         <v>45496.520833333336</v>
@@ -12617,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="15"/>
@@ -12664,7 +12794,7 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="34">
         <v>45496.520833333336</v>
@@ -12682,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="15"/>
@@ -12747,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="15"/>
@@ -12794,7 +12924,7 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="34">
         <v>45496.520833333336</v>
@@ -12812,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="15"/>
@@ -12859,7 +12989,7 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="34">
         <v>45496.520833333336</v>
@@ -12877,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="15"/>
@@ -12924,7 +13054,7 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="34">
         <v>45496.520833333336</v>
@@ -12942,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="15"/>
@@ -12989,7 +13119,7 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="34">
         <v>45496.520833333336</v>
@@ -13007,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="15"/>
@@ -13054,7 +13184,7 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D67" s="34">
         <v>45496.520833333336</v>
@@ -13072,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="15"/>
@@ -13119,7 +13249,7 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="34">
         <v>45496.520833333336</v>
@@ -13137,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="15"/>
@@ -13184,7 +13314,7 @@
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="33">
         <v>45496.520833333336</v>
@@ -13202,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="15"/>
@@ -13244,17 +13374,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="59"/>
+      <c r="A70" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -13296,11 +13426,11 @@
     </row>
     <row r="71" spans="1:47" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="39">
         <v>45497.361111111109</v>
@@ -13318,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="15"/>
@@ -13360,17 +13490,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="59"/>
+      <c r="A72" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -13412,7 +13542,7 @@
     </row>
     <row r="73" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12" t="s">
@@ -13434,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="15"/>
@@ -13476,17 +13606,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="87"/>
+      <c r="A74" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="70"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -13528,11 +13658,11 @@
     </row>
     <row r="75" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" s="33">
         <v>45497.361111111109</v>
@@ -13548,7 +13678,7 @@
         <v>0.7</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="15"/>
@@ -13590,17 +13720,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="74" t="s">
+      <c r="A76" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="76"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="88"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -13642,7 +13772,7 @@
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="4" t="s">
@@ -13664,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" s="16"/>
       <c r="K77" s="15"/>
@@ -13707,7 +13837,7 @@
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="43"/>
       <c r="C78" s="4" t="s">
@@ -13729,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="15"/>
@@ -13772,7 +13902,7 @@
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="43"/>
       <c r="C79" s="4" t="s">
@@ -13794,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="15"/>
@@ -13837,11 +13967,11 @@
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="43"/>
       <c r="C80" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="34">
         <v>45497.361111111109</v>
@@ -13859,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J80" s="16"/>
       <c r="K80" s="15"/>
@@ -13902,11 +14032,11 @@
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="34">
         <v>45497.361111111109</v>
@@ -13924,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="15"/>
@@ -13967,11 +14097,11 @@
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="43"/>
       <c r="C82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="34">
         <v>45497.361111111109</v>
@@ -13989,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="15"/>
@@ -14032,11 +14162,11 @@
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="43"/>
       <c r="C83" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="34">
         <v>45497.361111111109</v>
@@ -14054,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="15"/>
@@ -14097,7 +14227,7 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="43"/>
       <c r="C84" s="4" t="s">
@@ -14119,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="15"/>
@@ -14162,7 +14292,7 @@
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="49"/>
@@ -14213,7 +14343,7 @@
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="49"/>
@@ -14264,11 +14394,11 @@
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="43"/>
       <c r="C87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" s="34">
         <v>45497.361111111109</v>
@@ -14286,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
@@ -14329,7 +14459,7 @@
     </row>
     <row r="88" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="44"/>
@@ -14343,7 +14473,7 @@
       <c r="G88" s="39"/>
       <c r="H88" s="45"/>
       <c r="I88" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="15"/>
@@ -14385,17 +14515,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68" t="s">
+      <c r="A89" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="79"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="91"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -14436,17 +14566,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="83"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="61"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -14488,7 +14618,7 @@
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="49"/>
@@ -14539,7 +14669,7 @@
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="49"/>
@@ -14590,7 +14720,7 @@
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
@@ -14612,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="15"/>
@@ -14655,7 +14785,7 @@
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
@@ -14677,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="15"/>
@@ -14720,7 +14850,7 @@
     </row>
     <row r="95" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
@@ -14742,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="15"/>
@@ -14784,17 +14914,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="83"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -14836,7 +14966,7 @@
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="50"/>
@@ -14887,7 +15017,7 @@
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="49"/>
@@ -14938,11 +15068,11 @@
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="34">
         <v>45502.361111053244</v>
@@ -14960,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="15"/>
@@ -15003,11 +15133,11 @@
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D100" s="34">
         <v>45502.361111053244</v>
@@ -15025,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="15"/>
@@ -15068,11 +15198,11 @@
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101" s="34">
         <v>45502.361111053244</v>
@@ -15090,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="15"/>
@@ -15133,7 +15263,7 @@
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="49"/>
@@ -15183,17 +15313,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="83"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="61"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -15235,7 +15365,7 @@
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="49"/>
@@ -15286,7 +15416,7 @@
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="49"/>
@@ -15337,11 +15467,11 @@
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D106" s="34">
         <v>45502.361111053244</v>
@@ -15359,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
@@ -15402,11 +15532,11 @@
     </row>
     <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="34">
         <v>45502.361111053244</v>
@@ -15424,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="15"/>
@@ -15467,11 +15597,11 @@
     </row>
     <row r="108" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108" s="34">
         <v>45502.361111053244</v>
@@ -15489,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
@@ -15531,17 +15661,17 @@
       <c r="AU108" s="15"/>
     </row>
     <row r="109" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68" t="s">
+      <c r="A109" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="70"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="81"/>
+      <c r="H109" s="81"/>
+      <c r="I109" s="82"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -15638,7 +15768,7 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="34">
         <v>45503.520833333336</v>
@@ -15649,9 +15779,11 @@
       <c r="F111" s="34">
         <v>45503.520833333336</v>
       </c>
-      <c r="G111" s="34"/>
+      <c r="G111" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H111" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>89</v>
@@ -15701,7 +15833,7 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" s="34">
         <v>45503.520833333336</v>
@@ -15712,9 +15844,11 @@
       <c r="F112" s="34">
         <v>45503.520833333336</v>
       </c>
-      <c r="G112" s="34"/>
+      <c r="G112" s="34">
+        <v>45504.583333333336</v>
+      </c>
       <c r="H112" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>89</v>
@@ -15764,7 +15898,7 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" s="34">
         <v>45503.520833333336</v>
@@ -15782,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="15"/>
@@ -15829,7 +15963,7 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D114" s="34">
         <v>45503.520833333336</v>
@@ -15840,9 +15974,11 @@
       <c r="F114" s="34">
         <v>45504.46875</v>
       </c>
-      <c r="G114" s="34"/>
+      <c r="G114" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H114" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>89</v>
@@ -15892,7 +16028,7 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D115" s="34">
         <v>45503.520833333336</v>
@@ -15903,9 +16039,11 @@
       <c r="F115" s="34">
         <v>45504.46875</v>
       </c>
-      <c r="G115" s="34"/>
+      <c r="G115" s="34">
+        <v>45505.395833333336</v>
+      </c>
       <c r="H115" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>89</v>
@@ -15955,7 +16093,7 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D116" s="34">
         <v>45503.520833333336</v>
@@ -15966,9 +16104,11 @@
       <c r="F116" s="34">
         <v>45503.520833333336</v>
       </c>
-      <c r="G116" s="34"/>
+      <c r="G116" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H116" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>89</v>
@@ -16018,7 +16158,7 @@
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" s="34">
         <v>45503.520833333336</v>
@@ -16029,9 +16169,11 @@
       <c r="F117" s="34">
         <v>45504.4375</v>
       </c>
-      <c r="G117" s="34"/>
+      <c r="G117" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H117" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>89</v>
@@ -16081,7 +16223,7 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D118" s="34">
         <v>45503.520833333336</v>
@@ -16092,9 +16234,11 @@
       <c r="F118" s="34">
         <v>45504.4375</v>
       </c>
-      <c r="G118" s="34"/>
+      <c r="G118" s="34">
+        <v>45505.46875</v>
+      </c>
       <c r="H118" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>89</v>
@@ -16144,7 +16288,7 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D119" s="34">
         <v>45503.520833333336</v>
@@ -16155,9 +16299,11 @@
       <c r="F119" s="34">
         <v>45504.361111111109</v>
       </c>
-      <c r="G119" s="34"/>
+      <c r="G119" s="34">
+        <v>45505.395833333336</v>
+      </c>
       <c r="H119" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>89</v>
@@ -16207,7 +16353,7 @@
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" s="34">
         <v>45503.520833333336</v>
@@ -16218,9 +16364,11 @@
       <c r="F120" s="34">
         <v>45504.361111111109</v>
       </c>
-      <c r="G120" s="34"/>
+      <c r="G120" s="34">
+        <v>45505.40625</v>
+      </c>
       <c r="H120" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>89</v>
@@ -16270,7 +16418,7 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D121" s="34">
         <v>45503.520833333336</v>
@@ -16281,9 +16429,11 @@
       <c r="F121" s="34">
         <v>45504.361111111109</v>
       </c>
-      <c r="G121" s="34"/>
+      <c r="G121" s="34">
+        <v>45505.4375</v>
+      </c>
       <c r="H121" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>89</v>
@@ -16333,7 +16483,7 @@
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D122" s="34">
         <v>45503.520833333336</v>
@@ -16344,9 +16494,11 @@
       <c r="F122" s="34">
         <v>45503.652777777781</v>
       </c>
-      <c r="G122" s="34"/>
+      <c r="G122" s="34">
+        <v>45505.395833333336</v>
+      </c>
       <c r="H122" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>89</v>
@@ -16396,7 +16548,7 @@
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123" s="34">
         <v>45503.520833333336</v>
@@ -16407,9 +16559,11 @@
       <c r="F123" s="34">
         <v>45503.652777777781</v>
       </c>
-      <c r="G123" s="34"/>
+      <c r="G123" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H123" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>89</v>
@@ -16459,7 +16613,7 @@
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D124" s="34">
         <v>45503.520833333336</v>
@@ -16470,9 +16624,11 @@
       <c r="F124" s="34">
         <v>45503.652777777781</v>
       </c>
-      <c r="G124" s="34"/>
+      <c r="G124" s="34">
+        <v>45505.375</v>
+      </c>
       <c r="H124" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>89</v>
@@ -16726,7 +16882,7 @@
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="34">
         <v>45503.520833333336</v>
@@ -16744,7 +16900,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="15"/>
@@ -16791,7 +16947,7 @@
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D130" s="34">
         <v>45503.520833333336</v>
@@ -16809,7 +16965,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="15"/>
@@ -16856,7 +17012,7 @@
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D131" s="34">
         <v>45503.520833333336</v>
@@ -16874,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J131" s="16"/>
       <c r="K131" s="15"/>
@@ -16915,24 +17071,18 @@
       <c r="AT131" s="16"/>
       <c r="AU131" s="15"/>
     </row>
-    <row r="132" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" s="33">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E132" s="33">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="12"/>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A132" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="81"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="81"/>
+      <c r="G132" s="81"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="82"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -16950,7 +17100,7 @@
       <c r="X132" s="16"/>
       <c r="Y132" s="15"/>
       <c r="Z132" s="16"/>
-      <c r="AA132" s="20"/>
+      <c r="AA132" s="15"/>
       <c r="AB132" s="16"/>
       <c r="AC132" s="15"/>
       <c r="AD132" s="16"/>
@@ -16972,18 +17122,30 @@
       <c r="AT132" s="16"/>
       <c r="AU132" s="15"/>
     </row>
-    <row r="133" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="69"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="70"/>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="34">
+        <v>45504.361111111109</v>
+      </c>
+      <c r="E133" s="34">
+        <v>45504.479166666664</v>
+      </c>
+      <c r="F133" s="34">
+        <v>45505.583333333336</v>
+      </c>
+      <c r="G133" s="34">
+        <v>45505.604166666664</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J133" s="16"/>
       <c r="K133" s="15"/>
       <c r="L133" s="16"/>
@@ -17002,7 +17164,7 @@
       <c r="Y133" s="15"/>
       <c r="Z133" s="16"/>
       <c r="AA133" s="15"/>
-      <c r="AB133" s="16"/>
+      <c r="AB133" s="19"/>
       <c r="AC133" s="15"/>
       <c r="AD133" s="16"/>
       <c r="AE133" s="15"/>
@@ -17024,262 +17186,74 @@
       <c r="AU133" s="15"/>
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="34">
-        <v>45504.361111111109</v>
-      </c>
-      <c r="E134" s="34">
-        <v>45504.479166666664</v>
-      </c>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="16"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="17"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="15"/>
-      <c r="Z134" s="16"/>
-      <c r="AA134" s="15"/>
-      <c r="AB134" s="19"/>
-      <c r="AC134" s="15"/>
-      <c r="AD134" s="16"/>
-      <c r="AE134" s="15"/>
-      <c r="AF134" s="16"/>
-      <c r="AG134" s="15"/>
-      <c r="AH134" s="17"/>
-      <c r="AI134" s="18"/>
-      <c r="AJ134" s="17"/>
-      <c r="AK134" s="18"/>
-      <c r="AL134" s="16"/>
-      <c r="AM134" s="15"/>
-      <c r="AN134" s="16"/>
-      <c r="AO134" s="15"/>
-      <c r="AP134" s="16"/>
-      <c r="AQ134" s="15"/>
-      <c r="AR134" s="16"/>
-      <c r="AS134" s="15"/>
-      <c r="AT134" s="16"/>
-      <c r="AU134" s="15"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
+      <c r="A135" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A144" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="59"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="4"/>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="65">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A96:I96"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
@@ -17296,56 +17270,6 @@
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A144:I144"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17361,13 +17285,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H3 H7:H17 H19:H25 H97:H102 H91:H95 H104:H109 H5 H73 H27:H28 H30:H34 H36:H41 H43:H46 H71 H48:H69 H75:H89 H111:H143 H145:H1048576</xm:sqref>
+          <xm:sqref>H1:H3 H7:H17 H19:H25 H97:H102 H91:H95 H104:H109 H5 H73 H27:H28 H30:H34 H36:H41 H43:H46 H71 H48:H69 H75:H89 H111:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{163969F2-48C2-4094-805E-6C3CCEB35885}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I3 I7:I17 I19:I25 I91:I95 I97:I102 I75:I89 I104:I109 I5 I73 I27:I28 I30:I34 I43:I46 I36:I41 I71 I48:I69 I145:I1048576 I111:I143</xm:sqref>
+          <xm:sqref>I1:I3 I7:I17 I19:I25 I91:I95 I97:I102 I75:I89 I104:I109 I5 I73 I27:I28 I30:I34 I43:I46 I36:I41 I71 I48:I69 I111:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17379,8 +17303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E17B5F-DBAE-42D1-AAF7-9BDF1408ADED}">
   <dimension ref="A1:AU117"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD123"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="W52" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AP62" sqref="AP62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -17391,73 +17318,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="97"/>
+      <c r="J1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -17473,186 +17400,186 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="54">
+      <c r="H2" s="85"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="98">
         <v>22</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54">
+      <c r="K2" s="73"/>
+      <c r="L2" s="98">
         <v>23</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="54">
+      <c r="M2" s="99"/>
+      <c r="N2" s="98">
         <v>24</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="54">
+      <c r="O2" s="99"/>
+      <c r="P2" s="98">
         <v>25</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="54">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98">
         <v>26</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="52">
+      <c r="S2" s="99"/>
+      <c r="T2" s="96">
         <v>27</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="52">
+      <c r="U2" s="97"/>
+      <c r="V2" s="96">
         <v>28</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54">
+      <c r="W2" s="97"/>
+      <c r="X2" s="98">
         <v>29</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="54">
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98">
         <v>30</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="54">
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="98">
         <v>31</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="88">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="74">
         <v>1</v>
       </c>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="88">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="74">
         <v>2</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="91">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76">
         <v>3</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="91">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="76">
         <v>4</v>
       </c>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="88">
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="74">
         <v>5</v>
       </c>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="88">
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="74">
         <v>6</v>
       </c>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="88">
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="74">
         <v>7</v>
       </c>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="88">
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="74">
         <v>8</v>
       </c>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="88">
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="74">
         <v>9</v>
       </c>
-      <c r="AU2" s="89"/>
+      <c r="AU2" s="75"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="54" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="99"/>
+      <c r="L3" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="54" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="54" t="s">
+      <c r="O3" s="99"/>
+      <c r="P3" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="Q3" s="99"/>
+      <c r="R3" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="54" t="s">
+      <c r="S3" s="99"/>
+      <c r="T3" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="52" t="s">
+      <c r="U3" s="97"/>
+      <c r="V3" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="54" t="s">
+      <c r="W3" s="97"/>
+      <c r="X3" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="54" t="s">
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="90" t="s">
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU3" s="56"/>
+      <c r="AU3" s="73"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="A4" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="23"/>
@@ -17694,7 +17621,7 @@
     </row>
     <row r="5" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -17726,7 +17653,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="19"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="18"/>
@@ -17744,17 +17671,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="23"/>
@@ -17828,13 +17755,13 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="15"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="24"/>
       <c r="AH7" s="17"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="16"/>
+      <c r="AL7" s="23"/>
       <c r="AM7" s="15"/>
       <c r="AN7" s="16"/>
       <c r="AO7" s="15"/>
@@ -17879,13 +17806,13 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="15"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="24"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="18"/>
-      <c r="AL8" s="16"/>
+      <c r="AL8" s="23"/>
       <c r="AM8" s="15"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="15"/>
@@ -17930,13 +17857,13 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="15"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="24"/>
       <c r="AH9" s="17"/>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="18"/>
-      <c r="AL9" s="16"/>
+      <c r="AL9" s="23"/>
       <c r="AM9" s="15"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="15"/>
@@ -17981,13 +17908,13 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="15"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="24"/>
       <c r="AH10" s="17"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="16"/>
+      <c r="AL10" s="23"/>
       <c r="AM10" s="15"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="15"/>
@@ -18032,13 +17959,13 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="15"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="24"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="18"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="18"/>
-      <c r="AL11" s="16"/>
+      <c r="AL11" s="23"/>
       <c r="AM11" s="15"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="15"/>
@@ -18083,13 +18010,13 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="15"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="24"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="18"/>
-      <c r="AL12" s="16"/>
+      <c r="AL12" s="23"/>
       <c r="AM12" s="15"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="15"/>
@@ -18134,13 +18061,13 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="15"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="18"/>
-      <c r="AL13" s="16"/>
+      <c r="AL13" s="23"/>
       <c r="AM13" s="15"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="15"/>
@@ -18185,13 +18112,13 @@
       <c r="AC14" s="15"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="15"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="24"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="18"/>
-      <c r="AL14" s="16"/>
+      <c r="AL14" s="23"/>
       <c r="AM14" s="15"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="15"/>
@@ -18236,13 +18163,13 @@
       <c r="AC15" s="15"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="15"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="24"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="18"/>
-      <c r="AL15" s="16"/>
+      <c r="AL15" s="23"/>
       <c r="AM15" s="15"/>
       <c r="AN15" s="16"/>
       <c r="AO15" s="15"/>
@@ -18287,13 +18214,13 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="15"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="24"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="18"/>
-      <c r="AL16" s="16"/>
+      <c r="AL16" s="23"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="15"/>
@@ -18338,13 +18265,13 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="15"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="24"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="18"/>
-      <c r="AL17" s="16"/>
+      <c r="AL17" s="23"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="15"/>
@@ -18356,17 +18283,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="87"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
@@ -18441,12 +18368,12 @@
       <c r="AD19" s="16"/>
       <c r="AE19" s="15"/>
       <c r="AF19" s="16"/>
-      <c r="AG19" s="15"/>
+      <c r="AG19" s="20"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="18"/>
-      <c r="AL19" s="16"/>
+      <c r="AL19" s="23"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="15"/>
@@ -18492,12 +18419,12 @@
       <c r="AD20" s="16"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="16"/>
-      <c r="AG20" s="15"/>
+      <c r="AG20" s="20"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="18"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="18"/>
-      <c r="AL20" s="16"/>
+      <c r="AL20" s="23"/>
       <c r="AM20" s="15"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="15"/>
@@ -18543,12 +18470,12 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="15"/>
+      <c r="AG21" s="20"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="18"/>
-      <c r="AL21" s="16"/>
+      <c r="AL21" s="23"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="15"/>
@@ -18594,12 +18521,12 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="16"/>
-      <c r="AG22" s="15"/>
+      <c r="AG22" s="20"/>
       <c r="AH22" s="17"/>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="18"/>
-      <c r="AL22" s="16"/>
+      <c r="AL22" s="23"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="15"/>
@@ -18645,12 +18572,12 @@
       <c r="AD23" s="16"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="16"/>
-      <c r="AG23" s="15"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="18"/>
-      <c r="AL23" s="16"/>
+      <c r="AL23" s="23"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="16"/>
       <c r="AO23" s="15"/>
@@ -18696,12 +18623,12 @@
       <c r="AD24" s="16"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="16"/>
-      <c r="AG24" s="15"/>
+      <c r="AG24" s="20"/>
       <c r="AH24" s="17"/>
       <c r="AI24" s="18"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="18"/>
-      <c r="AL24" s="16"/>
+      <c r="AL24" s="23"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="15"/>
@@ -18724,7 +18651,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="11"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="24"/>
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
@@ -18747,12 +18674,12 @@
       <c r="AD25" s="16"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="16"/>
-      <c r="AG25" s="15"/>
+      <c r="AG25" s="20"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="18"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="18"/>
-      <c r="AL25" s="16"/>
+      <c r="AL25" s="23"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="15"/>
@@ -18764,18 +18691,18 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="99"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="24"/>
       <c r="L26" s="23"/>
       <c r="M26" s="24"/>
@@ -18803,7 +18730,7 @@
       <c r="AI26" s="18"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="18"/>
-      <c r="AL26" s="16"/>
+      <c r="AL26" s="23"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="15"/>
@@ -18849,12 +18776,12 @@
       <c r="AD27" s="16"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="15"/>
+      <c r="AG27" s="20"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="18"/>
-      <c r="AL27" s="16"/>
+      <c r="AL27" s="23"/>
       <c r="AM27" s="15"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="15"/>
@@ -18867,7 +18794,7 @@
     </row>
     <row r="28" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -18917,17 +18844,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
       <c r="J29" s="23"/>
       <c r="K29" s="24"/>
       <c r="L29" s="23"/>
@@ -18956,9 +18883,9 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="18"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="16"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="23"/>
       <c r="AO29" s="15"/>
       <c r="AP29" s="16"/>
       <c r="AQ29" s="15"/>
@@ -18969,7 +18896,7 @@
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -19007,9 +18934,9 @@
       <c r="AI30" s="18"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="18"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="16"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="23"/>
       <c r="AO30" s="15"/>
       <c r="AP30" s="16"/>
       <c r="AQ30" s="15"/>
@@ -19020,7 +18947,7 @@
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -19058,9 +18985,9 @@
       <c r="AI31" s="18"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="18"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="16"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="23"/>
       <c r="AO31" s="15"/>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="15"/>
@@ -19071,7 +18998,7 @@
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -19109,9 +19036,9 @@
       <c r="AI32" s="18"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="18"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="16"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="23"/>
       <c r="AO32" s="15"/>
       <c r="AP32" s="16"/>
       <c r="AQ32" s="15"/>
@@ -19122,7 +19049,7 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -19160,9 +19087,9 @@
       <c r="AI33" s="18"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="18"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="16"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="23"/>
       <c r="AO33" s="15"/>
       <c r="AP33" s="16"/>
       <c r="AQ33" s="15"/>
@@ -19173,7 +19100,7 @@
     </row>
     <row r="34" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4"/>
@@ -19211,9 +19138,9 @@
       <c r="AI34" s="18"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="18"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="16"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="23"/>
       <c r="AO34" s="15"/>
       <c r="AP34" s="16"/>
       <c r="AQ34" s="15"/>
@@ -19223,17 +19150,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
       <c r="J35" s="23"/>
       <c r="K35" s="24"/>
       <c r="L35" s="23"/>
@@ -19275,7 +19202,7 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -19313,9 +19240,9 @@
       <c r="AI36" s="18"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="18"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="16"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="23"/>
       <c r="AO36" s="15"/>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="15"/>
@@ -19326,7 +19253,7 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -19364,9 +19291,9 @@
       <c r="AI37" s="18"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="18"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="16"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="23"/>
       <c r="AO37" s="15"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="15"/>
@@ -19377,7 +19304,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -19415,9 +19342,9 @@
       <c r="AI38" s="18"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="18"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="16"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="23"/>
       <c r="AO38" s="15"/>
       <c r="AP38" s="16"/>
       <c r="AQ38" s="15"/>
@@ -19428,7 +19355,7 @@
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -19466,9 +19393,9 @@
       <c r="AI39" s="18"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="18"/>
-      <c r="AL39" s="16"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="16"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="23"/>
       <c r="AO39" s="15"/>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="15"/>
@@ -19479,7 +19406,7 @@
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -19517,9 +19444,9 @@
       <c r="AI40" s="18"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="18"/>
-      <c r="AL40" s="16"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="16"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="23"/>
       <c r="AO40" s="15"/>
       <c r="AP40" s="16"/>
       <c r="AQ40" s="15"/>
@@ -19530,7 +19457,7 @@
     </row>
     <row r="41" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="4"/>
@@ -19568,9 +19495,9 @@
       <c r="AI41" s="18"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="18"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="16"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="23"/>
       <c r="AO41" s="15"/>
       <c r="AP41" s="16"/>
       <c r="AQ41" s="15"/>
@@ -19580,17 +19507,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="L42" s="23"/>
@@ -19632,7 +19559,7 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -19670,9 +19597,9 @@
       <c r="AI43" s="18"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="18"/>
-      <c r="AL43" s="16"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="16"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="23"/>
       <c r="AO43" s="15"/>
       <c r="AP43" s="16"/>
       <c r="AQ43" s="15"/>
@@ -19683,7 +19610,7 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -19721,9 +19648,9 @@
       <c r="AI44" s="18"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="18"/>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="15"/>
-      <c r="AN44" s="16"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="23"/>
       <c r="AO44" s="15"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="15"/>
@@ -19734,7 +19661,7 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -19772,9 +19699,9 @@
       <c r="AI45" s="18"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="18"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="16"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="23"/>
       <c r="AO45" s="15"/>
       <c r="AP45" s="16"/>
       <c r="AQ45" s="15"/>
@@ -19785,7 +19712,7 @@
     </row>
     <row r="46" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="4"/>
@@ -19823,9 +19750,9 @@
       <c r="AI46" s="18"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="18"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="16"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="23"/>
       <c r="AO46" s="15"/>
       <c r="AP46" s="16"/>
       <c r="AQ46" s="15"/>
@@ -19835,17 +19762,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
+      <c r="A47" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="23"/>
       <c r="K47" s="24"/>
       <c r="L47" s="23"/>
@@ -19927,10 +19854,10 @@
       <c r="AK48" s="18"/>
       <c r="AL48" s="16"/>
       <c r="AM48" s="15"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="15"/>
-      <c r="AP48" s="16"/>
-      <c r="AQ48" s="15"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="24"/>
       <c r="AR48" s="16"/>
       <c r="AS48" s="15"/>
       <c r="AT48" s="16"/>
@@ -19953,7 +19880,7 @@
       <c r="L49" s="23"/>
       <c r="M49" s="24"/>
       <c r="N49" s="23"/>
-      <c r="O49" s="100"/>
+      <c r="O49" s="53"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="23"/>
@@ -19978,10 +19905,10 @@
       <c r="AK49" s="18"/>
       <c r="AL49" s="16"/>
       <c r="AM49" s="15"/>
-      <c r="AN49" s="16"/>
-      <c r="AO49" s="15"/>
-      <c r="AP49" s="16"/>
-      <c r="AQ49" s="15"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="24"/>
       <c r="AR49" s="16"/>
       <c r="AS49" s="15"/>
       <c r="AT49" s="16"/>
@@ -20004,7 +19931,7 @@
       <c r="L50" s="23"/>
       <c r="M50" s="24"/>
       <c r="N50" s="23"/>
-      <c r="O50" s="100"/>
+      <c r="O50" s="53"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="23"/>
@@ -20029,10 +19956,10 @@
       <c r="AK50" s="18"/>
       <c r="AL50" s="16"/>
       <c r="AM50" s="15"/>
-      <c r="AN50" s="16"/>
-      <c r="AO50" s="15"/>
-      <c r="AP50" s="16"/>
-      <c r="AQ50" s="15"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="24"/>
       <c r="AR50" s="16"/>
       <c r="AS50" s="15"/>
       <c r="AT50" s="16"/>
@@ -20056,7 +19983,7 @@
       <c r="M51" s="24"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
-      <c r="P51" s="101"/>
+      <c r="P51" s="54"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="23"/>
       <c r="S51" s="24"/>
@@ -20080,10 +20007,10 @@
       <c r="AK51" s="18"/>
       <c r="AL51" s="16"/>
       <c r="AM51" s="15"/>
-      <c r="AN51" s="16"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="16"/>
-      <c r="AQ51" s="15"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="24"/>
       <c r="AR51" s="16"/>
       <c r="AS51" s="15"/>
       <c r="AT51" s="16"/>
@@ -20106,7 +20033,7 @@
       <c r="L52" s="23"/>
       <c r="M52" s="24"/>
       <c r="N52" s="23"/>
-      <c r="O52" s="100"/>
+      <c r="O52" s="53"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="23"/>
@@ -20131,10 +20058,10 @@
       <c r="AK52" s="18"/>
       <c r="AL52" s="16"/>
       <c r="AM52" s="15"/>
-      <c r="AN52" s="16"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="16"/>
-      <c r="AQ52" s="15"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="24"/>
       <c r="AR52" s="16"/>
       <c r="AS52" s="15"/>
       <c r="AT52" s="16"/>
@@ -20157,7 +20084,7 @@
       <c r="L53" s="23"/>
       <c r="M53" s="24"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="100"/>
+      <c r="O53" s="53"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="23"/>
@@ -20182,10 +20109,10 @@
       <c r="AK53" s="18"/>
       <c r="AL53" s="16"/>
       <c r="AM53" s="15"/>
-      <c r="AN53" s="16"/>
-      <c r="AO53" s="15"/>
-      <c r="AP53" s="16"/>
-      <c r="AQ53" s="15"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="24"/>
       <c r="AR53" s="16"/>
       <c r="AS53" s="15"/>
       <c r="AT53" s="16"/>
@@ -20208,7 +20135,7 @@
       <c r="L54" s="23"/>
       <c r="M54" s="24"/>
       <c r="N54" s="23"/>
-      <c r="O54" s="100"/>
+      <c r="O54" s="53"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="23"/>
@@ -20233,10 +20160,10 @@
       <c r="AK54" s="18"/>
       <c r="AL54" s="16"/>
       <c r="AM54" s="15"/>
-      <c r="AN54" s="16"/>
-      <c r="AO54" s="15"/>
-      <c r="AP54" s="16"/>
-      <c r="AQ54" s="15"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="24"/>
       <c r="AR54" s="16"/>
       <c r="AS54" s="15"/>
       <c r="AT54" s="16"/>
@@ -20259,7 +20186,7 @@
       <c r="L55" s="23"/>
       <c r="M55" s="24"/>
       <c r="N55" s="23"/>
-      <c r="O55" s="100"/>
+      <c r="O55" s="53"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="23"/>
@@ -20284,10 +20211,10 @@
       <c r="AK55" s="18"/>
       <c r="AL55" s="16"/>
       <c r="AM55" s="15"/>
-      <c r="AN55" s="16"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="16"/>
-      <c r="AQ55" s="15"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="23"/>
+      <c r="AQ55" s="24"/>
       <c r="AR55" s="16"/>
       <c r="AS55" s="15"/>
       <c r="AT55" s="16"/>
@@ -20310,7 +20237,7 @@
       <c r="L56" s="23"/>
       <c r="M56" s="24"/>
       <c r="N56" s="23"/>
-      <c r="O56" s="100"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="23"/>
@@ -20335,10 +20262,10 @@
       <c r="AK56" s="18"/>
       <c r="AL56" s="16"/>
       <c r="AM56" s="15"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="15"/>
-      <c r="AP56" s="16"/>
-      <c r="AQ56" s="15"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="24"/>
       <c r="AR56" s="16"/>
       <c r="AS56" s="15"/>
       <c r="AT56" s="16"/>
@@ -20361,7 +20288,7 @@
       <c r="L57" s="23"/>
       <c r="M57" s="24"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="100"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="23"/>
@@ -20386,10 +20313,10 @@
       <c r="AK57" s="18"/>
       <c r="AL57" s="16"/>
       <c r="AM57" s="15"/>
-      <c r="AN57" s="16"/>
-      <c r="AO57" s="15"/>
-      <c r="AP57" s="16"/>
-      <c r="AQ57" s="15"/>
+      <c r="AN57" s="19"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="23"/>
+      <c r="AQ57" s="24"/>
       <c r="AR57" s="16"/>
       <c r="AS57" s="15"/>
       <c r="AT57" s="16"/>
@@ -20412,7 +20339,7 @@
       <c r="L58" s="23"/>
       <c r="M58" s="24"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="100"/>
+      <c r="O58" s="53"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="23"/>
@@ -20437,10 +20364,10 @@
       <c r="AK58" s="18"/>
       <c r="AL58" s="16"/>
       <c r="AM58" s="15"/>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="15"/>
-      <c r="AP58" s="16"/>
-      <c r="AQ58" s="15"/>
+      <c r="AN58" s="19"/>
+      <c r="AO58" s="20"/>
+      <c r="AP58" s="23"/>
+      <c r="AQ58" s="24"/>
       <c r="AR58" s="16"/>
       <c r="AS58" s="15"/>
       <c r="AT58" s="16"/>
@@ -20463,7 +20390,7 @@
       <c r="L59" s="23"/>
       <c r="M59" s="24"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="100"/>
+      <c r="O59" s="53"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="24"/>
       <c r="R59" s="23"/>
@@ -20488,10 +20415,10 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="16"/>
       <c r="AM59" s="15"/>
-      <c r="AN59" s="16"/>
-      <c r="AO59" s="15"/>
-      <c r="AP59" s="16"/>
-      <c r="AQ59" s="15"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="20"/>
+      <c r="AP59" s="23"/>
+      <c r="AQ59" s="24"/>
       <c r="AR59" s="16"/>
       <c r="AS59" s="15"/>
       <c r="AT59" s="16"/>
@@ -20514,7 +20441,7 @@
       <c r="L60" s="23"/>
       <c r="M60" s="24"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="100"/>
+      <c r="O60" s="53"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="23"/>
@@ -20539,27 +20466,27 @@
       <c r="AK60" s="18"/>
       <c r="AL60" s="16"/>
       <c r="AM60" s="15"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="15"/>
-      <c r="AP60" s="16"/>
-      <c r="AQ60" s="15"/>
+      <c r="AN60" s="19"/>
+      <c r="AO60" s="20"/>
+      <c r="AP60" s="23"/>
+      <c r="AQ60" s="24"/>
       <c r="AR60" s="16"/>
       <c r="AS60" s="15"/>
       <c r="AT60" s="16"/>
       <c r="AU60" s="15"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="59"/>
+      <c r="A61" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="23"/>
       <c r="K61" s="24"/>
       <c r="L61" s="23"/>
@@ -20591,9 +20518,9 @@
       <c r="AL61" s="16"/>
       <c r="AM61" s="15"/>
       <c r="AN61" s="16"/>
-      <c r="AO61" s="15"/>
-      <c r="AP61" s="16"/>
-      <c r="AQ61" s="15"/>
+      <c r="AO61" s="24"/>
+      <c r="AP61" s="23"/>
+      <c r="AQ61" s="24"/>
       <c r="AR61" s="16"/>
       <c r="AS61" s="15"/>
       <c r="AT61" s="16"/>
@@ -20601,7 +20528,7 @@
     </row>
     <row r="62" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -20642,26 +20569,26 @@
       <c r="AL62" s="16"/>
       <c r="AM62" s="15"/>
       <c r="AN62" s="16"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="16"/>
-      <c r="AQ62" s="15"/>
+      <c r="AO62" s="24"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="24"/>
       <c r="AR62" s="16"/>
       <c r="AS62" s="15"/>
       <c r="AT62" s="16"/>
       <c r="AU62" s="15"/>
     </row>
     <row r="63" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="59"/>
+      <c r="A63" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="23"/>
       <c r="K63" s="24"/>
       <c r="L63" s="23"/>
@@ -20693,9 +20620,9 @@
       <c r="AL63" s="16"/>
       <c r="AM63" s="15"/>
       <c r="AN63" s="16"/>
-      <c r="AO63" s="15"/>
-      <c r="AP63" s="16"/>
-      <c r="AQ63" s="15"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="24"/>
       <c r="AR63" s="16"/>
       <c r="AS63" s="15"/>
       <c r="AT63" s="16"/>
@@ -20703,7 +20630,7 @@
     </row>
     <row r="64" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -20744,26 +20671,26 @@
       <c r="AL64" s="16"/>
       <c r="AM64" s="15"/>
       <c r="AN64" s="16"/>
-      <c r="AO64" s="15"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="15"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="24"/>
       <c r="AR64" s="16"/>
       <c r="AS64" s="15"/>
       <c r="AT64" s="16"/>
       <c r="AU64" s="15"/>
     </row>
     <row r="65" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="87"/>
+      <c r="A65" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="70"/>
       <c r="J65" s="23"/>
       <c r="K65" s="24"/>
       <c r="L65" s="23"/>
@@ -20805,7 +20732,7 @@
     </row>
     <row r="66" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -20855,17 +20782,17 @@
       <c r="AU66" s="15"/>
     </row>
     <row r="67" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="76"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="88"/>
       <c r="J67" s="23"/>
       <c r="K67" s="24"/>
       <c r="L67" s="23"/>
@@ -20906,10 +20833,10 @@
       <c r="AU67" s="15"/>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A68" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="103"/>
+      <c r="A68" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="56"/>
       <c r="C68" s="4"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -20957,10 +20884,10 @@
       <c r="AU68" s="15"/>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A69" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="103"/>
+      <c r="A69" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="56"/>
       <c r="C69" s="4"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -21008,10 +20935,10 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A70" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="105"/>
+      <c r="A70" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="107"/>
       <c r="C70" s="4"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
@@ -21059,10 +20986,10 @@
       <c r="AU70" s="15"/>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A71" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="103"/>
+      <c r="A71" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="56"/>
       <c r="C71" s="4"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -21110,10 +21037,10 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A72" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="105"/>
+      <c r="A72" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="107"/>
       <c r="C72" s="4"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
@@ -21161,10 +21088,10 @@
       <c r="AU72" s="15"/>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A73" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="105"/>
+      <c r="A73" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="107"/>
       <c r="C73" s="4"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
@@ -21212,10 +21139,10 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A74" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="105"/>
+      <c r="A74" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="107"/>
       <c r="C74" s="4"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
@@ -21263,10 +21190,10 @@
       <c r="AU74" s="15"/>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A75" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="103"/>
+      <c r="A75" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="56"/>
       <c r="C75" s="4"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
@@ -21314,10 +21241,10 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="102"/>
+      <c r="A76" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="55"/>
       <c r="C76" s="4"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -21365,10 +21292,10 @@
       <c r="AU76" s="15"/>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A77" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="102"/>
+      <c r="A77" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="55"/>
       <c r="C77" s="4"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -21416,10 +21343,10 @@
       <c r="AU77" s="15"/>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A78" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="103"/>
+      <c r="A78" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="56"/>
       <c r="C78" s="4"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
@@ -21467,10 +21394,10 @@
       <c r="AU78" s="15"/>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A79" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="107"/>
+      <c r="A79" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="109"/>
       <c r="C79" s="4"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
@@ -21518,17 +21445,17 @@
       <c r="AU79" s="15"/>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="79"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="91"/>
       <c r="J80" s="23"/>
       <c r="K80" s="24"/>
       <c r="L80" s="23"/>
@@ -21569,17 +21496,17 @@
       <c r="AU80" s="15"/>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="83"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
       <c r="J81" s="23"/>
       <c r="K81" s="24"/>
       <c r="L81" s="23"/>
@@ -21621,16 +21548,16 @@
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="108"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="102"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="23"/>
       <c r="K82" s="24"/>
       <c r="L82" s="23"/>
@@ -21672,16 +21599,16 @@
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="109"/>
-      <c r="I83" s="102"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="55"/>
       <c r="J83" s="23"/>
       <c r="K83" s="24"/>
       <c r="L83" s="23"/>
@@ -21723,16 +21650,16 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="102"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="55"/>
       <c r="J84" s="23"/>
       <c r="K84" s="24"/>
       <c r="L84" s="23"/>
@@ -21774,16 +21701,16 @@
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="102"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="55"/>
       <c r="J85" s="23"/>
       <c r="K85" s="24"/>
       <c r="L85" s="23"/>
@@ -21825,16 +21752,16 @@
     </row>
     <row r="86" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="102"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="102"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="55"/>
       <c r="J86" s="23"/>
       <c r="K86" s="24"/>
       <c r="L86" s="23"/>
@@ -21875,17 +21802,17 @@
       <c r="AU86" s="15"/>
     </row>
     <row r="87" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="82"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="83"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
       <c r="J87" s="23"/>
       <c r="K87" s="24"/>
       <c r="L87" s="23"/>
@@ -21927,16 +21854,16 @@
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="102"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="55"/>
       <c r="J88" s="23"/>
       <c r="K88" s="24"/>
       <c r="L88" s="23"/>
@@ -21978,16 +21905,16 @@
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="4"/>
-      <c r="C89" s="102"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="102"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="55"/>
       <c r="J89" s="23"/>
       <c r="K89" s="24"/>
       <c r="L89" s="23"/>
@@ -22029,16 +21956,16 @@
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="102"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="55"/>
       <c r="J90" s="23"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23"/>
@@ -22080,16 +22007,16 @@
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="102"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="108"/>
-      <c r="H91" s="109"/>
-      <c r="I91" s="102"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="23"/>
       <c r="K91" s="24"/>
       <c r="L91" s="23"/>
@@ -22131,16 +22058,16 @@
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="108"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="102"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="55"/>
       <c r="J92" s="23"/>
       <c r="K92" s="24"/>
       <c r="L92" s="23"/>
@@ -22182,16 +22109,16 @@
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="102"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="23"/>
       <c r="K93" s="24"/>
       <c r="L93" s="23"/>
@@ -22232,17 +22159,17 @@
       <c r="AU93" s="15"/>
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A94" s="81" t="s">
+      <c r="A94" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="83"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="61"/>
       <c r="J94" s="23"/>
       <c r="K94" s="24"/>
       <c r="L94" s="23"/>
@@ -22284,16 +22211,16 @@
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="108"/>
-      <c r="G95" s="108"/>
-      <c r="H95" s="109"/>
-      <c r="I95" s="102"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="23"/>
       <c r="K95" s="24"/>
       <c r="L95" s="23"/>
@@ -22335,16 +22262,16 @@
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="102"/>
-      <c r="D96" s="108"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="108"/>
-      <c r="G96" s="108"/>
-      <c r="H96" s="109"/>
-      <c r="I96" s="102"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="23"/>
       <c r="K96" s="24"/>
       <c r="L96" s="23"/>
@@ -22386,16 +22313,16 @@
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="108"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="108"/>
-      <c r="H97" s="109"/>
-      <c r="I97" s="102"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="55"/>
       <c r="J97" s="23"/>
       <c r="K97" s="24"/>
       <c r="L97" s="23"/>
@@ -22437,16 +22364,16 @@
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="108"/>
-      <c r="G98" s="108"/>
-      <c r="H98" s="109"/>
-      <c r="I98" s="102"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="23"/>
       <c r="K98" s="24"/>
       <c r="L98" s="23"/>
@@ -22488,16 +22415,16 @@
     </row>
     <row r="99" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="102"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="102"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="55"/>
       <c r="J99" s="23"/>
       <c r="K99" s="24"/>
       <c r="L99" s="23"/>
@@ -22538,17 +22465,17 @@
       <c r="AU99" s="15"/>
     </row>
     <row r="100" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="70"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="81"/>
+      <c r="H100" s="81"/>
+      <c r="I100" s="82"/>
       <c r="J100" s="23"/>
       <c r="K100" s="24"/>
       <c r="L100" s="23"/>
@@ -22645,7 +22572,7 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D102" s="34">
         <v>45503.520833333336</v>
@@ -22661,7 +22588,7 @@
         <v>0.8</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J102" s="23"/>
       <c r="K102" s="24"/>
@@ -22708,7 +22635,7 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103" s="34">
         <v>45503.520833333336</v>
@@ -22724,7 +22651,7 @@
         <v>0.5</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J103" s="23"/>
       <c r="K103" s="24"/>
@@ -22771,7 +22698,7 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="34">
         <v>45503.520833333336</v>
@@ -22789,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" s="23"/>
       <c r="K104" s="24"/>
@@ -22836,7 +22763,7 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D105" s="34">
         <v>45503.520833333336</v>
@@ -22852,7 +22779,7 @@
         <v>0.9</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="15"/>
@@ -22899,7 +22826,7 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106" s="34">
         <v>45503.520833333336</v>
@@ -22915,7 +22842,7 @@
         <v>0.9</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
@@ -22962,7 +22889,7 @@
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107" s="34">
         <v>45503.520833333336</v>
@@ -22978,7 +22905,7 @@
         <v>0.5</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="15"/>
@@ -23025,7 +22952,7 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" s="34">
         <v>45503.520833333336</v>
@@ -23041,7 +22968,7 @@
         <v>0.7</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
@@ -23088,7 +23015,7 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="34">
         <v>45503.520833333336</v>
@@ -23104,7 +23031,7 @@
         <v>0.7</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
@@ -23151,7 +23078,7 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D110" s="34">
         <v>45503.520833333336</v>
@@ -23167,7 +23094,7 @@
         <v>0.9</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="15"/>
@@ -23214,7 +23141,7 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" s="34">
         <v>45503.520833333336</v>
@@ -23230,7 +23157,7 @@
         <v>0.9</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="15"/>
@@ -23277,7 +23204,7 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D112" s="34">
         <v>45503.520833333336</v>
@@ -23293,7 +23220,7 @@
         <v>0.8</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="15"/>
@@ -23340,7 +23267,7 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D113" s="34">
         <v>45503.520833333336</v>
@@ -23356,7 +23283,7 @@
         <v>0.8</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="15"/>
@@ -23403,7 +23330,7 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D114" s="34">
         <v>45503.520833333336</v>
@@ -23419,7 +23346,7 @@
         <v>0.7</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="15"/>
@@ -23461,17 +23388,17 @@
       <c r="AU114" s="15"/>
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A115" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="70"/>
+      <c r="A115" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="81"/>
+      <c r="C115" s="81"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="82"/>
       <c r="J115" s="16"/>
       <c r="K115" s="15"/>
       <c r="L115" s="16"/>
@@ -23513,7 +23440,7 @@
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -23567,37 +23494,53 @@
       <c r="AU116" s="15"/>
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="X117" s="101"/>
-      <c r="Y117" s="101"/>
-      <c r="Z117" s="101"/>
-      <c r="AA117" s="101"/>
-      <c r="AB117" s="101"/>
-      <c r="AC117" s="101"/>
-      <c r="AD117" s="101"/>
-      <c r="AE117" s="101"/>
-      <c r="AF117" s="101"/>
+      <c r="X117" s="54"/>
+      <c r="Y117" s="54"/>
+      <c r="Z117" s="54"/>
+      <c r="AA117" s="54"/>
+      <c r="AB117" s="54"/>
+      <c r="AC117" s="54"/>
+      <c r="AD117" s="54"/>
+      <c r="AE117" s="54"/>
+      <c r="AF117" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="AD1:AU1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="A61:I61"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AR3:AS3"/>
@@ -23614,41 +23557,25 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="J1:AC1"/>
-    <mergeCell ref="AD1:AU1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A87:I87"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23685,10 +23612,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -23696,7 +23623,7 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -23704,7 +23631,7 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -23712,7 +23639,7 @@
         <v>0.3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BF8F3-7AB0-4796-8ED7-F89691C15019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084CA82-14F8-46B7-92D6-8D8C479B7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="バックエンド" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="156">
   <si>
     <t>予定</t>
   </si>
@@ -1171,6 +1171,179 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>顧客アカウント登録機能のシーケンス図</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トウロクキノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客アカウントログイン機能のシーケンス図</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ別商品検索機能のシーケンス図</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>ショウヒンケンサクキノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品購入のシーケンス図</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入確定機能のシーケンス図</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウカクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入キャンセル機能のシーケンス図</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索機能のシーケンス図</t>
+    <rPh sb="0" eb="6">
+      <t>コウニュウリレキケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客アカウントログアウト機能のシーケンス図</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StockRepository</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客ログイン</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客アカウント登録</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ商品検索</t>
+    <rPh sb="4" eb="8">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入(入力)</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴詳細</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1225,7 +1398,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,6 +1444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1632,37 +1811,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,32 +1842,44 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1740,57 +1920,56 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8951,8 +9130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AME138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AH135" sqref="AH135"/>
     </sheetView>
   </sheetViews>
@@ -8970,74 +9149,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="85" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="62" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="101"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -9053,187 +9232,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="98">
+      <c r="H2" s="84"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="56">
         <v>22</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="98">
+      <c r="K2" s="69"/>
+      <c r="L2" s="56">
         <v>23</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98">
+      <c r="M2" s="57"/>
+      <c r="N2" s="56">
         <v>24</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="98">
+      <c r="O2" s="57"/>
+      <c r="P2" s="56">
         <v>25</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="98">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="56">
         <v>26</v>
       </c>
-      <c r="S2" s="99"/>
-      <c r="T2" s="96">
+      <c r="S2" s="57"/>
+      <c r="T2" s="58">
         <v>27</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="96">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58">
         <v>28</v>
       </c>
-      <c r="W2" s="97"/>
-      <c r="X2" s="98">
+      <c r="W2" s="59"/>
+      <c r="X2" s="56">
         <v>29</v>
       </c>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="98">
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="56">
         <v>30</v>
       </c>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="98">
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56">
         <v>31</v>
       </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="74">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="92">
         <v>1</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="74">
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="92">
         <v>2</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="76">
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="95">
         <v>3</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="76">
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="95">
         <v>4</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="74">
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="92">
         <v>5</v>
       </c>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="74">
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="92">
         <v>6</v>
       </c>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="74">
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="92">
         <v>7</v>
       </c>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="74">
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="92">
         <v>8</v>
       </c>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="74">
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="92">
         <v>9</v>
       </c>
-      <c r="AU2" s="75"/>
+      <c r="AU2" s="93"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="98" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="98" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="98" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="98" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="96" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="97"/>
-      <c r="V3" s="96" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="98" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="98" t="s">
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="98" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="72" t="s">
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="78" t="s">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="78" t="s">
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="72" t="s">
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="72" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="72" t="s">
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="73"/>
+      <c r="AU3" s="69"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -9339,17 +9518,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -10101,17 +10280,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -10607,17 +10786,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -10774,17 +10953,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -11142,17 +11321,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -11583,17 +11762,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -11894,17 +12073,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -13374,17 +13553,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -13490,17 +13669,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -13606,17 +13785,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="70"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -13720,17 +13899,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="88"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="87"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -14515,17 +14694,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="91"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="90"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -14566,17 +14745,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="59" t="s">
+      <c r="A90" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="61"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="68"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -14914,17 +15093,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -15313,17 +15492,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="61"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -15661,17 +15840,17 @@
       <c r="AU108" s="15"/>
     </row>
     <row r="109" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="80" t="s">
+      <c r="A109" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="81"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="82"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="81"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -17072,17 +17251,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A132" s="80" t="s">
+      <c r="A132" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="81"/>
-      <c r="C132" s="81"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="81"/>
-      <c r="F132" s="81"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="81"/>
-      <c r="I132" s="82"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="81"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -17205,56 +17384,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A96:I96"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
     <mergeCell ref="A6:I6"/>
@@ -17270,6 +17399,56 @@
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17301,90 +17480,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E17B5F-DBAE-42D1-AAF7-9BDF1408ADED}">
-  <dimension ref="A1:AU117"/>
+  <dimension ref="A1:AU110"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="W52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="U16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP62" sqref="AP62"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="4" max="7" width="16.58203125" customWidth="1"/>
+    <col min="4" max="7" width="17.58203125" style="35" customWidth="1"/>
     <col min="10" max="47" width="2.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="85" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="62" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="101"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -17400,186 +17579,186 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="98">
+      <c r="H2" s="84"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="56">
         <v>22</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="98">
+      <c r="K2" s="69"/>
+      <c r="L2" s="56">
         <v>23</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98">
+      <c r="M2" s="57"/>
+      <c r="N2" s="56">
         <v>24</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="98">
+      <c r="O2" s="57"/>
+      <c r="P2" s="56">
         <v>25</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="98">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="56">
         <v>26</v>
       </c>
-      <c r="S2" s="99"/>
-      <c r="T2" s="96">
+      <c r="S2" s="57"/>
+      <c r="T2" s="58">
         <v>27</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="96">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58">
         <v>28</v>
       </c>
-      <c r="W2" s="97"/>
-      <c r="X2" s="98">
+      <c r="W2" s="59"/>
+      <c r="X2" s="56">
         <v>29</v>
       </c>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="98">
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="56">
         <v>30</v>
       </c>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="98">
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56">
         <v>31</v>
       </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="74">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="92">
         <v>1</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="74">
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="92">
         <v>2</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="76">
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="95">
         <v>3</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="76">
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="95">
         <v>4</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="74">
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="92">
         <v>5</v>
       </c>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="74">
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="92">
         <v>6</v>
       </c>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="74">
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="92">
         <v>7</v>
       </c>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="74">
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="92">
         <v>8</v>
       </c>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="74">
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="92">
         <v>9</v>
       </c>
-      <c r="AU2" s="75"/>
+      <c r="AU2" s="93"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="98" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="98" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="98" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="98" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="96" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="97"/>
-      <c r="V3" s="96" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="98" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="98" t="s">
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="98" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="72" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="72" t="s">
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="78" t="s">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="78" t="s">
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="72" t="s">
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="72" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="72" t="s">
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="72" t="s">
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="73"/>
+      <c r="AU3" s="69"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="23"/>
@@ -17620,17 +17799,17 @@
       <c r="AU4" s="15"/>
     </row>
     <row r="5" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="L5" s="23"/>
@@ -17671,17 +17850,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="23"/>
@@ -17726,9 +17905,15 @@
         <v>12</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="34">
+        <v>45506.361111111109</v>
+      </c>
+      <c r="E7" s="34">
+        <v>45506.479166666664</v>
+      </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="5"/>
@@ -17777,9 +17962,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="34">
+        <v>45506.361111111109</v>
+      </c>
+      <c r="E8" s="34">
+        <v>45506.479166666664</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="5"/>
@@ -17828,9 +18019,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E9" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="5"/>
@@ -17879,9 +18076,15 @@
         <v>15</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E10" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="5"/>
@@ -17930,9 +18133,15 @@
         <v>16</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E11" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="5"/>
@@ -17981,9 +18190,15 @@
         <v>17</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E12" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="5"/>
@@ -18032,9 +18247,15 @@
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E13" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="5"/>
@@ -18083,9 +18304,15 @@
         <v>19</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E14" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="5"/>
@@ -18134,9 +18361,15 @@
         <v>20</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E15" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="5"/>
@@ -18185,9 +18418,15 @@
         <v>21</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E16" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="5"/>
@@ -18236,9 +18475,15 @@
         <v>22</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="34">
+        <v>45506.361111053244</v>
+      </c>
+      <c r="E17" s="34">
+        <v>45506.479166608799</v>
+      </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="5"/>
@@ -18283,17 +18528,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
@@ -18334,17 +18579,17 @@
       <c r="AU18" s="15"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="110"/>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="23"/>
@@ -18386,12 +18631,18 @@
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E20" s="55">
+        <v>45506.666666666664</v>
+      </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="11"/>
@@ -18437,12 +18688,18 @@
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E21" s="55">
+        <v>45506.666666666664</v>
+      </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="11"/>
@@ -18488,12 +18745,18 @@
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E22" s="55">
+        <v>45506.666666608799</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="11"/>
@@ -18539,12 +18802,18 @@
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E23" s="55">
+        <v>45506.666666608799</v>
+      </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="11"/>
@@ -18590,12 +18859,18 @@
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E24" s="55">
+        <v>45506.666666608799</v>
+      </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="11"/>
@@ -18639,14 +18914,20 @@
       <c r="AT24" s="16"/>
       <c r="AU24" s="15"/>
     </row>
-    <row r="25" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E25" s="55">
+        <v>45506.666666608799</v>
+      </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="11"/>
@@ -18690,18 +18971,24 @@
       <c r="AT25" s="16"/>
       <c r="AU25" s="15"/>
     </row>
-    <row r="26" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+    <row r="26" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E26" s="55">
+        <v>45506.666666608799</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="52"/>
       <c r="K26" s="24"/>
       <c r="L26" s="23"/>
@@ -18725,7 +19012,7 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="16"/>
-      <c r="AG26" s="15"/>
+      <c r="AG26" s="20"/>
       <c r="AH26" s="17"/>
       <c r="AI26" s="18"/>
       <c r="AJ26" s="17"/>
@@ -18741,19 +19028,19 @@
       <c r="AT26" s="16"/>
       <c r="AU26" s="15"/>
     </row>
-    <row r="27" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="23"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="24"/>
       <c r="L27" s="23"/>
       <c r="M27" s="24"/>
@@ -18776,7 +19063,7 @@
       <c r="AD27" s="16"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="20"/>
+      <c r="AG27" s="15"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="17"/>
@@ -18792,18 +19079,22 @@
       <c r="AT27" s="16"/>
       <c r="AU27" s="15"/>
     </row>
-    <row r="28" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
+    <row r="28" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="55">
+        <v>45506.520833333336</v>
+      </c>
+      <c r="E28" s="55">
+        <v>45506.666666608799</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="23"/>
       <c r="K28" s="24"/>
       <c r="L28" s="23"/>
@@ -18827,12 +19118,12 @@
       <c r="AD28" s="16"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="16"/>
-      <c r="AG28" s="15"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="18"/>
-      <c r="AL28" s="16"/>
+      <c r="AL28" s="23"/>
       <c r="AM28" s="15"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="15"/>
@@ -18843,18 +19134,18 @@
       <c r="AT28" s="16"/>
       <c r="AU28" s="15"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+    <row r="29" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="23"/>
       <c r="K29" s="24"/>
       <c r="L29" s="23"/>
@@ -18883,9 +19174,9 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="18"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="23"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="16"/>
       <c r="AO29" s="15"/>
       <c r="AP29" s="16"/>
       <c r="AQ29" s="15"/>
@@ -18895,17 +19186,17 @@
       <c r="AU29" s="15"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="4"/>
+      <c r="A30" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
       <c r="J30" s="23"/>
       <c r="K30" s="24"/>
       <c r="L30" s="23"/>
@@ -18947,7 +19238,7 @@
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -18998,7 +19289,7 @@
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -19049,7 +19340,7 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -19150,17 +19441,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="23"/>
       <c r="K35" s="24"/>
       <c r="L35" s="23"/>
@@ -19355,7 +19646,7 @@
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -19507,17 +19798,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="L42" s="23"/>
@@ -19659,7 +19950,7 @@
       <c r="AT44" s="16"/>
       <c r="AU44" s="15"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>101</v>
       </c>
@@ -19710,18 +20001,18 @@
       <c r="AT45" s="16"/>
       <c r="AU45" s="15"/>
     </row>
-    <row r="46" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="4"/>
+    <row r="46" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
       <c r="J46" s="23"/>
       <c r="K46" s="24"/>
       <c r="L46" s="23"/>
@@ -19750,9 +20041,9 @@
       <c r="AI46" s="18"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="18"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="23"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="16"/>
       <c r="AO46" s="15"/>
       <c r="AP46" s="16"/>
       <c r="AQ46" s="15"/>
@@ -19761,18 +20052,20 @@
       <c r="AT46" s="16"/>
       <c r="AU46" s="15"/>
     </row>
-    <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="23"/>
       <c r="K47" s="24"/>
       <c r="L47" s="23"/>
@@ -19803,10 +20096,10 @@
       <c r="AK47" s="18"/>
       <c r="AL47" s="16"/>
       <c r="AM47" s="15"/>
-      <c r="AN47" s="16"/>
-      <c r="AO47" s="15"/>
-      <c r="AP47" s="16"/>
-      <c r="AQ47" s="15"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="24"/>
       <c r="AR47" s="16"/>
       <c r="AS47" s="15"/>
       <c r="AT47" s="16"/>
@@ -19814,10 +20107,12 @@
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
@@ -19829,7 +20124,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="24"/>
       <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
+      <c r="O48" s="53"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="23"/>
@@ -19864,17 +20159,17 @@
       <c r="AU48" s="15"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="4"/>
+      <c r="A49" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="106"/>
       <c r="J49" s="23"/>
       <c r="K49" s="24"/>
       <c r="L49" s="23"/>
@@ -19915,24 +20210,24 @@
       <c r="AU49" s="15"/>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="4"/>
+      <c r="A50" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="106"/>
       <c r="J50" s="23"/>
       <c r="K50" s="24"/>
       <c r="L50" s="23"/>
       <c r="M50" s="24"/>
       <c r="N50" s="23"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="54"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="23"/>
       <c r="S50" s="24"/>
@@ -19966,24 +20261,24 @@
       <c r="AU50" s="15"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="4"/>
+      <c r="A51" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="106"/>
       <c r="J51" s="23"/>
       <c r="K51" s="24"/>
       <c r="L51" s="23"/>
       <c r="M51" s="24"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="54"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="23"/>
       <c r="S51" s="24"/>
@@ -20018,7 +20313,7 @@
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -20069,7 +20364,7 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -20120,7 +20415,7 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -20171,7 +20466,7 @@
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -20222,7 +20517,7 @@
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -20273,7 +20568,7 @@
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -20324,7 +20619,7 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -20375,7 +20670,7 @@
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -20425,23 +20720,23 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="4"/>
+      <c r="A60" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="23"/>
       <c r="K60" s="24"/>
       <c r="L60" s="23"/>
       <c r="M60" s="24"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="53"/>
+      <c r="O60" s="24"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="23"/>
@@ -20466,8 +20761,8 @@
       <c r="AK60" s="18"/>
       <c r="AL60" s="16"/>
       <c r="AM60" s="15"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="20"/>
+      <c r="AN60" s="16"/>
+      <c r="AO60" s="24"/>
       <c r="AP60" s="23"/>
       <c r="AQ60" s="24"/>
       <c r="AR60" s="16"/>
@@ -20475,18 +20770,18 @@
       <c r="AT60" s="16"/>
       <c r="AU60" s="15"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="65" t="s">
+    <row r="61" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="67"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="23"/>
       <c r="K61" s="24"/>
       <c r="L61" s="23"/>
@@ -20526,18 +20821,18 @@
       <c r="AT61" s="16"/>
       <c r="AU61" s="15"/>
     </row>
-    <row r="62" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="12"/>
+    <row r="62" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="23"/>
       <c r="K62" s="24"/>
       <c r="L62" s="23"/>
@@ -20577,18 +20872,18 @@
       <c r="AT62" s="16"/>
       <c r="AU62" s="15"/>
     </row>
-    <row r="63" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65" t="s">
+    <row r="63" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="67"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="23"/>
       <c r="K63" s="24"/>
       <c r="L63" s="23"/>
@@ -20628,18 +20923,18 @@
       <c r="AT63" s="16"/>
       <c r="AU63" s="15"/>
     </row>
-    <row r="64" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="12"/>
+    <row r="64" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="65"/>
       <c r="J64" s="23"/>
       <c r="K64" s="24"/>
       <c r="L64" s="23"/>
@@ -20671,26 +20966,26 @@
       <c r="AL64" s="16"/>
       <c r="AM64" s="15"/>
       <c r="AN64" s="16"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="24"/>
+      <c r="AO64" s="15"/>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="15"/>
       <c r="AR64" s="16"/>
       <c r="AS64" s="15"/>
       <c r="AT64" s="16"/>
       <c r="AU64" s="15"/>
     </row>
-    <row r="65" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68" t="s">
+    <row r="65" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="23"/>
       <c r="K65" s="24"/>
       <c r="L65" s="23"/>
@@ -20730,18 +21025,18 @@
       <c r="AT65" s="16"/>
       <c r="AU65" s="15"/>
     </row>
-    <row r="66" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="12"/>
+    <row r="66" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="87"/>
       <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="23"/>
@@ -20781,18 +21076,18 @@
       <c r="AT66" s="16"/>
       <c r="AU66" s="15"/>
     </row>
-    <row r="67" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="88"/>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A67" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="23"/>
       <c r="K67" s="24"/>
       <c r="L67" s="23"/>
@@ -20833,10 +21128,10 @@
       <c r="AU67" s="15"/>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A68" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="56"/>
+      <c r="A68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -20884,17 +21179,17 @@
       <c r="AU68" s="15"/>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="4"/>
+      <c r="A69" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="106"/>
       <c r="J69" s="23"/>
       <c r="K69" s="24"/>
       <c r="L69" s="23"/>
@@ -20935,10 +21230,10 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A70" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="107"/>
+      <c r="A70" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
@@ -20986,10 +21281,10 @@
       <c r="AU70" s="15"/>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A71" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="56"/>
+      <c r="A71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -21037,10 +21332,10 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A72" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="107"/>
+      <c r="A72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
@@ -21088,10 +21383,10 @@
       <c r="AU72" s="15"/>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A73" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="107"/>
+      <c r="A73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
@@ -21139,10 +21434,10 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A74" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="107"/>
+      <c r="A74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
@@ -21190,10 +21485,10 @@
       <c r="AU74" s="15"/>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="56"/>
+      <c r="A75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
@@ -21241,17 +21536,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="4"/>
+      <c r="A76" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="90"/>
       <c r="J76" s="23"/>
       <c r="K76" s="24"/>
       <c r="L76" s="23"/>
@@ -21292,17 +21587,17 @@
       <c r="AU76" s="15"/>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A77" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="4"/>
+      <c r="A77" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="75"/>
       <c r="J77" s="23"/>
       <c r="K77" s="24"/>
       <c r="L77" s="23"/>
@@ -21343,10 +21638,10 @@
       <c r="AU77" s="15"/>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A78" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="56"/>
+      <c r="A78" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
@@ -21368,15 +21663,15 @@
       <c r="U78" s="18"/>
       <c r="V78" s="17"/>
       <c r="W78" s="18"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="16"/>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="16"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="23"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="23"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="17"/>
       <c r="AI78" s="18"/>
@@ -21394,10 +21689,10 @@
       <c r="AU78" s="15"/>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A79" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="109"/>
+      <c r="A79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
@@ -21419,15 +21714,15 @@
       <c r="U79" s="18"/>
       <c r="V79" s="17"/>
       <c r="W79" s="18"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="15"/>
-      <c r="AD79" s="16"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="16"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="24"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="23"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="23"/>
       <c r="AG79" s="15"/>
       <c r="AH79" s="17"/>
       <c r="AI79" s="18"/>
@@ -21445,17 +21740,17 @@
       <c r="AU79" s="15"/>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A80" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="91"/>
+      <c r="A80" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="23"/>
       <c r="K80" s="24"/>
       <c r="L80" s="23"/>
@@ -21470,15 +21765,15 @@
       <c r="U80" s="18"/>
       <c r="V80" s="17"/>
       <c r="W80" s="18"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="15"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="16"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="24"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="23"/>
       <c r="AG80" s="15"/>
       <c r="AH80" s="17"/>
       <c r="AI80" s="18"/>
@@ -21495,18 +21790,18 @@
       <c r="AT80" s="16"/>
       <c r="AU80" s="15"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A81" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61"/>
+    <row r="81" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="12"/>
       <c r="J81" s="23"/>
       <c r="K81" s="24"/>
       <c r="L81" s="23"/>
@@ -21521,15 +21816,15 @@
       <c r="U81" s="18"/>
       <c r="V81" s="17"/>
       <c r="W81" s="18"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="16"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="16"/>
-      <c r="AC81" s="15"/>
-      <c r="AD81" s="16"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="16"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="24"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="23"/>
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="23"/>
       <c r="AG81" s="15"/>
       <c r="AH81" s="17"/>
       <c r="AI81" s="18"/>
@@ -21546,18 +21841,18 @@
       <c r="AT81" s="16"/>
       <c r="AU81" s="15"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="55"/>
+    <row r="82" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="23"/>
       <c r="K82" s="24"/>
       <c r="L82" s="23"/>
@@ -21599,16 +21894,16 @@
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="55"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="23"/>
       <c r="K83" s="24"/>
       <c r="L83" s="23"/>
@@ -21650,16 +21945,16 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="55"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="23"/>
       <c r="K84" s="24"/>
       <c r="L84" s="23"/>
@@ -21701,16 +21996,16 @@
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="55"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="23"/>
       <c r="K85" s="24"/>
       <c r="L85" s="23"/>
@@ -21750,18 +22045,18 @@
       <c r="AT85" s="16"/>
       <c r="AU85" s="15"/>
     </row>
-    <row r="86" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>113</v>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="55"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="23"/>
       <c r="K86" s="24"/>
       <c r="L86" s="23"/>
@@ -21801,18 +22096,18 @@
       <c r="AT86" s="16"/>
       <c r="AU86" s="15"/>
     </row>
-    <row r="87" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="61"/>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="23"/>
       <c r="K87" s="24"/>
       <c r="L87" s="23"/>
@@ -21852,18 +22147,18 @@
       <c r="AT87" s="16"/>
       <c r="AU87" s="15"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="55"/>
+    <row r="88" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="23"/>
       <c r="K88" s="24"/>
       <c r="L88" s="23"/>
@@ -21903,18 +22198,18 @@
       <c r="AT88" s="16"/>
       <c r="AU88" s="15"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="55"/>
+    <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="23"/>
       <c r="K89" s="24"/>
       <c r="L89" s="23"/>
@@ -21956,16 +22251,16 @@
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="55"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="23"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23"/>
@@ -22006,17 +22301,17 @@
       <c r="AU90" s="15"/>
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>106</v>
+      <c r="A91" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="55"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="23"/>
       <c r="K91" s="24"/>
       <c r="L91" s="23"/>
@@ -22058,16 +22353,16 @@
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="55"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="23"/>
       <c r="K92" s="24"/>
       <c r="L92" s="23"/>
@@ -22108,17 +22403,17 @@
       <c r="AU92" s="15"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="55"/>
+      <c r="A93" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="81"/>
       <c r="J93" s="23"/>
       <c r="K93" s="24"/>
       <c r="L93" s="23"/>
@@ -22159,17 +22454,17 @@
       <c r="AU93" s="15"/>
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A94" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="61"/>
+      <c r="A94" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="23"/>
       <c r="K94" s="24"/>
       <c r="L94" s="23"/>
@@ -22210,17 +22505,17 @@
       <c r="AU94" s="15"/>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>99</v>
+      <c r="A95" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="55"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="23"/>
       <c r="K95" s="24"/>
       <c r="L95" s="23"/>
@@ -22261,17 +22556,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
-        <v>100</v>
+      <c r="A96" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="55"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="23"/>
       <c r="K96" s="24"/>
       <c r="L96" s="23"/>
@@ -22312,17 +22607,17 @@
       <c r="AU96" s="15"/>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="55"/>
+      <c r="A97" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="113"/>
+      <c r="I97" s="106"/>
       <c r="J97" s="23"/>
       <c r="K97" s="24"/>
       <c r="L97" s="23"/>
@@ -22363,27 +22658,27 @@
       <c r="AU97" s="15"/>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="23"/>
-      <c r="S98" s="24"/>
+      <c r="A98" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="106"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="15"/>
       <c r="T98" s="17"/>
       <c r="U98" s="18"/>
       <c r="V98" s="17"/>
@@ -22413,28 +22708,28 @@
       <c r="AT98" s="16"/>
       <c r="AU98" s="15"/>
     </row>
-    <row r="99" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="24"/>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A99" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="15"/>
       <c r="T99" s="17"/>
       <c r="U99" s="18"/>
       <c r="V99" s="17"/>
@@ -22464,28 +22759,28 @@
       <c r="AT99" s="16"/>
       <c r="AU99" s="15"/>
     </row>
-    <row r="100" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="81"/>
-      <c r="I100" s="82"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="24"/>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="15"/>
       <c r="T100" s="17"/>
       <c r="U100" s="18"/>
       <c r="V100" s="17"/>
@@ -22516,27 +22811,27 @@
       <c r="AU100" s="15"/>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A101" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="24"/>
+      <c r="A101" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="15"/>
       <c r="T101" s="17"/>
       <c r="U101" s="18"/>
       <c r="V101" s="17"/>
@@ -22568,38 +22863,26 @@
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E102" s="34">
-        <v>45503.666666666664</v>
-      </c>
-      <c r="F102" s="34">
-        <v>45503.520833333336</v>
-      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
       <c r="G102" s="34"/>
-      <c r="H102" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J102" s="23"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="24"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="15"/>
       <c r="T102" s="17"/>
       <c r="U102" s="18"/>
       <c r="V102" s="17"/>
@@ -22631,38 +22914,26 @@
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B103" s="4"/>
-      <c r="C103" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E103" s="34">
-        <v>45503.666666666664</v>
-      </c>
-      <c r="F103" s="34">
-        <v>45503.520833333336</v>
-      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
       <c r="G103" s="34"/>
-      <c r="H103" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J103" s="23"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="23"/>
-      <c r="S103" s="24"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="15"/>
       <c r="T103" s="17"/>
       <c r="U103" s="18"/>
       <c r="V103" s="17"/>
@@ -22694,40 +22965,26 @@
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E104" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F104" s="34">
-        <v>45503.652777777781</v>
-      </c>
-      <c r="G104" s="34">
-        <v>45504.583333333336</v>
-      </c>
-      <c r="H104" s="7">
-        <v>1</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J104" s="23"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="23"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="23"/>
-      <c r="S104" s="24"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="15"/>
       <c r="T104" s="17"/>
       <c r="U104" s="18"/>
       <c r="V104" s="17"/>
@@ -22759,28 +23016,16 @@
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="C105" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E105" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F105" s="34">
-        <v>45504.46875</v>
-      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
       <c r="G105" s="34"/>
-      <c r="H105" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="16"/>
       <c r="K105" s="15"/>
       <c r="L105" s="16"/>
@@ -22822,28 +23067,16 @@
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E106" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F106" s="34">
-        <v>45504.46875</v>
-      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
       <c r="G106" s="34"/>
-      <c r="H106" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
       <c r="L106" s="16"/>
@@ -22885,28 +23118,16 @@
     </row>
     <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B107" s="4"/>
-      <c r="C107" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E107" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F107" s="34">
-        <v>45503.520833333336</v>
-      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
       <c r="G107" s="34"/>
-      <c r="H107" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="16"/>
       <c r="K107" s="15"/>
       <c r="L107" s="16"/>
@@ -22947,29 +23168,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E108" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F108" s="34">
-        <v>45504.4375</v>
-      </c>
-      <c r="G108" s="34"/>
-      <c r="H108" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A108" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="80"/>
+      <c r="I108" s="81"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -23011,28 +23220,16 @@
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4"/>
-      <c r="C109" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E109" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F109" s="34">
-        <v>45504.4375</v>
-      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
       <c r="G109" s="34"/>
-      <c r="H109" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -23073,477 +23270,28 @@
       <c r="AU109" s="15"/>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D110" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E110" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F110" s="34">
-        <v>45504.361111111109</v>
-      </c>
-      <c r="G110" s="34"/>
-      <c r="H110" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J110" s="16"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="18"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="23"/>
-      <c r="Y110" s="24"/>
-      <c r="Z110" s="23"/>
-      <c r="AA110" s="24"/>
-      <c r="AB110" s="23"/>
-      <c r="AC110" s="24"/>
-      <c r="AD110" s="23"/>
-      <c r="AE110" s="24"/>
-      <c r="AF110" s="23"/>
-      <c r="AG110" s="15"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="18"/>
-      <c r="AJ110" s="17"/>
-      <c r="AK110" s="18"/>
-      <c r="AL110" s="16"/>
-      <c r="AM110" s="15"/>
-      <c r="AN110" s="16"/>
-      <c r="AO110" s="15"/>
-      <c r="AP110" s="16"/>
-      <c r="AQ110" s="15"/>
-      <c r="AR110" s="16"/>
-      <c r="AS110" s="15"/>
-      <c r="AT110" s="16"/>
-      <c r="AU110" s="15"/>
-    </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D111" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E111" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F111" s="34">
-        <v>45504.361111111109</v>
-      </c>
-      <c r="G111" s="34"/>
-      <c r="H111" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J111" s="16"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="24"/>
-      <c r="Z111" s="23"/>
-      <c r="AA111" s="24"/>
-      <c r="AB111" s="23"/>
-      <c r="AC111" s="24"/>
-      <c r="AD111" s="23"/>
-      <c r="AE111" s="24"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="15"/>
-      <c r="AH111" s="17"/>
-      <c r="AI111" s="18"/>
-      <c r="AJ111" s="17"/>
-      <c r="AK111" s="18"/>
-      <c r="AL111" s="16"/>
-      <c r="AM111" s="15"/>
-      <c r="AN111" s="16"/>
-      <c r="AO111" s="15"/>
-      <c r="AP111" s="16"/>
-      <c r="AQ111" s="15"/>
-      <c r="AR111" s="16"/>
-      <c r="AS111" s="15"/>
-      <c r="AT111" s="16"/>
-      <c r="AU111" s="15"/>
-    </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E112" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F112" s="34">
-        <v>45504.361111111109</v>
-      </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J112" s="16"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="15"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="18"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="18"/>
-      <c r="X112" s="23"/>
-      <c r="Y112" s="24"/>
-      <c r="Z112" s="23"/>
-      <c r="AA112" s="24"/>
-      <c r="AB112" s="23"/>
-      <c r="AC112" s="24"/>
-      <c r="AD112" s="23"/>
-      <c r="AE112" s="24"/>
-      <c r="AF112" s="23"/>
-      <c r="AG112" s="15"/>
-      <c r="AH112" s="17"/>
-      <c r="AI112" s="18"/>
-      <c r="AJ112" s="17"/>
-      <c r="AK112" s="18"/>
-      <c r="AL112" s="16"/>
-      <c r="AM112" s="15"/>
-      <c r="AN112" s="16"/>
-      <c r="AO112" s="15"/>
-      <c r="AP112" s="16"/>
-      <c r="AQ112" s="15"/>
-      <c r="AR112" s="16"/>
-      <c r="AS112" s="15"/>
-      <c r="AT112" s="16"/>
-      <c r="AU112" s="15"/>
-    </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D113" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E113" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F113" s="34">
-        <v>45503.652777777781</v>
-      </c>
-      <c r="G113" s="34"/>
-      <c r="H113" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J113" s="16"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="15"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="18"/>
-      <c r="X113" s="23"/>
-      <c r="Y113" s="24"/>
-      <c r="Z113" s="23"/>
-      <c r="AA113" s="24"/>
-      <c r="AB113" s="23"/>
-      <c r="AC113" s="24"/>
-      <c r="AD113" s="23"/>
-      <c r="AE113" s="24"/>
-      <c r="AF113" s="23"/>
-      <c r="AG113" s="15"/>
-      <c r="AH113" s="17"/>
-      <c r="AI113" s="18"/>
-      <c r="AJ113" s="17"/>
-      <c r="AK113" s="18"/>
-      <c r="AL113" s="16"/>
-      <c r="AM113" s="15"/>
-      <c r="AN113" s="16"/>
-      <c r="AO113" s="15"/>
-      <c r="AP113" s="16"/>
-      <c r="AQ113" s="15"/>
-      <c r="AR113" s="16"/>
-      <c r="AS113" s="15"/>
-      <c r="AT113" s="16"/>
-      <c r="AU113" s="15"/>
-    </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D114" s="34">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="E114" s="34">
-        <v>45503.666666608799</v>
-      </c>
-      <c r="F114" s="34">
-        <v>45503.652777777781</v>
-      </c>
-      <c r="G114" s="34"/>
-      <c r="H114" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J114" s="16"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="18"/>
-      <c r="V114" s="17"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="23"/>
-      <c r="Y114" s="24"/>
-      <c r="Z114" s="23"/>
-      <c r="AA114" s="24"/>
-      <c r="AB114" s="23"/>
-      <c r="AC114" s="24"/>
-      <c r="AD114" s="23"/>
-      <c r="AE114" s="24"/>
-      <c r="AF114" s="23"/>
-      <c r="AG114" s="15"/>
-      <c r="AH114" s="17"/>
-      <c r="AI114" s="18"/>
-      <c r="AJ114" s="17"/>
-      <c r="AK114" s="18"/>
-      <c r="AL114" s="16"/>
-      <c r="AM114" s="15"/>
-      <c r="AN114" s="16"/>
-      <c r="AO114" s="15"/>
-      <c r="AP114" s="16"/>
-      <c r="AQ114" s="15"/>
-      <c r="AR114" s="16"/>
-      <c r="AS114" s="15"/>
-      <c r="AT114" s="16"/>
-      <c r="AU114" s="15"/>
-    </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A115" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="81"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="81"/>
-      <c r="I115" s="82"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="18"/>
-      <c r="V115" s="17"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="23"/>
-      <c r="Y115" s="24"/>
-      <c r="Z115" s="23"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="23"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="23"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="15"/>
-      <c r="AH115" s="17"/>
-      <c r="AI115" s="18"/>
-      <c r="AJ115" s="17"/>
-      <c r="AK115" s="18"/>
-      <c r="AL115" s="16"/>
-      <c r="AM115" s="15"/>
-      <c r="AN115" s="16"/>
-      <c r="AO115" s="15"/>
-      <c r="AP115" s="16"/>
-      <c r="AQ115" s="15"/>
-      <c r="AR115" s="16"/>
-      <c r="AS115" s="15"/>
-      <c r="AT115" s="16"/>
-      <c r="AU115" s="15"/>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="34">
-        <v>45504.361111111109</v>
-      </c>
-      <c r="E116" s="34">
-        <v>45504.479166666664</v>
-      </c>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="15"/>
-      <c r="R116" s="16"/>
-      <c r="S116" s="15"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="23"/>
-      <c r="Y116" s="24"/>
-      <c r="Z116" s="23"/>
-      <c r="AA116" s="24"/>
-      <c r="AB116" s="23"/>
-      <c r="AC116" s="24"/>
-      <c r="AD116" s="23"/>
-      <c r="AE116" s="24"/>
-      <c r="AF116" s="23"/>
-      <c r="AG116" s="15"/>
-      <c r="AH116" s="17"/>
-      <c r="AI116" s="18"/>
-      <c r="AJ116" s="17"/>
-      <c r="AK116" s="18"/>
-      <c r="AL116" s="16"/>
-      <c r="AM116" s="15"/>
-      <c r="AN116" s="16"/>
-      <c r="AO116" s="15"/>
-      <c r="AP116" s="16"/>
-      <c r="AQ116" s="15"/>
-      <c r="AR116" s="16"/>
-      <c r="AS116" s="15"/>
-      <c r="AT116" s="16"/>
-      <c r="AU116" s="15"/>
-    </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="X117" s="54"/>
-      <c r="Y117" s="54"/>
-      <c r="Z117" s="54"/>
-      <c r="AA117" s="54"/>
-      <c r="AB117" s="54"/>
-      <c r="AC117" s="54"/>
-      <c r="AD117" s="54"/>
-      <c r="AE117" s="54"/>
-      <c r="AF117" s="54"/>
+      <c r="X110" s="54"/>
+      <c r="Y110" s="54"/>
+      <c r="Z110" s="54"/>
+      <c r="AA110" s="54"/>
+      <c r="AB110" s="54"/>
+      <c r="AC110" s="54"/>
+      <c r="AD110" s="54"/>
+      <c r="AE110" s="54"/>
+      <c r="AF110" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:AC1"/>
-    <mergeCell ref="AD1:AU1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
+  <mergeCells count="66">
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="AT3:AU3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:I6"/>
@@ -23557,25 +23305,49 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AD1:AU1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23586,13 +23358,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I3 I7:I17 I66:I80 I82:I86 I48:I60 I88:I93 I5 I64 I27:I28 I30:I34 I36:I41 I19:I25 I62 I43:I46 I95:I100 I102:I116</xm:sqref>
+          <xm:sqref>I1:I3 I7:I17 I31:I34 I19:I26 I47:I59 I5 I63 I28:I29 I36:I41 I90:I93 I61 I43:I45 I65:I76 I78:I81 I83:I88 I95:I109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9CA0496-CD45-43D4-A5A6-DA28510E7DF9}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H3 H7:H17 H82:H86 H66:H80 H88:H93 H5 H64 H27:H28 H19:H25 H30:H34 H36:H41 H62 H43:H46 H48:H60 H95:H100 H102:H116</xm:sqref>
+          <xm:sqref>H1:H3 H7:H17 H19:H26 H31:H34 H5 H63 H28:H29 H90:H93 H36:H41 H61 H43:H45 H47:H59 H65:H76 H78:H81 H83:H88 H95:H109</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084CA82-14F8-46B7-92D6-8D8C479B7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9B1FF-E1BF-406C-8694-9F27D1835F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,25 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">バックエンド!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">バックエンド!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="156">
   <si>
     <t>予定</t>
   </si>
@@ -1398,7 +1411,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,6 +1463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1812,25 +1831,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,44 +1869,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1920,45 +1935,53 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1966,10 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9149,74 +9169,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="99" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="100"/>
-      <c r="AU1" s="101"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -9232,187 +9252,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="56">
+      <c r="H2" s="88"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="104">
         <v>22</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="56">
+      <c r="K2" s="76"/>
+      <c r="L2" s="104">
         <v>23</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104">
         <v>24</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="56">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104">
         <v>25</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="56">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="104">
         <v>26</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58">
+      <c r="S2" s="105"/>
+      <c r="T2" s="102">
         <v>27</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58">
+      <c r="U2" s="103"/>
+      <c r="V2" s="102">
         <v>28</v>
       </c>
-      <c r="W2" s="59"/>
-      <c r="X2" s="56">
+      <c r="W2" s="103"/>
+      <c r="X2" s="104">
         <v>29</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="56">
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="104">
         <v>30</v>
       </c>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="56">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="104">
         <v>31</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="92">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="77">
         <v>1</v>
       </c>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="92">
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="77">
         <v>2</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="95">
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="79">
         <v>3</v>
       </c>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="95">
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="79">
         <v>4</v>
       </c>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="92">
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="77">
         <v>5</v>
       </c>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="92">
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="77">
         <v>6</v>
       </c>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="92">
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="77">
         <v>7</v>
       </c>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="92">
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="77">
         <v>8</v>
       </c>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="92">
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="77">
         <v>9</v>
       </c>
-      <c r="AU2" s="93"/>
+      <c r="AU2" s="78"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="56" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="105"/>
+      <c r="P3" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="58" t="s">
+      <c r="U3" s="103"/>
+      <c r="V3" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="103"/>
+      <c r="X3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="94" t="s">
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="94" t="s">
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="97" t="s">
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="97" t="s">
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="94" t="s">
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="94" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="94" t="s">
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="94" t="s">
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="94" t="s">
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="69"/>
+      <c r="AU3" s="76"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -9518,17 +9538,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -10280,17 +10300,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -10786,17 +10806,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -10953,17 +10973,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="108"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -11321,17 +11341,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -11762,17 +11782,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -12073,17 +12093,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -13553,17 +13573,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="72"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="70"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -13669,17 +13689,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="72"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="70"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -13785,17 +13805,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="63" t="s">
+      <c r="A74" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="65"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -13899,17 +13919,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="87"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="91"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -14694,17 +14714,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="79" t="s">
+      <c r="A89" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="94"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -14745,17 +14765,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="68"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="97"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="98"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -15093,17 +15113,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="68"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="97"/>
+      <c r="H96" s="97"/>
+      <c r="I96" s="98"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -15492,17 +15512,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="66" t="s">
+      <c r="A103" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="68"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="97"/>
+      <c r="G103" s="97"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="98"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -15840,17 +15860,17 @@
       <c r="AU108" s="15"/>
     </row>
     <row r="109" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="79" t="s">
+      <c r="A109" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="80"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="81"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="84"/>
+      <c r="I109" s="85"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -17251,17 +17271,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A132" s="79" t="s">
+      <c r="A132" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="81"/>
+      <c r="B132" s="84"/>
+      <c r="C132" s="84"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="85"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -17384,6 +17404,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="AD1:AU1"/>
     <mergeCell ref="A6:I6"/>
@@ -17400,55 +17469,6 @@
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17483,10 +17503,10 @@
   <dimension ref="A1:AU110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="U16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -17497,73 +17517,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="99" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="100"/>
-      <c r="AU1" s="101"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -17579,186 +17599,186 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="56">
+      <c r="H2" s="88"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="104">
         <v>22</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="56">
+      <c r="K2" s="76"/>
+      <c r="L2" s="104">
         <v>23</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56">
+      <c r="M2" s="105"/>
+      <c r="N2" s="104">
         <v>24</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="56">
+      <c r="O2" s="105"/>
+      <c r="P2" s="104">
         <v>25</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="56">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="104">
         <v>26</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58">
+      <c r="S2" s="105"/>
+      <c r="T2" s="102">
         <v>27</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58">
+      <c r="U2" s="103"/>
+      <c r="V2" s="102">
         <v>28</v>
       </c>
-      <c r="W2" s="59"/>
-      <c r="X2" s="56">
+      <c r="W2" s="103"/>
+      <c r="X2" s="104">
         <v>29</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="56">
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="104">
         <v>30</v>
       </c>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="56">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="104">
         <v>31</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="92">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="77">
         <v>1</v>
       </c>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="92">
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="77">
         <v>2</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="95">
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="79">
         <v>3</v>
       </c>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="95">
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="79">
         <v>4</v>
       </c>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="92">
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="77">
         <v>5</v>
       </c>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="92">
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="77">
         <v>6</v>
       </c>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="92">
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="77">
         <v>7</v>
       </c>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="92">
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="77">
         <v>8</v>
       </c>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="92">
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="77">
         <v>9</v>
       </c>
-      <c r="AU2" s="93"/>
+      <c r="AU2" s="78"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="56" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="105"/>
+      <c r="P3" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="58" t="s">
+      <c r="U3" s="103"/>
+      <c r="V3" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="103"/>
+      <c r="X3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="94" t="s">
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="94" t="s">
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="97" t="s">
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="97" t="s">
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="94" t="s">
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="94" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="94" t="s">
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="94" t="s">
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="94" t="s">
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="69"/>
+      <c r="AU3" s="76"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="23"/>
@@ -17799,17 +17819,17 @@
       <c r="AU4" s="15"/>
     </row>
     <row r="5" spans="1:47" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="103"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="L5" s="23"/>
@@ -17850,17 +17870,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="23"/>
@@ -17914,9 +17934,13 @@
       <c r="E7" s="34">
         <v>45506.479166666664</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="34">
+        <v>45505.361111111109</v>
+      </c>
       <c r="G7" s="34"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
@@ -17971,9 +17995,13 @@
       <c r="E8" s="34">
         <v>45506.479166666664</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34">
+        <v>45505.361111111109</v>
+      </c>
       <c r="G8" s="34"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
@@ -18028,9 +18056,13 @@
       <c r="E9" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G9" s="34"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
@@ -18085,9 +18117,13 @@
       <c r="E10" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
@@ -18142,9 +18178,13 @@
       <c r="E11" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
@@ -18199,9 +18239,13 @@
       <c r="E12" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
@@ -18256,9 +18300,13 @@
       <c r="E13" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
@@ -18313,9 +18361,13 @@
       <c r="E14" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="23"/>
       <c r="K14" s="24"/>
@@ -18370,9 +18422,13 @@
       <c r="E15" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="23"/>
       <c r="K15" s="24"/>
@@ -18427,9 +18483,13 @@
       <c r="E16" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G16" s="34"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
@@ -18484,9 +18544,13 @@
       <c r="E17" s="34">
         <v>45506.479166608799</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
@@ -18528,17 +18592,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
@@ -18579,17 +18643,17 @@
       <c r="AU18" s="15"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="110"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="23"/>
@@ -18643,9 +18707,13 @@
       <c r="E20" s="55">
         <v>45506.666666666664</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="34">
+        <v>45505.361111111109</v>
+      </c>
       <c r="G20" s="34"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="23"/>
       <c r="K20" s="24"/>
@@ -18700,9 +18768,13 @@
       <c r="E21" s="55">
         <v>45506.666666666664</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="34">
+        <v>45505.361111111109</v>
+      </c>
       <c r="G21" s="34"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
@@ -18757,9 +18829,13 @@
       <c r="E22" s="55">
         <v>45506.666666608799</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G22" s="34"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
@@ -18814,9 +18890,13 @@
       <c r="E23" s="55">
         <v>45506.666666608799</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="23"/>
       <c r="K23" s="24"/>
@@ -18871,9 +18951,13 @@
       <c r="E24" s="55">
         <v>45506.666666608799</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G24" s="34"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="23"/>
       <c r="K24" s="24"/>
@@ -18928,9 +19012,13 @@
       <c r="E25" s="55">
         <v>45506.666666608799</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G25" s="34"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="52"/>
       <c r="K25" s="24"/>
@@ -18985,9 +19073,13 @@
       <c r="E26" s="55">
         <v>45506.666666608799</v>
       </c>
-      <c r="F26" s="34"/>
+      <c r="F26" s="34">
+        <v>45505.361111053244</v>
+      </c>
       <c r="G26" s="34"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="52"/>
       <c r="K26" s="24"/>
@@ -19029,17 +19121,17 @@
       <c r="AU26" s="15"/>
     </row>
     <row r="27" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="52"/>
       <c r="K27" s="24"/>
       <c r="L27" s="23"/>
@@ -19093,7 +19185,9 @@
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13">
+        <v>0.7</v>
+      </c>
       <c r="I28" s="12"/>
       <c r="J28" s="23"/>
       <c r="K28" s="24"/>
@@ -19186,17 +19280,17 @@
       <c r="AU29" s="15"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="23"/>
       <c r="K30" s="24"/>
       <c r="L30" s="23"/>
@@ -19242,9 +19336,15 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="34">
+        <v>45509.361111111109</v>
+      </c>
+      <c r="E31" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F31" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G31" s="34"/>
       <c r="H31" s="7"/>
       <c r="I31" s="4"/>
@@ -19293,9 +19393,15 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="34">
+        <v>45509.361111111109</v>
+      </c>
+      <c r="E32" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F32" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G32" s="34"/>
       <c r="H32" s="7"/>
       <c r="I32" s="4"/>
@@ -19344,9 +19450,15 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="D33" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E33" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F33" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G33" s="34"/>
       <c r="H33" s="7"/>
       <c r="I33" s="4"/>
@@ -19395,9 +19507,15 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="D34" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E34" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F34" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G34" s="34"/>
       <c r="H34" s="7"/>
       <c r="I34" s="12"/>
@@ -19441,17 +19559,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="23"/>
       <c r="K35" s="24"/>
       <c r="L35" s="23"/>
@@ -19497,9 +19615,15 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="D36" s="34">
+        <v>45509.361111111109</v>
+      </c>
+      <c r="E36" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F36" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G36" s="34"/>
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
@@ -19548,9 +19672,15 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="D37" s="34">
+        <v>45509.361111111109</v>
+      </c>
+      <c r="E37" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F37" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G37" s="34"/>
       <c r="H37" s="7"/>
       <c r="I37" s="4"/>
@@ -19599,9 +19729,15 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="D38" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E38" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F38" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G38" s="34"/>
       <c r="H38" s="7"/>
       <c r="I38" s="4"/>
@@ -19650,9 +19786,15 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="D39" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E39" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F39" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G39" s="34"/>
       <c r="H39" s="7"/>
       <c r="I39" s="4"/>
@@ -19701,9 +19843,15 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="D40" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E40" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F40" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G40" s="34"/>
       <c r="H40" s="7"/>
       <c r="I40" s="4"/>
@@ -19752,9 +19900,15 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="D41" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E41" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F41" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G41" s="34"/>
       <c r="H41" s="7"/>
       <c r="I41" s="4"/>
@@ -19798,17 +19952,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="L42" s="23"/>
@@ -19854,9 +20008,15 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="D43" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E43" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F43" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G43" s="34"/>
       <c r="H43" s="7"/>
       <c r="I43" s="4"/>
@@ -19905,9 +20065,15 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="D44" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E44" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F44" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G44" s="34"/>
       <c r="H44" s="7"/>
       <c r="I44" s="4"/>
@@ -19956,9 +20122,15 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="D45" s="34">
+        <v>45509.361111053244</v>
+      </c>
+      <c r="E45" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="F45" s="34">
+        <v>45506.361111111109</v>
+      </c>
       <c r="G45" s="34"/>
       <c r="H45" s="7"/>
       <c r="I45" s="4"/>
@@ -20002,17 +20174,17 @@
       <c r="AU45" s="15"/>
     </row>
     <row r="46" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="23"/>
       <c r="K46" s="24"/>
       <c r="L46" s="23"/>
@@ -20060,9 +20232,15 @@
       <c r="C47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="D47" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E47" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F47" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G47" s="34"/>
       <c r="H47" s="7"/>
       <c r="I47" s="4"/>
@@ -20113,9 +20291,15 @@
       <c r="C48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+      <c r="D48" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E48" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F48" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G48" s="34"/>
       <c r="H48" s="7"/>
       <c r="I48" s="4"/>
@@ -20159,17 +20343,17 @@
       <c r="AU48" s="15"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="106"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="59"/>
       <c r="J49" s="23"/>
       <c r="K49" s="24"/>
       <c r="L49" s="23"/>
@@ -20210,17 +20394,17 @@
       <c r="AU49" s="15"/>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="106"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="23"/>
       <c r="K50" s="24"/>
       <c r="L50" s="23"/>
@@ -20261,17 +20445,17 @@
       <c r="AU50" s="15"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="106"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="23"/>
       <c r="K51" s="24"/>
       <c r="L51" s="23"/>
@@ -20316,10 +20500,18 @@
         <v>67</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
+      <c r="C52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E52" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F52" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G52" s="34"/>
       <c r="H52" s="7"/>
       <c r="I52" s="4"/>
@@ -20367,10 +20559,18 @@
         <v>68</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E53" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F53" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G53" s="34"/>
       <c r="H53" s="7"/>
       <c r="I53" s="4"/>
@@ -20418,10 +20618,18 @@
         <v>69</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
+      <c r="C54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E54" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F54" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G54" s="34"/>
       <c r="H54" s="7"/>
       <c r="I54" s="4"/>
@@ -20469,10 +20677,18 @@
         <v>70</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+      <c r="C55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E55" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F55" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G55" s="34"/>
       <c r="H55" s="7"/>
       <c r="I55" s="4"/>
@@ -20520,10 +20736,18 @@
         <v>71</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+      <c r="C56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E56" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F56" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G56" s="34"/>
       <c r="H56" s="7"/>
       <c r="I56" s="4"/>
@@ -20571,10 +20795,18 @@
         <v>72</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
+      <c r="C57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E57" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F57" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G57" s="34"/>
       <c r="H57" s="7"/>
       <c r="I57" s="4"/>
@@ -20622,10 +20854,18 @@
         <v>73</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
+      <c r="C58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E58" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F58" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G58" s="34"/>
       <c r="H58" s="7"/>
       <c r="I58" s="4"/>
@@ -20673,10 +20913,18 @@
         <v>60</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
+      <c r="C59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="34">
+        <v>45509.520833333336</v>
+      </c>
+      <c r="E59" s="34">
+        <v>45509.666666666664</v>
+      </c>
+      <c r="F59" s="34">
+        <v>45506.520833333336</v>
+      </c>
       <c r="G59" s="34"/>
       <c r="H59" s="7"/>
       <c r="I59" s="4"/>
@@ -20720,17 +20968,17 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="72"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="23"/>
       <c r="K60" s="24"/>
       <c r="L60" s="23"/>
@@ -20822,17 +21070,17 @@
       <c r="AU61" s="15"/>
     </row>
     <row r="62" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="23"/>
       <c r="K62" s="24"/>
       <c r="L62" s="23"/>
@@ -20924,17 +21172,17 @@
       <c r="AU63" s="15"/>
     </row>
     <row r="64" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="65"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="23"/>
       <c r="K64" s="24"/>
       <c r="L64" s="23"/>
@@ -21026,17 +21274,17 @@
       <c r="AU65" s="15"/>
     </row>
     <row r="66" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="87"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="91"/>
       <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="23"/>
@@ -21077,10 +21325,10 @@
       <c r="AU66" s="15"/>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="109"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="4"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -21179,17 +21427,17 @@
       <c r="AU68" s="15"/>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A69" s="106" t="s">
+      <c r="A69" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="106"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="23"/>
       <c r="K69" s="24"/>
       <c r="L69" s="23"/>
@@ -21536,17 +21784,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="90"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="94"/>
       <c r="J76" s="23"/>
       <c r="K76" s="24"/>
       <c r="L76" s="23"/>
@@ -21587,17 +21835,17 @@
       <c r="AU76" s="15"/>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="75"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="108"/>
       <c r="J77" s="23"/>
       <c r="K77" s="24"/>
       <c r="L77" s="23"/>
@@ -21842,17 +22090,17 @@
       <c r="AU81" s="15"/>
     </row>
     <row r="82" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="78"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="111"/>
       <c r="J82" s="23"/>
       <c r="K82" s="24"/>
       <c r="L82" s="23"/>
@@ -22199,17 +22447,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="78"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="111"/>
       <c r="J89" s="23"/>
       <c r="K89" s="24"/>
       <c r="L89" s="23"/>
@@ -22403,17 +22651,17 @@
       <c r="AU92" s="15"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="80"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="81"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="85"/>
       <c r="J93" s="23"/>
       <c r="K93" s="24"/>
       <c r="L93" s="23"/>
@@ -22607,17 +22855,17 @@
       <c r="AU96" s="15"/>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B97" s="106"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="113"/>
-      <c r="I97" s="106"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="59"/>
       <c r="J97" s="23"/>
       <c r="K97" s="24"/>
       <c r="L97" s="23"/>
@@ -22658,17 +22906,17 @@
       <c r="AU97" s="15"/>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="113"/>
-      <c r="I98" s="106"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="16"/>
       <c r="K98" s="15"/>
       <c r="L98" s="16"/>
@@ -22709,17 +22957,17 @@
       <c r="AU98" s="15"/>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="105"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="113"/>
-      <c r="I99" s="106"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="16"/>
       <c r="K99" s="15"/>
       <c r="L99" s="16"/>
@@ -23168,17 +23416,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A108" s="79" t="s">
+      <c r="A108" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="80"/>
-      <c r="E108" s="80"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="80"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="81"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="84"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="84"/>
+      <c r="I108" s="85"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -23282,29 +23530,30 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AD1:AU1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="A60:I60"/>
@@ -23321,33 +23570,32 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AD1:AU1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23364,7 +23612,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H3 H7:H17 H19:H26 H31:H34 H5 H63 H28:H29 H90:H93 H36:H41 H61 H43:H45 H47:H59 H65:H76 H78:H81 H83:H88 H95:H109</xm:sqref>
+          <xm:sqref>H1:H3 H95:H109 H7:H17 H31:H34 H5 H63 H28:H29 H90:H93 H36:H41 H61 H43:H45 H47:H59 H65:H76 H78:H81 H83:H88 H19:H26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9B1FF-E1BF-406C-8694-9F27D1835F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BAFD66-C569-4D83-A2FB-A6FFDDBE2E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1842,14 +1842,21 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1866,35 +1873,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1953,35 +1948,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1989,7 +1990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9169,74 +9169,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="65" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="111"/>
       <c r="AME1"/>
     </row>
     <row r="2" spans="1:1019" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -9252,187 +9252,187 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="104">
+      <c r="H2" s="87"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="66">
         <v>22</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="104">
+      <c r="K2" s="70"/>
+      <c r="L2" s="66">
         <v>23</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104">
+      <c r="M2" s="67"/>
+      <c r="N2" s="66">
         <v>24</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104">
+      <c r="O2" s="67"/>
+      <c r="P2" s="66">
         <v>25</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="104">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="66">
         <v>26</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="102">
+      <c r="S2" s="67"/>
+      <c r="T2" s="68">
         <v>27</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="102">
+      <c r="U2" s="69"/>
+      <c r="V2" s="68">
         <v>28</v>
       </c>
-      <c r="W2" s="103"/>
-      <c r="X2" s="104">
+      <c r="W2" s="69"/>
+      <c r="X2" s="66">
         <v>29</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="104">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="66">
         <v>30</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="104">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="66">
         <v>31</v>
       </c>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="77">
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="103">
         <v>1</v>
       </c>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="77">
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="103">
         <v>2</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="79">
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="105">
         <v>3</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="79">
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="105">
         <v>4</v>
       </c>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="77">
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="103">
         <v>5</v>
       </c>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="77">
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="103">
         <v>6</v>
       </c>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="77">
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="103">
         <v>7</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="77">
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="103">
         <v>8</v>
       </c>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="77">
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="103">
         <v>9</v>
       </c>
-      <c r="AU2" s="78"/>
+      <c r="AU2" s="104"/>
       <c r="AME2"/>
     </row>
     <row r="3" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="104" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="104" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="104" t="s">
+      <c r="O3" s="67"/>
+      <c r="P3" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="104" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="102" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="103"/>
-      <c r="V3" s="102" t="s">
+      <c r="U3" s="69"/>
+      <c r="V3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="103"/>
-      <c r="X3" s="104" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="104" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="104" t="s">
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="75" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="75" t="s">
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="81" t="s">
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="81" t="s">
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="75" t="s">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="75" t="s">
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="75" t="s">
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="75" t="s">
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="76"/>
+      <c r="AU3" s="70"/>
     </row>
     <row r="4" spans="1:1019" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="16"/>
@@ -9538,17 +9538,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:1019" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="16"/>
@@ -10300,17 +10300,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="16"/>
@@ -10806,17 +10806,17 @@
       <c r="AU25" s="15"/>
     </row>
     <row r="26" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="25"/>
       <c r="K26" s="15"/>
       <c r="L26" s="23"/>
@@ -10973,17 +10973,17 @@
       <c r="AU28" s="15"/>
     </row>
     <row r="29" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
@@ -11341,17 +11341,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="111"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="81"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
@@ -11782,17 +11782,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
@@ -12093,17 +12093,17 @@
       <c r="AU46" s="15"/>
     </row>
     <row r="47" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
@@ -13573,17 +13573,17 @@
       <c r="AU69" s="15"/>
     </row>
     <row r="70" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="70"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="16"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
@@ -13689,17 +13689,17 @@
       <c r="AU71" s="15"/>
     </row>
     <row r="72" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="70"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
@@ -13805,17 +13805,17 @@
       <c r="AU73" s="15"/>
     </row>
     <row r="74" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="73"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
@@ -13919,17 +13919,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="91"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="90"/>
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
@@ -14714,17 +14714,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="94"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="93"/>
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
       <c r="L89" s="16"/>
@@ -14765,17 +14765,17 @@
       <c r="AU89" s="15"/>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A90" s="96" t="s">
+      <c r="A90" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="97"/>
-      <c r="C90" s="97"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="97"/>
-      <c r="F90" s="97"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="98"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="97"/>
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
@@ -15113,17 +15113,17 @@
       <c r="AU95" s="15"/>
     </row>
     <row r="96" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="96" t="s">
+      <c r="A96" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="97"/>
-      <c r="F96" s="97"/>
-      <c r="G96" s="97"/>
-      <c r="H96" s="97"/>
-      <c r="I96" s="98"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="97"/>
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
       <c r="L96" s="16"/>
@@ -15512,17 +15512,17 @@
       <c r="AU102" s="15"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A103" s="96" t="s">
+      <c r="A103" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="97"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="97"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="98"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="97"/>
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
       <c r="L103" s="16"/>
@@ -15860,17 +15860,17 @@
       <c r="AU108" s="15"/>
     </row>
     <row r="109" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="83" t="s">
+      <c r="A109" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="84"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="84"/>
-      <c r="I109" s="85"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="84"/>
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
       <c r="L109" s="16"/>
@@ -17271,17 +17271,17 @@
       <c r="AU131" s="15"/>
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="84"/>
-      <c r="C132" s="84"/>
-      <c r="D132" s="84"/>
-      <c r="E132" s="84"/>
-      <c r="F132" s="84"/>
-      <c r="G132" s="84"/>
-      <c r="H132" s="84"/>
-      <c r="I132" s="85"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="84"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
       <c r="L132" s="16"/>
@@ -17404,32 +17404,29 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="AD1:AU1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A132:I132"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -17446,29 +17443,32 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="A90:I90"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="J1:AC1"/>
-    <mergeCell ref="AD1:AU1"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17503,10 +17503,10 @@
   <dimension ref="A1:AU110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -17517,73 +17517,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="65" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="67"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="111"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -17599,186 +17599,186 @@
       <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="104">
+      <c r="H2" s="87"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="66">
         <v>22</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="104">
+      <c r="K2" s="70"/>
+      <c r="L2" s="66">
         <v>23</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="104">
+      <c r="M2" s="67"/>
+      <c r="N2" s="66">
         <v>24</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="104">
+      <c r="O2" s="67"/>
+      <c r="P2" s="66">
         <v>25</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="104">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="66">
         <v>26</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="102">
+      <c r="S2" s="67"/>
+      <c r="T2" s="68">
         <v>27</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="102">
+      <c r="U2" s="69"/>
+      <c r="V2" s="68">
         <v>28</v>
       </c>
-      <c r="W2" s="103"/>
-      <c r="X2" s="104">
+      <c r="W2" s="69"/>
+      <c r="X2" s="66">
         <v>29</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="104">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="66">
         <v>30</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="104">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="66">
         <v>31</v>
       </c>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="77">
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="103">
         <v>1</v>
       </c>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="77">
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="103">
         <v>2</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="79">
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="105">
         <v>3</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="79">
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="105">
         <v>4</v>
       </c>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="77">
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="103">
         <v>5</v>
       </c>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="77">
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="103">
         <v>6</v>
       </c>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="77">
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="103">
         <v>7</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="77">
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="103">
         <v>8</v>
       </c>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="77">
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="103">
         <v>9</v>
       </c>
-      <c r="AU2" s="78"/>
+      <c r="AU2" s="104"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="104" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="104" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="104" t="s">
+      <c r="O3" s="67"/>
+      <c r="P3" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="104" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="102" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="103"/>
-      <c r="V3" s="102" t="s">
+      <c r="U3" s="69"/>
+      <c r="V3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="103"/>
-      <c r="X3" s="104" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="104" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="104" t="s">
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="75" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="75" t="s">
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="81" t="s">
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="81" t="s">
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="75" t="s">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="75" t="s">
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="75" t="s">
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="75" t="s">
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="76"/>
+      <c r="AU3" s="70"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="23"/>
@@ -17870,17 +17870,17 @@
       <c r="AU5" s="15"/>
     </row>
     <row r="6" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="23"/>
@@ -18592,17 +18592,17 @@
       <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
@@ -19121,17 +19121,17 @@
       <c r="AU26" s="15"/>
     </row>
     <row r="27" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="52"/>
       <c r="K27" s="24"/>
       <c r="L27" s="23"/>
@@ -19280,17 +19280,17 @@
       <c r="AU29" s="15"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="23"/>
       <c r="K30" s="24"/>
       <c r="L30" s="23"/>
@@ -19559,17 +19559,17 @@
       <c r="AU34" s="15"/>
     </row>
     <row r="35" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="111"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="81"/>
       <c r="J35" s="23"/>
       <c r="K35" s="24"/>
       <c r="L35" s="23"/>
@@ -19952,17 +19952,17 @@
       <c r="AU41" s="15"/>
     </row>
     <row r="42" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="L42" s="23"/>
@@ -20174,17 +20174,17 @@
       <c r="AU45" s="15"/>
     </row>
     <row r="46" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="23"/>
       <c r="K46" s="24"/>
       <c r="L46" s="23"/>
@@ -20350,7 +20350,7 @@
       <c r="C49" s="59"/>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
-      <c r="F49" s="114"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="58"/>
       <c r="H49" s="64"/>
       <c r="I49" s="59"/>
@@ -20401,7 +20401,7 @@
       <c r="C50" s="59"/>
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
-      <c r="F50" s="114"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="58"/>
       <c r="H50" s="64"/>
       <c r="I50" s="59"/>
@@ -20452,7 +20452,7 @@
       <c r="C51" s="59"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
-      <c r="F51" s="114"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="58"/>
       <c r="H51" s="64"/>
       <c r="I51" s="59"/>
@@ -20968,17 +20968,17 @@
       <c r="AU59" s="15"/>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="70"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="23"/>
       <c r="K60" s="24"/>
       <c r="L60" s="23"/>
@@ -21070,17 +21070,17 @@
       <c r="AU61" s="15"/>
     </row>
     <row r="62" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="23"/>
       <c r="K62" s="24"/>
       <c r="L62" s="23"/>
@@ -21172,17 +21172,17 @@
       <c r="AU63" s="15"/>
     </row>
     <row r="64" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="73"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="101"/>
       <c r="J64" s="23"/>
       <c r="K64" s="24"/>
       <c r="L64" s="23"/>
@@ -21274,17 +21274,17 @@
       <c r="AU65" s="15"/>
     </row>
     <row r="66" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="91"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
       <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="23"/>
@@ -21325,10 +21325,10 @@
       <c r="AU66" s="15"/>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="113"/>
+      <c r="B67" s="114"/>
       <c r="C67" s="4"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -21784,17 +21784,17 @@
       <c r="AU75" s="15"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="94"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="93"/>
       <c r="J76" s="23"/>
       <c r="K76" s="24"/>
       <c r="L76" s="23"/>
@@ -21835,17 +21835,17 @@
       <c r="AU76" s="15"/>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A77" s="106" t="s">
+      <c r="A77" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="108"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="23"/>
       <c r="K77" s="24"/>
       <c r="L77" s="23"/>
@@ -22090,17 +22090,17 @@
       <c r="AU81" s="15"/>
     </row>
     <row r="82" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="111"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="80"/>
+      <c r="I82" s="81"/>
       <c r="J82" s="23"/>
       <c r="K82" s="24"/>
       <c r="L82" s="23"/>
@@ -22447,17 +22447,17 @@
       <c r="AU88" s="15"/>
     </row>
     <row r="89" spans="1:47" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="109" t="s">
+      <c r="A89" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="110"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="110"/>
-      <c r="F89" s="110"/>
-      <c r="G89" s="110"/>
-      <c r="H89" s="110"/>
-      <c r="I89" s="111"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="81"/>
       <c r="J89" s="23"/>
       <c r="K89" s="24"/>
       <c r="L89" s="23"/>
@@ -22651,17 +22651,17 @@
       <c r="AU92" s="15"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="85"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="84"/>
       <c r="J93" s="23"/>
       <c r="K93" s="24"/>
       <c r="L93" s="23"/>
@@ -23416,17 +23416,17 @@
       <c r="AU107" s="15"/>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="84"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="84"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
-      <c r="I108" s="85"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="84"/>
       <c r="J108" s="16"/>
       <c r="K108" s="15"/>
       <c r="L108" s="16"/>
@@ -23530,14 +23530,48 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -23554,48 +23588,14 @@
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
